--- a/Netherlands Eerste Divisie/Netherlands Eerste Divisie.xlsx
+++ b/Netherlands Eerste Divisie/Netherlands Eerste Divisie.xlsx
@@ -33834,7 +33834,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>6842361</v>
+        <v>6841998</v>
       </c>
       <c r="C375" t="s">
         <v>28</v>
@@ -33846,58 +33846,58 @@
         <v>45268.66666666666</v>
       </c>
       <c r="F375" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G375" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H375">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I375">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J375" t="s">
         <v>54</v>
       </c>
       <c r="K375">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L375">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M375">
-        <v>2.25</v>
+        <v>7.5</v>
       </c>
       <c r="N375">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="O375">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P375">
-        <v>2.15</v>
+        <v>11</v>
       </c>
       <c r="Q375">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R375">
+        <v>1.9</v>
+      </c>
+      <c r="S375">
         <v>1.95</v>
       </c>
-      <c r="S375">
-        <v>1.9</v>
-      </c>
       <c r="T375">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U375">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V375">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W375">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="X375">
         <v>-1</v>
@@ -33906,16 +33906,16 @@
         <v>-1</v>
       </c>
       <c r="Z375">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA375">
         <v>-1</v>
       </c>
       <c r="AB375">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC375">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="376" spans="1:29">
@@ -33923,7 +33923,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>6841998</v>
+        <v>6842363</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33935,10 +33935,10 @@
         <v>45268.66666666666</v>
       </c>
       <c r="F376" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G376" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H376">
         <v>2</v>
@@ -33950,43 +33950,43 @@
         <v>54</v>
       </c>
       <c r="K376">
-        <v>1.4</v>
+        <v>1.285</v>
       </c>
       <c r="L376">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M376">
         <v>7.5</v>
       </c>
       <c r="N376">
-        <v>1.3</v>
+        <v>1.333</v>
       </c>
       <c r="O376">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P376">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="Q376">
         <v>-1.5</v>
       </c>
       <c r="R376">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S376">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T376">
         <v>3</v>
       </c>
       <c r="U376">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V376">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W376">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="X376">
         <v>-1</v>
@@ -33995,7 +33995,7 @@
         <v>-1</v>
       </c>
       <c r="Z376">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA376">
         <v>-1</v>
@@ -34004,7 +34004,7 @@
         <v>-1</v>
       </c>
       <c r="AC376">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="377" spans="1:29">
@@ -34012,7 +34012,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>6842363</v>
+        <v>6842362</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -34024,76 +34024,76 @@
         <v>45268.66666666666</v>
       </c>
       <c r="F377" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G377" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I377">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J377" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K377">
-        <v>1.285</v>
+        <v>1.8</v>
       </c>
       <c r="L377">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M377">
-        <v>7.5</v>
+        <v>3.9</v>
       </c>
       <c r="N377">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="O377">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P377">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q377">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R377">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S377">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T377">
         <v>3</v>
       </c>
       <c r="U377">
+        <v>1.875</v>
+      </c>
+      <c r="V377">
         <v>1.975</v>
       </c>
-      <c r="V377">
-        <v>1.875</v>
-      </c>
       <c r="W377">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X377">
         <v>-1</v>
       </c>
       <c r="Y377">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z377">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA377">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB377">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC377">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="378" spans="1:29">
@@ -34101,7 +34101,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>6842362</v>
+        <v>6842361</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34113,76 +34113,76 @@
         <v>45268.66666666666</v>
       </c>
       <c r="F378" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G378" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I378">
         <v>2</v>
       </c>
       <c r="J378" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K378">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L378">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M378">
-        <v>3.9</v>
+        <v>2.25</v>
       </c>
       <c r="N378">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="O378">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P378">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q378">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R378">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S378">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T378">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U378">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V378">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W378">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X378">
         <v>-1</v>
       </c>
       <c r="Y378">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z378">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA378">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB378">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC378">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="379" spans="1:29">
@@ -34368,7 +34368,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>6842471</v>
+        <v>6842368</v>
       </c>
       <c r="C381" t="s">
         <v>28</v>
@@ -34380,76 +34380,76 @@
         <v>45268.66666666666</v>
       </c>
       <c r="F381" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G381" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H381">
         <v>2</v>
       </c>
       <c r="I381">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J381" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K381">
-        <v>2.25</v>
+        <v>1.285</v>
       </c>
       <c r="L381">
+        <v>5.5</v>
+      </c>
+      <c r="M381">
+        <v>7.5</v>
+      </c>
+      <c r="N381">
+        <v>1.45</v>
+      </c>
+      <c r="O381">
+        <v>5.5</v>
+      </c>
+      <c r="P381">
+        <v>5.25</v>
+      </c>
+      <c r="Q381">
+        <v>-1.25</v>
+      </c>
+      <c r="R381">
+        <v>1.95</v>
+      </c>
+      <c r="S381">
+        <v>1.9</v>
+      </c>
+      <c r="T381">
         <v>3.5</v>
       </c>
-      <c r="M381">
-        <v>2.75</v>
-      </c>
-      <c r="N381">
-        <v>2.4</v>
-      </c>
-      <c r="O381">
-        <v>3.6</v>
-      </c>
-      <c r="P381">
-        <v>2.625</v>
-      </c>
-      <c r="Q381">
-        <v>0</v>
-      </c>
-      <c r="R381">
-        <v>1.825</v>
-      </c>
-      <c r="S381">
-        <v>2.025</v>
-      </c>
-      <c r="T381">
-        <v>3</v>
-      </c>
       <c r="U381">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V381">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W381">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X381">
         <v>-1</v>
       </c>
       <c r="Y381">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z381">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA381">
-        <v>1.025</v>
+        <v>0.45</v>
       </c>
       <c r="AB381">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC381">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="382" spans="1:29">
@@ -34457,7 +34457,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>6842368</v>
+        <v>6842471</v>
       </c>
       <c r="C382" t="s">
         <v>28</v>
@@ -34469,76 +34469,76 @@
         <v>45268.66666666666</v>
       </c>
       <c r="F382" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G382" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H382">
         <v>2</v>
       </c>
       <c r="I382">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J382" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K382">
-        <v>1.285</v>
+        <v>2.25</v>
       </c>
       <c r="L382">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M382">
-        <v>7.5</v>
+        <v>2.75</v>
       </c>
       <c r="N382">
-        <v>1.45</v>
+        <v>2.4</v>
       </c>
       <c r="O382">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P382">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="Q382">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R382">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S382">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T382">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U382">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V382">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W382">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X382">
         <v>-1</v>
       </c>
       <c r="Y382">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z382">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA382">
-        <v>0.45</v>
+        <v>1.025</v>
       </c>
       <c r="AB382">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC382">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="383" spans="1:29">
@@ -34546,7 +34546,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>6842472</v>
+        <v>6842369</v>
       </c>
       <c r="C383" t="s">
         <v>28</v>
@@ -34558,76 +34558,76 @@
         <v>45271.66666666666</v>
       </c>
       <c r="F383" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G383" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H383">
+        <v>2</v>
+      </c>
+      <c r="I383">
+        <v>1</v>
+      </c>
+      <c r="J383" t="s">
+        <v>54</v>
+      </c>
+      <c r="K383">
+        <v>1.666</v>
+      </c>
+      <c r="L383">
+        <v>3.5</v>
+      </c>
+      <c r="M383">
+        <v>4.75</v>
+      </c>
+      <c r="N383">
+        <v>1.727</v>
+      </c>
+      <c r="O383">
+        <v>4</v>
+      </c>
+      <c r="P383">
+        <v>4.333</v>
+      </c>
+      <c r="Q383">
+        <v>-0.75</v>
+      </c>
+      <c r="R383">
+        <v>2</v>
+      </c>
+      <c r="S383">
+        <v>1.85</v>
+      </c>
+      <c r="T383">
+        <v>3</v>
+      </c>
+      <c r="U383">
+        <v>1.85</v>
+      </c>
+      <c r="V383">
+        <v>2</v>
+      </c>
+      <c r="W383">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X383">
+        <v>-1</v>
+      </c>
+      <c r="Y383">
+        <v>-1</v>
+      </c>
+      <c r="Z383">
+        <v>0.5</v>
+      </c>
+      <c r="AA383">
+        <v>-0.5</v>
+      </c>
+      <c r="AB383">
         <v>0</v>
       </c>
-      <c r="I383">
-        <v>0</v>
-      </c>
-      <c r="J383" t="s">
-        <v>52</v>
-      </c>
-      <c r="K383">
-        <v>1.727</v>
-      </c>
-      <c r="L383">
-        <v>3.75</v>
-      </c>
-      <c r="M383">
-        <v>4</v>
-      </c>
-      <c r="N383">
-        <v>1.85</v>
-      </c>
-      <c r="O383">
-        <v>3.6</v>
-      </c>
-      <c r="P383">
-        <v>4</v>
-      </c>
-      <c r="Q383">
-        <v>-0.5</v>
-      </c>
-      <c r="R383">
-        <v>1.9</v>
-      </c>
-      <c r="S383">
-        <v>1.95</v>
-      </c>
-      <c r="T383">
-        <v>2.75</v>
-      </c>
-      <c r="U383">
-        <v>1.95</v>
-      </c>
-      <c r="V383">
-        <v>1.9</v>
-      </c>
-      <c r="W383">
-        <v>-1</v>
-      </c>
-      <c r="X383">
-        <v>2.6</v>
-      </c>
-      <c r="Y383">
-        <v>-1</v>
-      </c>
-      <c r="Z383">
-        <v>-1</v>
-      </c>
-      <c r="AA383">
-        <v>0.95</v>
-      </c>
-      <c r="AB383">
-        <v>-1</v>
-      </c>
       <c r="AC383">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="384" spans="1:29">
@@ -34635,7 +34635,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>6842369</v>
+        <v>6842472</v>
       </c>
       <c r="C384" t="s">
         <v>28</v>
@@ -34647,76 +34647,76 @@
         <v>45271.66666666666</v>
       </c>
       <c r="F384" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G384" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J384" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K384">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="L384">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M384">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N384">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="O384">
+        <v>3.6</v>
+      </c>
+      <c r="P384">
         <v>4</v>
       </c>
-      <c r="P384">
-        <v>4.333</v>
-      </c>
       <c r="Q384">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R384">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S384">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T384">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U384">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V384">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W384">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X384">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y384">
         <v>-1</v>
       </c>
       <c r="Z384">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA384">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB384">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC384">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="385" spans="1:29">
@@ -34724,7 +34724,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>6841542</v>
+        <v>6842371</v>
       </c>
       <c r="C385" t="s">
         <v>28</v>
@@ -34736,76 +34736,76 @@
         <v>45275.66666666666</v>
       </c>
       <c r="F385" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G385" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H385">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I385">
         <v>1</v>
       </c>
       <c r="J385" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K385">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="L385">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M385">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N385">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="O385">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P385">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="Q385">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R385">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S385">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T385">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U385">
+        <v>2</v>
+      </c>
+      <c r="V385">
         <v>1.85</v>
       </c>
-      <c r="V385">
-        <v>2</v>
-      </c>
       <c r="W385">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X385">
         <v>-1</v>
       </c>
       <c r="Y385">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z385">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA385">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB385">
+        <v>-1</v>
+      </c>
+      <c r="AC385">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC385">
-        <v>-1</v>
       </c>
     </row>
     <row r="386" spans="1:29">
@@ -34902,7 +34902,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>6842373</v>
+        <v>6841542</v>
       </c>
       <c r="C387" t="s">
         <v>28</v>
@@ -34914,73 +34914,73 @@
         <v>45275.66666666666</v>
       </c>
       <c r="F387" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G387" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I387">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J387" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K387">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="L387">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M387">
+        <v>6</v>
+      </c>
+      <c r="N387">
+        <v>1.4</v>
+      </c>
+      <c r="O387">
+        <v>5</v>
+      </c>
+      <c r="P387">
+        <v>7</v>
+      </c>
+      <c r="Q387">
+        <v>-1.25</v>
+      </c>
+      <c r="R387">
+        <v>1.875</v>
+      </c>
+      <c r="S387">
+        <v>1.975</v>
+      </c>
+      <c r="T387">
         <v>2.75</v>
       </c>
-      <c r="N387">
-        <v>1.7</v>
-      </c>
-      <c r="O387">
-        <v>4.5</v>
-      </c>
-      <c r="P387">
-        <v>4</v>
-      </c>
-      <c r="Q387">
-        <v>-0.75</v>
-      </c>
-      <c r="R387">
-        <v>1.925</v>
-      </c>
-      <c r="S387">
-        <v>1.925</v>
-      </c>
-      <c r="T387">
-        <v>3.5</v>
-      </c>
       <c r="U387">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V387">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W387">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X387">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y387">
         <v>-1</v>
       </c>
       <c r="Z387">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA387">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB387">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC387">
         <v>-1</v>
@@ -34991,7 +34991,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>6842473</v>
+        <v>6842373</v>
       </c>
       <c r="C388" t="s">
         <v>28</v>
@@ -35003,73 +35003,73 @@
         <v>45275.66666666666</v>
       </c>
       <c r="F388" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G388" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388">
+        <v>2</v>
+      </c>
+      <c r="J388" t="s">
+        <v>52</v>
+      </c>
+      <c r="K388">
+        <v>2.5</v>
+      </c>
+      <c r="L388">
+        <v>3.4</v>
+      </c>
+      <c r="M388">
+        <v>2.75</v>
+      </c>
+      <c r="N388">
+        <v>1.7</v>
+      </c>
+      <c r="O388">
+        <v>4.5</v>
+      </c>
+      <c r="P388">
         <v>4</v>
       </c>
-      <c r="J388" t="s">
-        <v>53</v>
-      </c>
-      <c r="K388">
-        <v>3.8</v>
-      </c>
-      <c r="L388">
-        <v>3.6</v>
-      </c>
-      <c r="M388">
-        <v>1.909</v>
-      </c>
-      <c r="N388">
-        <v>3.1</v>
-      </c>
-      <c r="O388">
-        <v>3.6</v>
-      </c>
-      <c r="P388">
-        <v>2.2</v>
-      </c>
       <c r="Q388">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R388">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S388">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T388">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U388">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V388">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W388">
         <v>-1</v>
       </c>
       <c r="X388">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y388">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z388">
         <v>-1</v>
       </c>
       <c r="AA388">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB388">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC388">
         <v>-1</v>
@@ -35080,7 +35080,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>6842371</v>
+        <v>6842372</v>
       </c>
       <c r="C389" t="s">
         <v>28</v>
@@ -35092,56 +35092,56 @@
         <v>45275.66666666666</v>
       </c>
       <c r="F389" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G389" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J389" t="s">
         <v>53</v>
       </c>
       <c r="K389">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="L389">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M389">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N389">
+        <v>2.75</v>
+      </c>
+      <c r="O389">
+        <v>3.2</v>
+      </c>
+      <c r="P389">
+        <v>2.7</v>
+      </c>
+      <c r="Q389">
+        <v>0</v>
+      </c>
+      <c r="R389">
+        <v>1.95</v>
+      </c>
+      <c r="S389">
+        <v>1.9</v>
+      </c>
+      <c r="T389">
+        <v>2.25</v>
+      </c>
+      <c r="U389">
+        <v>1.8</v>
+      </c>
+      <c r="V389">
         <v>2.05</v>
       </c>
-      <c r="O389">
-        <v>3.6</v>
-      </c>
-      <c r="P389">
-        <v>3.5</v>
-      </c>
-      <c r="Q389">
-        <v>-0.25</v>
-      </c>
-      <c r="R389">
-        <v>1.8</v>
-      </c>
-      <c r="S389">
-        <v>2.05</v>
-      </c>
-      <c r="T389">
-        <v>3</v>
-      </c>
-      <c r="U389">
-        <v>2</v>
-      </c>
-      <c r="V389">
-        <v>1.85</v>
-      </c>
       <c r="W389">
         <v>-1</v>
       </c>
@@ -35149,19 +35149,19 @@
         <v>-1</v>
       </c>
       <c r="Y389">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="Z389">
         <v>-1</v>
       </c>
       <c r="AA389">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB389">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC389">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="390" spans="1:29">
@@ -35436,7 +35436,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>6842372</v>
+        <v>6842474</v>
       </c>
       <c r="C393" t="s">
         <v>28</v>
@@ -35448,73 +35448,73 @@
         <v>45275.66666666666</v>
       </c>
       <c r="F393" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G393" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H393">
         <v>2</v>
       </c>
       <c r="I393">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J393" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K393">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="L393">
         <v>3.4</v>
       </c>
       <c r="M393">
+        <v>2.2</v>
+      </c>
+      <c r="N393">
+        <v>3.5</v>
+      </c>
+      <c r="O393">
+        <v>3.5</v>
+      </c>
+      <c r="P393">
+        <v>2.05</v>
+      </c>
+      <c r="Q393">
+        <v>0.5</v>
+      </c>
+      <c r="R393">
+        <v>1.825</v>
+      </c>
+      <c r="S393">
+        <v>2.025</v>
+      </c>
+      <c r="T393">
         <v>2.5</v>
       </c>
-      <c r="N393">
-        <v>2.75</v>
-      </c>
-      <c r="O393">
-        <v>3.2</v>
-      </c>
-      <c r="P393">
-        <v>2.7</v>
-      </c>
-      <c r="Q393">
-        <v>0</v>
-      </c>
-      <c r="R393">
+      <c r="U393">
         <v>1.95</v>
       </c>
-      <c r="S393">
+      <c r="V393">
         <v>1.9</v>
       </c>
-      <c r="T393">
-        <v>2.25</v>
-      </c>
-      <c r="U393">
-        <v>1.8</v>
-      </c>
-      <c r="V393">
-        <v>2.05</v>
-      </c>
       <c r="W393">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X393">
         <v>-1</v>
       </c>
       <c r="Y393">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z393">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA393">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB393">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC393">
         <v>-1</v>
@@ -35525,7 +35525,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>6842474</v>
+        <v>6842473</v>
       </c>
       <c r="C394" t="s">
         <v>28</v>
@@ -35537,73 +35537,73 @@
         <v>45275.66666666666</v>
       </c>
       <c r="F394" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G394" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J394" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K394">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="L394">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M394">
+        <v>1.909</v>
+      </c>
+      <c r="N394">
+        <v>3.1</v>
+      </c>
+      <c r="O394">
+        <v>3.6</v>
+      </c>
+      <c r="P394">
         <v>2.2</v>
       </c>
-      <c r="N394">
-        <v>3.5</v>
-      </c>
-      <c r="O394">
-        <v>3.5</v>
-      </c>
-      <c r="P394">
-        <v>2.05</v>
-      </c>
       <c r="Q394">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R394">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S394">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T394">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U394">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V394">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W394">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X394">
         <v>-1</v>
       </c>
       <c r="Y394">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z394">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA394">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB394">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC394">
         <v>-1</v>
@@ -36949,7 +36949,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>6842381</v>
+        <v>6842382</v>
       </c>
       <c r="C410" t="s">
         <v>28</v>
@@ -36961,76 +36961,76 @@
         <v>45306.66666666666</v>
       </c>
       <c r="F410" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G410" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J410" t="s">
         <v>52</v>
       </c>
       <c r="K410">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="L410">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="M410">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="N410">
+        <v>2.15</v>
+      </c>
+      <c r="O410">
+        <v>4</v>
+      </c>
+      <c r="P410">
+        <v>3.1</v>
+      </c>
+      <c r="Q410">
+        <v>-0.25</v>
+      </c>
+      <c r="R410">
+        <v>1.9</v>
+      </c>
+      <c r="S410">
+        <v>1.95</v>
+      </c>
+      <c r="T410">
+        <v>2.75</v>
+      </c>
+      <c r="U410">
+        <v>1.85</v>
+      </c>
+      <c r="V410">
+        <v>2</v>
+      </c>
+      <c r="W410">
+        <v>-1</v>
+      </c>
+      <c r="X410">
         <v>3</v>
       </c>
-      <c r="O410">
-        <v>3.8</v>
-      </c>
-      <c r="P410">
-        <v>2.15</v>
-      </c>
-      <c r="Q410">
-        <v>0.25</v>
-      </c>
-      <c r="R410">
-        <v>1.925</v>
-      </c>
-      <c r="S410">
-        <v>1.925</v>
-      </c>
-      <c r="T410">
-        <v>2.5</v>
-      </c>
-      <c r="U410">
-        <v>1.9</v>
-      </c>
-      <c r="V410">
-        <v>1.95</v>
-      </c>
-      <c r="W410">
-        <v>-1</v>
-      </c>
-      <c r="X410">
-        <v>2.8</v>
-      </c>
       <c r="Y410">
         <v>-1</v>
       </c>
       <c r="Z410">
-        <v>0.4625</v>
+        <v>-0.5</v>
       </c>
       <c r="AA410">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB410">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC410">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="411" spans="1:29">
@@ -37038,7 +37038,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>6842382</v>
+        <v>6842381</v>
       </c>
       <c r="C411" t="s">
         <v>28</v>
@@ -37050,76 +37050,76 @@
         <v>45306.66666666666</v>
       </c>
       <c r="F411" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G411" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J411" t="s">
         <v>52</v>
       </c>
       <c r="K411">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="L411">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="M411">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N411">
+        <v>3</v>
+      </c>
+      <c r="O411">
+        <v>3.8</v>
+      </c>
+      <c r="P411">
         <v>2.15</v>
       </c>
-      <c r="O411">
-        <v>4</v>
-      </c>
-      <c r="P411">
-        <v>3.1</v>
-      </c>
       <c r="Q411">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R411">
+        <v>1.925</v>
+      </c>
+      <c r="S411">
+        <v>1.925</v>
+      </c>
+      <c r="T411">
+        <v>2.5</v>
+      </c>
+      <c r="U411">
         <v>1.9</v>
       </c>
-      <c r="S411">
+      <c r="V411">
         <v>1.95</v>
       </c>
-      <c r="T411">
-        <v>2.75</v>
-      </c>
-      <c r="U411">
-        <v>1.85</v>
-      </c>
-      <c r="V411">
-        <v>2</v>
-      </c>
       <c r="W411">
         <v>-1</v>
       </c>
       <c r="X411">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Y411">
         <v>-1</v>
       </c>
       <c r="Z411">
+        <v>0.4625</v>
+      </c>
+      <c r="AA411">
         <v>-0.5</v>
       </c>
-      <c r="AA411">
-        <v>0.475</v>
-      </c>
       <c r="AB411">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC411">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="412" spans="1:29">
@@ -37394,7 +37394,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>6842384</v>
+        <v>6842385</v>
       </c>
       <c r="C415" t="s">
         <v>28</v>
@@ -37406,76 +37406,76 @@
         <v>45310.66666666666</v>
       </c>
       <c r="F415" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G415" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J415" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K415">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="L415">
         <v>3.7</v>
       </c>
       <c r="M415">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N415">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="O415">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P415">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="Q415">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R415">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S415">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T415">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U415">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V415">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W415">
         <v>-1</v>
       </c>
       <c r="X415">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y415">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z415">
         <v>-1</v>
       </c>
       <c r="AA415">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB415">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC415">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="416" spans="1:29">
@@ -37483,7 +37483,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>6842487</v>
+        <v>6842384</v>
       </c>
       <c r="C416" t="s">
         <v>28</v>
@@ -37495,40 +37495,40 @@
         <v>45310.66666666666</v>
       </c>
       <c r="F416" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G416" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H416">
+        <v>0</v>
+      </c>
+      <c r="I416">
         <v>1</v>
       </c>
-      <c r="I416">
+      <c r="J416" t="s">
+        <v>53</v>
+      </c>
+      <c r="K416">
+        <v>2.8</v>
+      </c>
+      <c r="L416">
+        <v>3.7</v>
+      </c>
+      <c r="M416">
+        <v>2.3</v>
+      </c>
+      <c r="N416">
+        <v>2.625</v>
+      </c>
+      <c r="O416">
+        <v>3.75</v>
+      </c>
+      <c r="P416">
+        <v>2.4</v>
+      </c>
+      <c r="Q416">
         <v>0</v>
-      </c>
-      <c r="J416" t="s">
-        <v>54</v>
-      </c>
-      <c r="K416">
-        <v>3</v>
-      </c>
-      <c r="L416">
-        <v>3.5</v>
-      </c>
-      <c r="M416">
-        <v>2.25</v>
-      </c>
-      <c r="N416">
-        <v>3.75</v>
-      </c>
-      <c r="O416">
-        <v>3.3</v>
-      </c>
-      <c r="P416">
-        <v>2.1</v>
-      </c>
-      <c r="Q416">
-        <v>0.25</v>
       </c>
       <c r="R416">
         <v>2</v>
@@ -37537,34 +37537,34 @@
         <v>1.85</v>
       </c>
       <c r="T416">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U416">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V416">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W416">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X416">
         <v>-1</v>
       </c>
       <c r="Y416">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z416">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA416">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB416">
         <v>-1</v>
       </c>
       <c r="AC416">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="417" spans="1:29">
@@ -37572,7 +37572,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>6842385</v>
+        <v>6842487</v>
       </c>
       <c r="C417" t="s">
         <v>28</v>
@@ -37584,76 +37584,76 @@
         <v>45310.66666666666</v>
       </c>
       <c r="F417" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G417" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I417">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J417" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K417">
+        <v>3</v>
+      </c>
+      <c r="L417">
+        <v>3.5</v>
+      </c>
+      <c r="M417">
+        <v>2.25</v>
+      </c>
+      <c r="N417">
+        <v>3.75</v>
+      </c>
+      <c r="O417">
+        <v>3.3</v>
+      </c>
+      <c r="P417">
+        <v>2.1</v>
+      </c>
+      <c r="Q417">
+        <v>0.25</v>
+      </c>
+      <c r="R417">
+        <v>2</v>
+      </c>
+      <c r="S417">
+        <v>1.85</v>
+      </c>
+      <c r="T417">
+        <v>2.25</v>
+      </c>
+      <c r="U417">
+        <v>1.95</v>
+      </c>
+      <c r="V417">
         <v>1.9</v>
       </c>
-      <c r="L417">
-        <v>3.7</v>
-      </c>
-      <c r="M417">
-        <v>3.75</v>
-      </c>
-      <c r="N417">
-        <v>1.8</v>
-      </c>
-      <c r="O417">
-        <v>4.2</v>
-      </c>
-      <c r="P417">
-        <v>4</v>
-      </c>
-      <c r="Q417">
-        <v>-0.75</v>
-      </c>
-      <c r="R417">
-        <v>2.025</v>
-      </c>
-      <c r="S417">
-        <v>1.825</v>
-      </c>
-      <c r="T417">
-        <v>3.25</v>
-      </c>
-      <c r="U417">
-        <v>1.875</v>
-      </c>
-      <c r="V417">
-        <v>1.975</v>
-      </c>
       <c r="W417">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X417">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y417">
         <v>-1</v>
       </c>
       <c r="Z417">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA417">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB417">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC417">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="418" spans="1:29">
@@ -37661,7 +37661,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>7711428</v>
+        <v>6842488</v>
       </c>
       <c r="C418" t="s">
         <v>28</v>
@@ -37673,58 +37673,58 @@
         <v>45313.66666666666</v>
       </c>
       <c r="F418" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G418" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H418">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I418">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J418" t="s">
         <v>54</v>
       </c>
       <c r="K418">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="L418">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M418">
-        <v>5.25</v>
+        <v>2.35</v>
       </c>
       <c r="N418">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="O418">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P418">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q418">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R418">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S418">
+        <v>2</v>
+      </c>
+      <c r="T418">
+        <v>2.75</v>
+      </c>
+      <c r="U418">
+        <v>2</v>
+      </c>
+      <c r="V418">
         <v>1.85</v>
       </c>
-      <c r="T418">
-        <v>3</v>
-      </c>
-      <c r="U418">
-        <v>2.025</v>
-      </c>
-      <c r="V418">
-        <v>1.825</v>
-      </c>
       <c r="W418">
-        <v>0.615</v>
+        <v>2</v>
       </c>
       <c r="X418">
         <v>-1</v>
@@ -37733,16 +37733,16 @@
         <v>-1</v>
       </c>
       <c r="Z418">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA418">
         <v>-1</v>
       </c>
       <c r="AB418">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AC418">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="419" spans="1:29">
@@ -37750,7 +37750,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>6842488</v>
+        <v>6842489</v>
       </c>
       <c r="C419" t="s">
         <v>28</v>
@@ -37762,13 +37762,13 @@
         <v>45313.66666666666</v>
       </c>
       <c r="F419" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G419" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I419">
         <v>1</v>
@@ -37777,43 +37777,43 @@
         <v>54</v>
       </c>
       <c r="K419">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L419">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M419">
-        <v>2.35</v>
+        <v>2.9</v>
       </c>
       <c r="N419">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O419">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P419">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q419">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R419">
+        <v>2</v>
+      </c>
+      <c r="S419">
         <v>1.85</v>
       </c>
-      <c r="S419">
-        <v>2</v>
-      </c>
       <c r="T419">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U419">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V419">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W419">
-        <v>2</v>
+        <v>1.05</v>
       </c>
       <c r="X419">
         <v>-1</v>
@@ -37822,16 +37822,16 @@
         <v>-1</v>
       </c>
       <c r="Z419">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA419">
         <v>-1</v>
       </c>
       <c r="AB419">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC419">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="420" spans="1:29">
@@ -37839,7 +37839,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>6842489</v>
+        <v>7706895</v>
       </c>
       <c r="C420" t="s">
         <v>28</v>
@@ -37851,58 +37851,58 @@
         <v>45313.66666666666</v>
       </c>
       <c r="F420" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G420" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H420">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I420">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J420" t="s">
         <v>54</v>
       </c>
       <c r="K420">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="L420">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M420">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="N420">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="O420">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P420">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q420">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R420">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S420">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T420">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U420">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V420">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W420">
-        <v>1.05</v>
+        <v>0.7</v>
       </c>
       <c r="X420">
         <v>-1</v>
@@ -37911,13 +37911,13 @@
         <v>-1</v>
       </c>
       <c r="Z420">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA420">
         <v>-1</v>
       </c>
       <c r="AB420">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC420">
         <v>-1</v>
@@ -37928,7 +37928,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>7706895</v>
+        <v>7711428</v>
       </c>
       <c r="C421" t="s">
         <v>28</v>
@@ -37940,58 +37940,58 @@
         <v>45313.66666666666</v>
       </c>
       <c r="F421" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G421" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H421">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I421">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J421" t="s">
         <v>54</v>
       </c>
       <c r="K421">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="L421">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M421">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="N421">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="O421">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P421">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q421">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R421">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S421">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T421">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U421">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V421">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W421">
-        <v>0.7</v>
+        <v>0.615</v>
       </c>
       <c r="X421">
         <v>-1</v>
@@ -38000,16 +38000,16 @@
         <v>-1</v>
       </c>
       <c r="Z421">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA421">
         <v>-1</v>
       </c>
       <c r="AB421">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC421">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="422" spans="1:29">
@@ -38195,7 +38195,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>6842492</v>
+        <v>6842388</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38207,76 +38207,76 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F424" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G424" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H424">
         <v>0</v>
       </c>
       <c r="I424">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J424" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K424">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L424">
         <v>3.8</v>
       </c>
       <c r="M424">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N424">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O424">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P424">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q424">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R424">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S424">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T424">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U424">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V424">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W424">
         <v>-1</v>
       </c>
       <c r="X424">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y424">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z424">
         <v>-1</v>
       </c>
       <c r="AA424">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB424">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC424">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="425" spans="1:29">
@@ -38284,7 +38284,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>6842388</v>
+        <v>6842492</v>
       </c>
       <c r="C425" t="s">
         <v>28</v>
@@ -38296,76 +38296,76 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F425" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G425" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H425">
         <v>0</v>
       </c>
       <c r="I425">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J425" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K425">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L425">
         <v>3.8</v>
       </c>
       <c r="M425">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N425">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O425">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P425">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q425">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R425">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S425">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T425">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U425">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V425">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W425">
         <v>-1</v>
       </c>
       <c r="X425">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y425">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z425">
         <v>-1</v>
       </c>
       <c r="AA425">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB425">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC425">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="426" spans="1:29">
@@ -38373,7 +38373,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>6842491</v>
+        <v>6842003</v>
       </c>
       <c r="C426" t="s">
         <v>28</v>
@@ -38385,58 +38385,58 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F426" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G426" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H426">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I426">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J426" t="s">
         <v>54</v>
       </c>
       <c r="K426">
-        <v>1.727</v>
+        <v>1.55</v>
       </c>
       <c r="L426">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="M426">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N426">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="O426">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P426">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="Q426">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R426">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S426">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T426">
         <v>3</v>
       </c>
       <c r="U426">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V426">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W426">
-        <v>0.7</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X426">
         <v>-1</v>
@@ -38445,16 +38445,16 @@
         <v>-1</v>
       </c>
       <c r="Z426">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA426">
         <v>-1</v>
       </c>
       <c r="AB426">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC426">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="427" spans="1:29">
@@ -38462,7 +38462,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>6842003</v>
+        <v>6842491</v>
       </c>
       <c r="C427" t="s">
         <v>28</v>
@@ -38474,58 +38474,58 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F427" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G427" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H427">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I427">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J427" t="s">
         <v>54</v>
       </c>
       <c r="K427">
-        <v>1.55</v>
+        <v>1.727</v>
       </c>
       <c r="L427">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="M427">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N427">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="O427">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P427">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="Q427">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R427">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S427">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T427">
         <v>3</v>
       </c>
       <c r="U427">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V427">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W427">
-        <v>0.3999999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="X427">
         <v>-1</v>
@@ -38534,16 +38534,16 @@
         <v>-1</v>
       </c>
       <c r="Z427">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA427">
         <v>-1</v>
       </c>
       <c r="AB427">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC427">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="428" spans="1:29">
@@ -38996,7 +38996,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>6842393</v>
+        <v>6842004</v>
       </c>
       <c r="C433" t="s">
         <v>28</v>
@@ -39008,76 +39008,76 @@
         <v>45324.66666666666</v>
       </c>
       <c r="F433" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G433" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I433">
         <v>0</v>
       </c>
       <c r="J433" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K433">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="L433">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M433">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="N433">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="O433">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P433">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q433">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R433">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S433">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T433">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U433">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V433">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W433">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X433">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y433">
         <v>-1</v>
       </c>
       <c r="Z433">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA433">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB433">
         <v>-1</v>
       </c>
       <c r="AC433">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="434" spans="1:29">
@@ -39085,7 +39085,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>6842004</v>
+        <v>6842392</v>
       </c>
       <c r="C434" t="s">
         <v>28</v>
@@ -39097,58 +39097,58 @@
         <v>45324.66666666666</v>
       </c>
       <c r="F434" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G434" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H434">
+        <v>6</v>
+      </c>
+      <c r="I434">
         <v>1</v>
-      </c>
-      <c r="I434">
-        <v>0</v>
       </c>
       <c r="J434" t="s">
         <v>54</v>
       </c>
       <c r="K434">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="L434">
         <v>3.4</v>
       </c>
       <c r="M434">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="N434">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="O434">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P434">
+        <v>3.5</v>
+      </c>
+      <c r="Q434">
+        <v>-0.25</v>
+      </c>
+      <c r="R434">
         <v>1.8</v>
       </c>
-      <c r="Q434">
-        <v>0.75</v>
-      </c>
-      <c r="R434">
-        <v>1.825</v>
-      </c>
       <c r="S434">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T434">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U434">
+        <v>1.95</v>
+      </c>
+      <c r="V434">
         <v>1.9</v>
       </c>
-      <c r="V434">
-        <v>1.95</v>
-      </c>
       <c r="W434">
-        <v>3.333</v>
+        <v>1.1</v>
       </c>
       <c r="X434">
         <v>-1</v>
@@ -39157,16 +39157,16 @@
         <v>-1</v>
       </c>
       <c r="Z434">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA434">
         <v>-1</v>
       </c>
       <c r="AB434">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC434">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="435" spans="1:29">
@@ -39174,7 +39174,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>6842392</v>
+        <v>6842394</v>
       </c>
       <c r="C435" t="s">
         <v>28</v>
@@ -39186,58 +39186,58 @@
         <v>45324.66666666666</v>
       </c>
       <c r="F435" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G435" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H435">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I435">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J435" t="s">
         <v>54</v>
       </c>
       <c r="K435">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="L435">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M435">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N435">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="O435">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P435">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q435">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R435">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S435">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T435">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U435">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V435">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W435">
-        <v>1.1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X435">
         <v>-1</v>
@@ -39246,13 +39246,13 @@
         <v>-1</v>
       </c>
       <c r="Z435">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA435">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB435">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC435">
         <v>-1</v>
@@ -39263,7 +39263,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>6842394</v>
+        <v>6842494</v>
       </c>
       <c r="C436" t="s">
         <v>28</v>
@@ -39275,61 +39275,61 @@
         <v>45324.66666666666</v>
       </c>
       <c r="F436" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G436" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H436">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I436">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J436" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K436">
-        <v>1.533</v>
+        <v>2.45</v>
       </c>
       <c r="L436">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="M436">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N436">
-        <v>1.6</v>
+        <v>2.625</v>
       </c>
       <c r="O436">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="P436">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q436">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R436">
+        <v>1.875</v>
+      </c>
+      <c r="S436">
         <v>1.975</v>
       </c>
-      <c r="S436">
+      <c r="T436">
+        <v>2.5</v>
+      </c>
+      <c r="U436">
         <v>1.875</v>
       </c>
-      <c r="T436">
-        <v>3.25</v>
-      </c>
-      <c r="U436">
+      <c r="V436">
         <v>1.975</v>
       </c>
-      <c r="V436">
-        <v>1.875</v>
-      </c>
       <c r="W436">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X436">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y436">
         <v>-1</v>
@@ -39341,10 +39341,10 @@
         <v>-0</v>
       </c>
       <c r="AB436">
+        <v>-1</v>
+      </c>
+      <c r="AC436">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC436">
-        <v>-1</v>
       </c>
     </row>
     <row r="437" spans="1:29">
@@ -39352,7 +39352,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>6842494</v>
+        <v>6842495</v>
       </c>
       <c r="C437" t="s">
         <v>28</v>
@@ -39364,76 +39364,76 @@
         <v>45324.66666666666</v>
       </c>
       <c r="F437" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G437" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I437">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J437" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K437">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="L437">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M437">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="N437">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="O437">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="P437">
+        <v>1.5</v>
+      </c>
+      <c r="Q437">
+        <v>1.25</v>
+      </c>
+      <c r="R437">
+        <v>1.8</v>
+      </c>
+      <c r="S437">
+        <v>2.05</v>
+      </c>
+      <c r="T437">
         <v>2.75</v>
       </c>
-      <c r="Q437">
-        <v>0</v>
-      </c>
-      <c r="R437">
-        <v>1.875</v>
-      </c>
-      <c r="S437">
-        <v>1.975</v>
-      </c>
-      <c r="T437">
-        <v>2.5</v>
-      </c>
       <c r="U437">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V437">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W437">
         <v>-1</v>
       </c>
       <c r="X437">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y437">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z437">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA437">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB437">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC437">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="438" spans="1:29">
@@ -39441,7 +39441,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>6842495</v>
+        <v>6842496</v>
       </c>
       <c r="C438" t="s">
         <v>28</v>
@@ -39453,49 +39453,49 @@
         <v>45324.66666666666</v>
       </c>
       <c r="F438" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G438" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H438">
         <v>1</v>
       </c>
       <c r="I438">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J438" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K438">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
       <c r="L438">
         <v>4</v>
       </c>
       <c r="M438">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="N438">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="O438">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P438">
-        <v>1.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q438">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R438">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S438">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T438">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U438">
         <v>1.825</v>
@@ -39507,22 +39507,22 @@
         <v>-1</v>
       </c>
       <c r="X438">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y438">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z438">
         <v>-1</v>
       </c>
       <c r="AA438">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB438">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC438">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="439" spans="1:29">
@@ -39530,7 +39530,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>6842496</v>
+        <v>6842393</v>
       </c>
       <c r="C439" t="s">
         <v>28</v>
@@ -39542,49 +39542,49 @@
         <v>45324.66666666666</v>
       </c>
       <c r="F439" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G439" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I439">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J439" t="s">
         <v>52</v>
       </c>
       <c r="K439">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="L439">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M439">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N439">
+        <v>2.05</v>
+      </c>
+      <c r="O439">
+        <v>3.6</v>
+      </c>
+      <c r="P439">
+        <v>3.5</v>
+      </c>
+      <c r="Q439">
+        <v>-0.5</v>
+      </c>
+      <c r="R439">
+        <v>2.05</v>
+      </c>
+      <c r="S439">
         <v>1.8</v>
       </c>
-      <c r="O439">
-        <v>3.75</v>
-      </c>
-      <c r="P439">
-        <v>4.333</v>
-      </c>
-      <c r="Q439">
-        <v>-0.75</v>
-      </c>
-      <c r="R439">
-        <v>2.025</v>
-      </c>
-      <c r="S439">
-        <v>1.825</v>
-      </c>
       <c r="T439">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U439">
         <v>1.825</v>
@@ -39596,7 +39596,7 @@
         <v>-1</v>
       </c>
       <c r="X439">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Y439">
         <v>-1</v>
@@ -39605,7 +39605,7 @@
         <v>-1</v>
       </c>
       <c r="AA439">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB439">
         <v>-1</v>
@@ -40598,7 +40598,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>6842401</v>
+        <v>6842400</v>
       </c>
       <c r="C451" t="s">
         <v>28</v>
@@ -40610,76 +40610,76 @@
         <v>45334.66666666666</v>
       </c>
       <c r="F451" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G451" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H451">
+        <v>3</v>
+      </c>
+      <c r="I451">
+        <v>0</v>
+      </c>
+      <c r="J451" t="s">
+        <v>54</v>
+      </c>
+      <c r="K451">
+        <v>2.5</v>
+      </c>
+      <c r="L451">
+        <v>3.9</v>
+      </c>
+      <c r="M451">
+        <v>2.45</v>
+      </c>
+      <c r="N451">
+        <v>1.833</v>
+      </c>
+      <c r="O451">
+        <v>4.5</v>
+      </c>
+      <c r="P451">
+        <v>3.6</v>
+      </c>
+      <c r="Q451">
+        <v>-0.5</v>
+      </c>
+      <c r="R451">
+        <v>1.825</v>
+      </c>
+      <c r="S451">
+        <v>2.025</v>
+      </c>
+      <c r="T451">
+        <v>3.5</v>
+      </c>
+      <c r="U451">
+        <v>1.85</v>
+      </c>
+      <c r="V451">
+        <v>2</v>
+      </c>
+      <c r="W451">
+        <v>0.833</v>
+      </c>
+      <c r="X451">
+        <v>-1</v>
+      </c>
+      <c r="Y451">
+        <v>-1</v>
+      </c>
+      <c r="Z451">
+        <v>0.825</v>
+      </c>
+      <c r="AA451">
+        <v>-1</v>
+      </c>
+      <c r="AB451">
+        <v>-1</v>
+      </c>
+      <c r="AC451">
         <v>1</v>
-      </c>
-      <c r="I451">
-        <v>2</v>
-      </c>
-      <c r="J451" t="s">
-        <v>53</v>
-      </c>
-      <c r="K451">
-        <v>2.7</v>
-      </c>
-      <c r="L451">
-        <v>3.7</v>
-      </c>
-      <c r="M451">
-        <v>2.375</v>
-      </c>
-      <c r="N451">
-        <v>2.9</v>
-      </c>
-      <c r="O451">
-        <v>3.4</v>
-      </c>
-      <c r="P451">
-        <v>2.4</v>
-      </c>
-      <c r="Q451">
-        <v>0.25</v>
-      </c>
-      <c r="R451">
-        <v>1.8</v>
-      </c>
-      <c r="S451">
-        <v>2.05</v>
-      </c>
-      <c r="T451">
-        <v>2.5</v>
-      </c>
-      <c r="U451">
-        <v>1.925</v>
-      </c>
-      <c r="V451">
-        <v>1.925</v>
-      </c>
-      <c r="W451">
-        <v>-1</v>
-      </c>
-      <c r="X451">
-        <v>-1</v>
-      </c>
-      <c r="Y451">
-        <v>1.4</v>
-      </c>
-      <c r="Z451">
-        <v>-1</v>
-      </c>
-      <c r="AA451">
-        <v>1.05</v>
-      </c>
-      <c r="AB451">
-        <v>0.925</v>
-      </c>
-      <c r="AC451">
-        <v>-1</v>
       </c>
     </row>
     <row r="452" spans="1:29">
@@ -40687,7 +40687,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>6842400</v>
+        <v>6842401</v>
       </c>
       <c r="C452" t="s">
         <v>28</v>
@@ -40699,76 +40699,76 @@
         <v>45334.66666666666</v>
       </c>
       <c r="F452" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G452" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H452">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I452">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J452" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K452">
+        <v>2.7</v>
+      </c>
+      <c r="L452">
+        <v>3.7</v>
+      </c>
+      <c r="M452">
+        <v>2.375</v>
+      </c>
+      <c r="N452">
+        <v>2.9</v>
+      </c>
+      <c r="O452">
+        <v>3.4</v>
+      </c>
+      <c r="P452">
+        <v>2.4</v>
+      </c>
+      <c r="Q452">
+        <v>0.25</v>
+      </c>
+      <c r="R452">
+        <v>1.8</v>
+      </c>
+      <c r="S452">
+        <v>2.05</v>
+      </c>
+      <c r="T452">
         <v>2.5</v>
       </c>
-      <c r="L452">
-        <v>3.9</v>
-      </c>
-      <c r="M452">
-        <v>2.45</v>
-      </c>
-      <c r="N452">
-        <v>1.833</v>
-      </c>
-      <c r="O452">
-        <v>4.5</v>
-      </c>
-      <c r="P452">
-        <v>3.6</v>
-      </c>
-      <c r="Q452">
-        <v>-0.5</v>
-      </c>
-      <c r="R452">
-        <v>1.825</v>
-      </c>
-      <c r="S452">
-        <v>2.025</v>
-      </c>
-      <c r="T452">
-        <v>3.5</v>
-      </c>
       <c r="U452">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V452">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W452">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X452">
         <v>-1</v>
       </c>
       <c r="Y452">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z452">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA452">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB452">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC452">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="453" spans="1:29">

--- a/Netherlands Eerste Divisie/Netherlands Eerste Divisie.xlsx
+++ b/Netherlands Eerste Divisie/Netherlands Eerste Divisie.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC328"/>
+  <dimension ref="A1:AC330"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13533,7 +13533,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6842350</v>
+        <v>6841996</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13545,40 +13545,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G147" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H147">
+        <v>2</v>
+      </c>
+      <c r="I147">
         <v>1</v>
-      </c>
-      <c r="I147">
-        <v>0</v>
       </c>
       <c r="J147" t="s">
         <v>50</v>
       </c>
       <c r="K147">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="L147">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="M147">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="N147">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="O147">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P147">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="Q147">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R147">
         <v>1.825</v>
@@ -13587,16 +13587,16 @@
         <v>2.025</v>
       </c>
       <c r="T147">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U147">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V147">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W147">
-        <v>0.8</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13605,16 +13605,16 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC147">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13622,7 +13622,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6841996</v>
+        <v>6842350</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13634,40 +13634,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G148" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
         <v>50</v>
       </c>
       <c r="K148">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="L148">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="M148">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="N148">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="O148">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P148">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="Q148">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R148">
         <v>1.825</v>
@@ -13676,16 +13676,16 @@
         <v>2.025</v>
       </c>
       <c r="T148">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U148">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V148">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W148">
-        <v>0.5329999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13694,16 +13694,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA148">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13800,7 +13800,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6842465</v>
+        <v>6842467</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13812,76 +13812,76 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G150" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150">
         <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K150">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="L150">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M150">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="N150">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O150">
         <v>3.75</v>
       </c>
       <c r="P150">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q150">
         <v>0.25</v>
       </c>
       <c r="R150">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S150">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T150">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U150">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V150">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W150">
         <v>-1</v>
       </c>
       <c r="X150">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z150">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13978,7 +13978,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6842351</v>
+        <v>6842465</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13990,76 +13990,76 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G152" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H152">
         <v>2</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K152">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="L152">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M152">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="N152">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="O152">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P152">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="Q152">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R152">
+        <v>1.825</v>
+      </c>
+      <c r="S152">
         <v>2.025</v>
       </c>
-      <c r="S152">
-        <v>1.825</v>
-      </c>
       <c r="T152">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U152">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V152">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W152">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X152">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y152">
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>1.025</v>
+        <v>0.4125</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC152">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14067,7 +14067,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6842467</v>
+        <v>6842351</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14079,76 +14079,76 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F153" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G153" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K153">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="L153">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="M153">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="N153">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O153">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P153">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="Q153">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R153">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S153">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T153">
         <v>3</v>
       </c>
       <c r="U153">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V153">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA153">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14334,7 +14334,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6842349</v>
+        <v>6842348</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14346,58 +14346,58 @@
         <v>45257.66666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G156" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H156">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
         <v>50</v>
       </c>
       <c r="K156">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="L156">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M156">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="N156">
-        <v>2.55</v>
+        <v>1.3</v>
       </c>
       <c r="O156">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="P156">
-        <v>2.55</v>
+        <v>8.5</v>
       </c>
       <c r="Q156">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R156">
+        <v>2</v>
+      </c>
+      <c r="S156">
+        <v>1.85</v>
+      </c>
+      <c r="T156">
+        <v>3.5</v>
+      </c>
+      <c r="U156">
         <v>1.925</v>
       </c>
-      <c r="S156">
+      <c r="V156">
         <v>1.925</v>
       </c>
-      <c r="T156">
-        <v>3</v>
-      </c>
-      <c r="U156">
-        <v>2.025</v>
-      </c>
-      <c r="V156">
-        <v>1.825</v>
-      </c>
       <c r="W156">
-        <v>1.55</v>
+        <v>0.3</v>
       </c>
       <c r="X156">
         <v>-1</v>
@@ -14406,16 +14406,16 @@
         <v>-1</v>
       </c>
       <c r="Z156">
+        <v>-1</v>
+      </c>
+      <c r="AA156">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB156">
+        <v>-1</v>
+      </c>
+      <c r="AC156">
         <v>0.925</v>
-      </c>
-      <c r="AA156">
-        <v>-1</v>
-      </c>
-      <c r="AB156">
-        <v>1.025</v>
-      </c>
-      <c r="AC156">
-        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14423,7 +14423,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6842348</v>
+        <v>6842349</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14435,58 +14435,58 @@
         <v>45257.66666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G157" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H157">
+        <v>4</v>
+      </c>
+      <c r="I157">
         <v>1</v>
-      </c>
-      <c r="I157">
-        <v>0</v>
       </c>
       <c r="J157" t="s">
         <v>50</v>
       </c>
       <c r="K157">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="L157">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M157">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="N157">
-        <v>1.3</v>
+        <v>2.55</v>
       </c>
       <c r="O157">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="P157">
-        <v>8.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q157">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R157">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S157">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T157">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U157">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V157">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W157">
-        <v>0.3</v>
+        <v>1.55</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14495,16 +14495,16 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA157">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC157">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14868,7 +14868,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7451886</v>
+        <v>6842468</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14880,76 +14880,76 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G162" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K162">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="L162">
         <v>3.6</v>
       </c>
       <c r="M162">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="N162">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="O162">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P162">
+        <v>2.15</v>
+      </c>
+      <c r="Q162">
+        <v>0.25</v>
+      </c>
+      <c r="R162">
+        <v>1.95</v>
+      </c>
+      <c r="S162">
+        <v>1.9</v>
+      </c>
+      <c r="T162">
         <v>2.75</v>
       </c>
-      <c r="Q162">
-        <v>0</v>
-      </c>
-      <c r="R162">
-        <v>1.825</v>
-      </c>
-      <c r="S162">
-        <v>2.025</v>
-      </c>
-      <c r="T162">
-        <v>3</v>
-      </c>
       <c r="U162">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V162">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W162">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X162">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA162">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC162">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14957,7 +14957,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6842468</v>
+        <v>7451886</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14969,76 +14969,76 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G163" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H163">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K163">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="L163">
         <v>3.6</v>
       </c>
       <c r="M163">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="N163">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="O163">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P163">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="Q163">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R163">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S163">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T163">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U163">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V163">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W163">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X163">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB163">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC163">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15580,7 +15580,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6842360</v>
+        <v>6842359</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15592,76 +15592,76 @@
         <v>45264.66666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G170" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H170">
         <v>0</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J170" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K170">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="L170">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M170">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="N170">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O170">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P170">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q170">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R170">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S170">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T170">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U170">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V170">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W170">
         <v>-1</v>
       </c>
       <c r="X170">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z170">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC170">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15669,7 +15669,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6842359</v>
+        <v>6842360</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15681,76 +15681,76 @@
         <v>45264.66666666666</v>
       </c>
       <c r="F171" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G171" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H171">
         <v>0</v>
       </c>
       <c r="I171">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K171">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="L171">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M171">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="N171">
+        <v>3.1</v>
+      </c>
+      <c r="O171">
         <v>3.5</v>
       </c>
-      <c r="O171">
-        <v>3.75</v>
-      </c>
       <c r="P171">
+        <v>2.25</v>
+      </c>
+      <c r="Q171">
+        <v>0.25</v>
+      </c>
+      <c r="R171">
+        <v>1.9</v>
+      </c>
+      <c r="S171">
         <v>1.95</v>
       </c>
-      <c r="Q171">
-        <v>0.5</v>
-      </c>
-      <c r="R171">
-        <v>1.825</v>
-      </c>
-      <c r="S171">
-        <v>2.025</v>
-      </c>
       <c r="T171">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U171">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V171">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W171">
         <v>-1</v>
       </c>
       <c r="X171">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y171">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA171">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB171">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15758,7 +15758,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6842363</v>
+        <v>6841541</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15770,76 +15770,76 @@
         <v>45268.66666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G172" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172" t="s">
+        <v>49</v>
+      </c>
+      <c r="K172">
+        <v>2.25</v>
+      </c>
+      <c r="L172">
+        <v>3.5</v>
+      </c>
+      <c r="M172">
+        <v>2.75</v>
+      </c>
+      <c r="N172">
+        <v>2.625</v>
+      </c>
+      <c r="O172">
+        <v>3.6</v>
+      </c>
+      <c r="P172">
+        <v>2.5</v>
+      </c>
+      <c r="Q172">
         <v>0</v>
       </c>
-      <c r="J172" t="s">
-        <v>50</v>
-      </c>
-      <c r="K172">
-        <v>1.285</v>
-      </c>
-      <c r="L172">
-        <v>5.5</v>
-      </c>
-      <c r="M172">
-        <v>7.5</v>
-      </c>
-      <c r="N172">
-        <v>1.333</v>
-      </c>
-      <c r="O172">
-        <v>6</v>
-      </c>
-      <c r="P172">
-        <v>7.5</v>
-      </c>
-      <c r="Q172">
-        <v>-1.5</v>
-      </c>
       <c r="R172">
+        <v>1.975</v>
+      </c>
+      <c r="S172">
         <v>1.875</v>
       </c>
-      <c r="S172">
+      <c r="T172">
+        <v>2.5</v>
+      </c>
+      <c r="U172">
+        <v>1.875</v>
+      </c>
+      <c r="V172">
         <v>1.975</v>
       </c>
-      <c r="T172">
-        <v>3</v>
-      </c>
-      <c r="U172">
-        <v>1.975</v>
-      </c>
-      <c r="V172">
-        <v>1.875</v>
-      </c>
       <c r="W172">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB172">
         <v>-1</v>
       </c>
       <c r="AC172">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15847,7 +15847,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6841541</v>
+        <v>6842363</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15859,76 +15859,76 @@
         <v>45268.66666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G173" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K173">
-        <v>2.25</v>
+        <v>1.285</v>
       </c>
       <c r="L173">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M173">
-        <v>2.75</v>
+        <v>7.5</v>
       </c>
       <c r="N173">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="O173">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P173">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q173">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R173">
+        <v>1.875</v>
+      </c>
+      <c r="S173">
         <v>1.975</v>
       </c>
-      <c r="S173">
+      <c r="T173">
+        <v>3</v>
+      </c>
+      <c r="U173">
+        <v>1.975</v>
+      </c>
+      <c r="V173">
         <v>1.875</v>
       </c>
-      <c r="T173">
-        <v>2.5</v>
-      </c>
-      <c r="U173">
-        <v>1.875</v>
-      </c>
-      <c r="V173">
-        <v>1.975</v>
-      </c>
       <c r="W173">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X173">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA173">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
         <v>-1</v>
       </c>
       <c r="AC173">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16025,7 +16025,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6842470</v>
+        <v>6842368</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16037,13 +16037,13 @@
         <v>45268.66666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G175" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I175">
         <v>1</v>
@@ -16052,61 +16052,61 @@
         <v>50</v>
       </c>
       <c r="K175">
-        <v>2</v>
+        <v>1.285</v>
       </c>
       <c r="L175">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M175">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="N175">
-        <v>1.909</v>
+        <v>1.45</v>
       </c>
       <c r="O175">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P175">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q175">
+        <v>-1.25</v>
+      </c>
+      <c r="R175">
+        <v>1.95</v>
+      </c>
+      <c r="S175">
+        <v>1.9</v>
+      </c>
+      <c r="T175">
+        <v>3.5</v>
+      </c>
+      <c r="U175">
+        <v>1.875</v>
+      </c>
+      <c r="V175">
+        <v>1.975</v>
+      </c>
+      <c r="W175">
+        <v>0.45</v>
+      </c>
+      <c r="X175">
+        <v>-1</v>
+      </c>
+      <c r="Y175">
+        <v>-1</v>
+      </c>
+      <c r="Z175">
         <v>-0.5</v>
       </c>
-      <c r="R175">
-        <v>1.925</v>
-      </c>
-      <c r="S175">
-        <v>1.925</v>
-      </c>
-      <c r="T175">
-        <v>3.25</v>
-      </c>
-      <c r="U175">
-        <v>1.975</v>
-      </c>
-      <c r="V175">
-        <v>1.875</v>
-      </c>
-      <c r="W175">
-        <v>0.909</v>
-      </c>
-      <c r="X175">
-        <v>-1</v>
-      </c>
-      <c r="Y175">
-        <v>-1</v>
-      </c>
-      <c r="Z175">
-        <v>0.925</v>
-      </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB175">
+        <v>-1</v>
+      </c>
+      <c r="AC175">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC175">
-        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16114,7 +16114,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6842368</v>
+        <v>6842470</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16126,13 +16126,13 @@
         <v>45268.66666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G176" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I176">
         <v>1</v>
@@ -16141,43 +16141,43 @@
         <v>50</v>
       </c>
       <c r="K176">
-        <v>1.285</v>
+        <v>2</v>
       </c>
       <c r="L176">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M176">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="N176">
-        <v>1.45</v>
+        <v>1.909</v>
       </c>
       <c r="O176">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P176">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q176">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R176">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S176">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T176">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U176">
+        <v>1.975</v>
+      </c>
+      <c r="V176">
         <v>1.875</v>
       </c>
-      <c r="V176">
-        <v>1.975</v>
-      </c>
       <c r="W176">
-        <v>0.45</v>
+        <v>0.909</v>
       </c>
       <c r="X176">
         <v>-1</v>
@@ -16186,16 +16186,16 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA176">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC176">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16203,7 +16203,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6842362</v>
+        <v>6842361</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16215,76 +16215,76 @@
         <v>45268.66666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G177" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I177">
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K177">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L177">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M177">
-        <v>3.9</v>
+        <v>2.25</v>
       </c>
       <c r="N177">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="O177">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P177">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q177">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R177">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S177">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T177">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U177">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V177">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA177">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC177">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16292,7 +16292,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6842361</v>
+        <v>6841998</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16304,58 +16304,58 @@
         <v>45268.66666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G178" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H178">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J178" t="s">
         <v>50</v>
       </c>
       <c r="K178">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L178">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M178">
-        <v>2.25</v>
+        <v>7.5</v>
       </c>
       <c r="N178">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="O178">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P178">
-        <v>2.15</v>
+        <v>11</v>
       </c>
       <c r="Q178">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R178">
+        <v>1.9</v>
+      </c>
+      <c r="S178">
         <v>1.95</v>
       </c>
-      <c r="S178">
-        <v>1.9</v>
-      </c>
       <c r="T178">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U178">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V178">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W178">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16364,16 +16364,16 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16381,7 +16381,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6841998</v>
+        <v>6842362</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16393,76 +16393,76 @@
         <v>45268.66666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G179" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K179">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L179">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M179">
-        <v>7.5</v>
+        <v>3.9</v>
       </c>
       <c r="N179">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="O179">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P179">
-        <v>11</v>
+        <v>4.2</v>
       </c>
       <c r="Q179">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R179">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S179">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T179">
         <v>3</v>
       </c>
       <c r="U179">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V179">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W179">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z179">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC179">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -17182,7 +17182,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6842372</v>
+        <v>6842474</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17194,73 +17194,73 @@
         <v>45275.66666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G188" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H188">
         <v>2</v>
       </c>
       <c r="I188">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K188">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="L188">
         <v>3.4</v>
       </c>
       <c r="M188">
+        <v>2.2</v>
+      </c>
+      <c r="N188">
+        <v>3.5</v>
+      </c>
+      <c r="O188">
+        <v>3.5</v>
+      </c>
+      <c r="P188">
+        <v>2.05</v>
+      </c>
+      <c r="Q188">
+        <v>0.5</v>
+      </c>
+      <c r="R188">
+        <v>1.825</v>
+      </c>
+      <c r="S188">
+        <v>2.025</v>
+      </c>
+      <c r="T188">
         <v>2.5</v>
       </c>
-      <c r="N188">
-        <v>2.75</v>
-      </c>
-      <c r="O188">
-        <v>3.2</v>
-      </c>
-      <c r="P188">
-        <v>2.7</v>
-      </c>
-      <c r="Q188">
-        <v>0</v>
-      </c>
-      <c r="R188">
+      <c r="U188">
         <v>1.95</v>
       </c>
-      <c r="S188">
+      <c r="V188">
         <v>1.9</v>
       </c>
-      <c r="T188">
-        <v>2.25</v>
-      </c>
-      <c r="U188">
-        <v>1.8</v>
-      </c>
-      <c r="V188">
-        <v>2.05</v>
-      </c>
       <c r="W188">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA188">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC188">
         <v>-1</v>
@@ -17271,7 +17271,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6842371</v>
+        <v>6842372</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17283,56 +17283,56 @@
         <v>45275.66666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G189" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J189" t="s">
         <v>51</v>
       </c>
       <c r="K189">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="L189">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M189">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N189">
+        <v>2.75</v>
+      </c>
+      <c r="O189">
+        <v>3.2</v>
+      </c>
+      <c r="P189">
+        <v>2.7</v>
+      </c>
+      <c r="Q189">
+        <v>0</v>
+      </c>
+      <c r="R189">
+        <v>1.95</v>
+      </c>
+      <c r="S189">
+        <v>1.9</v>
+      </c>
+      <c r="T189">
+        <v>2.25</v>
+      </c>
+      <c r="U189">
+        <v>1.8</v>
+      </c>
+      <c r="V189">
         <v>2.05</v>
       </c>
-      <c r="O189">
-        <v>3.6</v>
-      </c>
-      <c r="P189">
-        <v>3.5</v>
-      </c>
-      <c r="Q189">
-        <v>-0.25</v>
-      </c>
-      <c r="R189">
-        <v>1.8</v>
-      </c>
-      <c r="S189">
-        <v>2.05</v>
-      </c>
-      <c r="T189">
-        <v>3</v>
-      </c>
-      <c r="U189">
-        <v>2</v>
-      </c>
-      <c r="V189">
-        <v>1.85</v>
-      </c>
       <c r="W189">
         <v>-1</v>
       </c>
@@ -17340,19 +17340,19 @@
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="Z189">
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC189">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17360,7 +17360,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6841999</v>
+        <v>6842371</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17372,40 +17372,40 @@
         <v>45275.66666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G190" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190">
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K190">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="L190">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M190">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="N190">
-        <v>5.75</v>
+        <v>2.05</v>
       </c>
       <c r="O190">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P190">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q190">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R190">
         <v>1.8</v>
@@ -17417,31 +17417,31 @@
         <v>3</v>
       </c>
       <c r="U190">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V190">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W190">
         <v>-1</v>
       </c>
       <c r="X190">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z190">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB190">
         <v>-1</v>
       </c>
       <c r="AC190">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17449,7 +17449,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6842474</v>
+        <v>6841999</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17461,49 +17461,49 @@
         <v>45275.66666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G191" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191">
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K191">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="L191">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M191">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="N191">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="O191">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P191">
+        <v>1.5</v>
+      </c>
+      <c r="Q191">
+        <v>1.25</v>
+      </c>
+      <c r="R191">
+        <v>1.8</v>
+      </c>
+      <c r="S191">
         <v>2.05</v>
       </c>
-      <c r="Q191">
-        <v>0.5</v>
-      </c>
-      <c r="R191">
-        <v>1.825</v>
-      </c>
-      <c r="S191">
-        <v>2.025</v>
-      </c>
       <c r="T191">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U191">
         <v>1.95</v>
@@ -17512,25 +17512,25 @@
         <v>1.9</v>
       </c>
       <c r="W191">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X191">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y191">
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA191">
         <v>-1</v>
       </c>
       <c r="AB191">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC191">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17538,7 +17538,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6842478</v>
+        <v>6842479</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17550,13 +17550,13 @@
         <v>45282.66666666666</v>
       </c>
       <c r="F192" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G192" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H192">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I192">
         <v>1</v>
@@ -17565,43 +17565,43 @@
         <v>50</v>
       </c>
       <c r="K192">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="L192">
+        <v>3.6</v>
+      </c>
+      <c r="M192">
+        <v>3.6</v>
+      </c>
+      <c r="N192">
+        <v>1.833</v>
+      </c>
+      <c r="O192">
         <v>3.75</v>
       </c>
-      <c r="M192">
-        <v>1.75</v>
-      </c>
-      <c r="N192">
-        <v>3.75</v>
-      </c>
-      <c r="O192">
-        <v>3.8</v>
-      </c>
       <c r="P192">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="Q192">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R192">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S192">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T192">
         <v>2.75</v>
       </c>
       <c r="U192">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V192">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W192">
-        <v>2.75</v>
+        <v>0.833</v>
       </c>
       <c r="X192">
         <v>-1</v>
@@ -17610,16 +17610,16 @@
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA192">
         <v>-1</v>
       </c>
       <c r="AB192">
-        <v>0.8500000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AC192">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17627,7 +17627,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6842375</v>
+        <v>6841543</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17639,76 +17639,76 @@
         <v>45282.66666666666</v>
       </c>
       <c r="F193" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G193" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J193" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K193">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="L193">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M193">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N193">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="O193">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P193">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q193">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R193">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="S193">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="T193">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U193">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V193">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W193">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X193">
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z193">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB193">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC193">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17716,7 +17716,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6842000</v>
+        <v>6842375</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17728,58 +17728,58 @@
         <v>45282.66666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G194" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H194">
         <v>2</v>
       </c>
       <c r="I194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J194" t="s">
         <v>50</v>
       </c>
       <c r="K194">
-        <v>1.2</v>
+        <v>1.666</v>
       </c>
       <c r="L194">
+        <v>3.8</v>
+      </c>
+      <c r="M194">
+        <v>4</v>
+      </c>
+      <c r="N194">
+        <v>1.65</v>
+      </c>
+      <c r="O194">
+        <v>4</v>
+      </c>
+      <c r="P194">
         <v>5.25</v>
       </c>
-      <c r="M194">
-        <v>10</v>
-      </c>
-      <c r="N194">
-        <v>1.181</v>
-      </c>
-      <c r="O194">
-        <v>7.5</v>
-      </c>
-      <c r="P194">
-        <v>13</v>
-      </c>
       <c r="Q194">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R194">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S194">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T194">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U194">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V194">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W194">
-        <v>0.181</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X194">
         <v>-1</v>
@@ -17788,16 +17788,16 @@
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA194">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC194">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17805,7 +17805,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6841543</v>
+        <v>6842478</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17817,73 +17817,73 @@
         <v>45282.66666666666</v>
       </c>
       <c r="F195" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G195" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H195">
+        <v>3</v>
+      </c>
+      <c r="I195">
         <v>1</v>
       </c>
-      <c r="I195">
-        <v>2</v>
-      </c>
       <c r="J195" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K195">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="L195">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M195">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="N195">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="O195">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P195">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q195">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R195">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S195">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T195">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U195">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V195">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA195">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB195">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC195">
         <v>-1</v>
@@ -17894,7 +17894,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6842479</v>
+        <v>6842000</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17906,10 +17906,10 @@
         <v>45282.66666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G196" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H196">
         <v>2</v>
@@ -17921,61 +17921,61 @@
         <v>50</v>
       </c>
       <c r="K196">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="L196">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="M196">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="N196">
-        <v>1.833</v>
+        <v>1.181</v>
       </c>
       <c r="O196">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="P196">
-        <v>4.333</v>
+        <v>13</v>
       </c>
       <c r="Q196">
+        <v>-2</v>
+      </c>
+      <c r="R196">
+        <v>1.925</v>
+      </c>
+      <c r="S196">
+        <v>1.925</v>
+      </c>
+      <c r="T196">
+        <v>3.25</v>
+      </c>
+      <c r="U196">
+        <v>1.975</v>
+      </c>
+      <c r="V196">
+        <v>1.875</v>
+      </c>
+      <c r="W196">
+        <v>0.181</v>
+      </c>
+      <c r="X196">
+        <v>-1</v>
+      </c>
+      <c r="Y196">
+        <v>-1</v>
+      </c>
+      <c r="Z196">
+        <v>-1</v>
+      </c>
+      <c r="AA196">
+        <v>0.925</v>
+      </c>
+      <c r="AB196">
         <v>-0.5</v>
       </c>
-      <c r="R196">
-        <v>1.875</v>
-      </c>
-      <c r="S196">
-        <v>1.975</v>
-      </c>
-      <c r="T196">
-        <v>2.75</v>
-      </c>
-      <c r="U196">
-        <v>2.025</v>
-      </c>
-      <c r="V196">
-        <v>1.825</v>
-      </c>
-      <c r="W196">
-        <v>0.833</v>
-      </c>
-      <c r="X196">
-        <v>-1</v>
-      </c>
-      <c r="Y196">
-        <v>-1</v>
-      </c>
-      <c r="Z196">
-        <v>0.875</v>
-      </c>
-      <c r="AA196">
-        <v>-1</v>
-      </c>
-      <c r="AB196">
-        <v>0.5125</v>
-      </c>
       <c r="AC196">
-        <v>-0.5</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -18873,7 +18873,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6842382</v>
+        <v>6842381</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18885,76 +18885,76 @@
         <v>45306.66666666666</v>
       </c>
       <c r="F207" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G207" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J207" t="s">
         <v>49</v>
       </c>
       <c r="K207">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="L207">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="M207">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N207">
+        <v>3</v>
+      </c>
+      <c r="O207">
+        <v>3.8</v>
+      </c>
+      <c r="P207">
         <v>2.15</v>
       </c>
-      <c r="O207">
-        <v>4</v>
-      </c>
-      <c r="P207">
-        <v>3.1</v>
-      </c>
       <c r="Q207">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R207">
+        <v>1.925</v>
+      </c>
+      <c r="S207">
+        <v>1.925</v>
+      </c>
+      <c r="T207">
+        <v>2.5</v>
+      </c>
+      <c r="U207">
         <v>1.9</v>
       </c>
-      <c r="S207">
+      <c r="V207">
         <v>1.95</v>
       </c>
-      <c r="T207">
-        <v>2.75</v>
-      </c>
-      <c r="U207">
-        <v>1.85</v>
-      </c>
-      <c r="V207">
-        <v>2</v>
-      </c>
       <c r="W207">
         <v>-1</v>
       </c>
       <c r="X207">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
+        <v>0.4625</v>
+      </c>
+      <c r="AA207">
         <v>-0.5</v>
       </c>
-      <c r="AA207">
-        <v>0.475</v>
-      </c>
       <c r="AB207">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC207">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18962,7 +18962,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6842381</v>
+        <v>6842382</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18974,76 +18974,76 @@
         <v>45306.66666666666</v>
       </c>
       <c r="F208" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G208" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J208" t="s">
         <v>49</v>
       </c>
       <c r="K208">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="L208">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="M208">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="N208">
+        <v>2.15</v>
+      </c>
+      <c r="O208">
+        <v>4</v>
+      </c>
+      <c r="P208">
+        <v>3.1</v>
+      </c>
+      <c r="Q208">
+        <v>-0.25</v>
+      </c>
+      <c r="R208">
+        <v>1.9</v>
+      </c>
+      <c r="S208">
+        <v>1.95</v>
+      </c>
+      <c r="T208">
+        <v>2.75</v>
+      </c>
+      <c r="U208">
+        <v>1.85</v>
+      </c>
+      <c r="V208">
+        <v>2</v>
+      </c>
+      <c r="W208">
+        <v>-1</v>
+      </c>
+      <c r="X208">
         <v>3</v>
       </c>
-      <c r="O208">
-        <v>3.8</v>
-      </c>
-      <c r="P208">
-        <v>2.15</v>
-      </c>
-      <c r="Q208">
-        <v>0.25</v>
-      </c>
-      <c r="R208">
-        <v>1.925</v>
-      </c>
-      <c r="S208">
-        <v>1.925</v>
-      </c>
-      <c r="T208">
-        <v>2.5</v>
-      </c>
-      <c r="U208">
-        <v>1.9</v>
-      </c>
-      <c r="V208">
-        <v>1.95</v>
-      </c>
-      <c r="W208">
-        <v>-1</v>
-      </c>
-      <c r="X208">
-        <v>2.8</v>
-      </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.4625</v>
+        <v>-0.5</v>
       </c>
       <c r="AA208">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC208">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19585,7 +19585,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6842488</v>
+        <v>7711428</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19597,58 +19597,58 @@
         <v>45313.66666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G215" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" t="s">
         <v>50</v>
       </c>
       <c r="K215">
-        <v>2.75</v>
+        <v>1.571</v>
       </c>
       <c r="L215">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M215">
-        <v>2.35</v>
+        <v>5.25</v>
       </c>
       <c r="N215">
+        <v>1.615</v>
+      </c>
+      <c r="O215">
+        <v>4.2</v>
+      </c>
+      <c r="P215">
+        <v>5.25</v>
+      </c>
+      <c r="Q215">
+        <v>-1</v>
+      </c>
+      <c r="R215">
+        <v>2</v>
+      </c>
+      <c r="S215">
+        <v>1.85</v>
+      </c>
+      <c r="T215">
         <v>3</v>
       </c>
-      <c r="O215">
-        <v>3.4</v>
-      </c>
-      <c r="P215">
-        <v>2.3</v>
-      </c>
-      <c r="Q215">
-        <v>0.25</v>
-      </c>
-      <c r="R215">
-        <v>1.85</v>
-      </c>
-      <c r="S215">
-        <v>2</v>
-      </c>
-      <c r="T215">
-        <v>2.75</v>
-      </c>
       <c r="U215">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V215">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W215">
-        <v>2</v>
+        <v>0.615</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19657,16 +19657,16 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA215">
         <v>-1</v>
       </c>
       <c r="AB215">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AC215">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19674,7 +19674,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6842489</v>
+        <v>6842488</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19686,13 +19686,13 @@
         <v>45313.66666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G216" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H216">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I216">
         <v>1</v>
@@ -19701,61 +19701,61 @@
         <v>50</v>
       </c>
       <c r="K216">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L216">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M216">
-        <v>2.9</v>
+        <v>2.35</v>
       </c>
       <c r="N216">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O216">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P216">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q216">
+        <v>0.25</v>
+      </c>
+      <c r="R216">
+        <v>1.85</v>
+      </c>
+      <c r="S216">
+        <v>2</v>
+      </c>
+      <c r="T216">
+        <v>2.75</v>
+      </c>
+      <c r="U216">
+        <v>2</v>
+      </c>
+      <c r="V216">
+        <v>1.85</v>
+      </c>
+      <c r="W216">
+        <v>2</v>
+      </c>
+      <c r="X216">
+        <v>-1</v>
+      </c>
+      <c r="Y216">
+        <v>-1</v>
+      </c>
+      <c r="Z216">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA216">
+        <v>-1</v>
+      </c>
+      <c r="AB216">
+        <v>0.5</v>
+      </c>
+      <c r="AC216">
         <v>-0.5</v>
-      </c>
-      <c r="R216">
-        <v>2</v>
-      </c>
-      <c r="S216">
-        <v>1.85</v>
-      </c>
-      <c r="T216">
-        <v>3.25</v>
-      </c>
-      <c r="U216">
-        <v>1.925</v>
-      </c>
-      <c r="V216">
-        <v>1.925</v>
-      </c>
-      <c r="W216">
-        <v>1.05</v>
-      </c>
-      <c r="X216">
-        <v>-1</v>
-      </c>
-      <c r="Y216">
-        <v>-1</v>
-      </c>
-      <c r="Z216">
-        <v>1</v>
-      </c>
-      <c r="AA216">
-        <v>-1</v>
-      </c>
-      <c r="AB216">
-        <v>0.925</v>
-      </c>
-      <c r="AC216">
-        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19763,7 +19763,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7706895</v>
+        <v>6842489</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19775,58 +19775,58 @@
         <v>45313.66666666666</v>
       </c>
       <c r="F217" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G217" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H217">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J217" t="s">
         <v>50</v>
       </c>
       <c r="K217">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="L217">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M217">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="N217">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="O217">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P217">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q217">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R217">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S217">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T217">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U217">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V217">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W217">
-        <v>0.7</v>
+        <v>1.05</v>
       </c>
       <c r="X217">
         <v>-1</v>
@@ -19835,13 +19835,13 @@
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA217">
         <v>-1</v>
       </c>
       <c r="AB217">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC217">
         <v>-1</v>
@@ -19852,7 +19852,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7711428</v>
+        <v>7622839</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19864,76 +19864,76 @@
         <v>45313.66666666666</v>
       </c>
       <c r="F218" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G218" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H218">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K218">
-        <v>1.571</v>
+        <v>3.75</v>
       </c>
       <c r="L218">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M218">
-        <v>5.25</v>
+        <v>1.833</v>
       </c>
       <c r="N218">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="O218">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P218">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="Q218">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R218">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S218">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T218">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U218">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V218">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W218">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X218">
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z218">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA218">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB218">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC218">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19941,7 +19941,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7622839</v>
+        <v>7706895</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19953,76 +19953,76 @@
         <v>45313.66666666666</v>
       </c>
       <c r="F219" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G219" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J219" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K219">
-        <v>3.75</v>
+        <v>1.533</v>
       </c>
       <c r="L219">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M219">
-        <v>1.833</v>
+        <v>5.5</v>
       </c>
       <c r="N219">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="O219">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P219">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="Q219">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R219">
+        <v>1.875</v>
+      </c>
+      <c r="S219">
         <v>1.975</v>
       </c>
-      <c r="S219">
+      <c r="T219">
+        <v>3.5</v>
+      </c>
+      <c r="U219">
+        <v>1.975</v>
+      </c>
+      <c r="V219">
         <v>1.875</v>
       </c>
-      <c r="T219">
-        <v>3.25</v>
-      </c>
-      <c r="U219">
-        <v>1.9</v>
-      </c>
-      <c r="V219">
-        <v>1.95</v>
-      </c>
       <c r="W219">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X219">
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z219">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA219">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC219">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20030,7 +20030,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6842390</v>
+        <v>6842490</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20042,76 +20042,76 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F220" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G220" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I220">
         <v>0</v>
       </c>
       <c r="J220" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K220">
-        <v>1.222</v>
+        <v>1.727</v>
       </c>
       <c r="L220">
-        <v>6</v>
+        <v>3.9</v>
       </c>
       <c r="M220">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="N220">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="O220">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P220">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q220">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R220">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S220">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T220">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U220">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V220">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W220">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X220">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y220">
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA220">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB220">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC220">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20119,7 +20119,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6842491</v>
+        <v>6842390</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20131,76 +20131,76 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G221" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H221">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221">
         <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K221">
-        <v>1.727</v>
+        <v>1.222</v>
       </c>
       <c r="L221">
-        <v>3.9</v>
+        <v>6</v>
       </c>
       <c r="M221">
-        <v>4.5</v>
+        <v>15</v>
       </c>
       <c r="N221">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="O221">
+        <v>5</v>
+      </c>
+      <c r="P221">
+        <v>7.5</v>
+      </c>
+      <c r="Q221">
+        <v>-1.5</v>
+      </c>
+      <c r="R221">
+        <v>2</v>
+      </c>
+      <c r="S221">
+        <v>1.85</v>
+      </c>
+      <c r="T221">
+        <v>3.25</v>
+      </c>
+      <c r="U221">
+        <v>1.9</v>
+      </c>
+      <c r="V221">
+        <v>1.95</v>
+      </c>
+      <c r="W221">
+        <v>-1</v>
+      </c>
+      <c r="X221">
         <v>4</v>
       </c>
-      <c r="P221">
-        <v>4.5</v>
-      </c>
-      <c r="Q221">
-        <v>-0.75</v>
-      </c>
-      <c r="R221">
-        <v>1.9</v>
-      </c>
-      <c r="S221">
-        <v>1.95</v>
-      </c>
-      <c r="T221">
-        <v>3</v>
-      </c>
-      <c r="U221">
-        <v>1.975</v>
-      </c>
-      <c r="V221">
-        <v>1.875</v>
-      </c>
-      <c r="W221">
-        <v>0.7</v>
-      </c>
-      <c r="X221">
-        <v>-1</v>
-      </c>
       <c r="Y221">
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB221">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC221">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20208,7 +20208,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6842490</v>
+        <v>6842491</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20220,10 +20220,10 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G222" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H222">
         <v>3</v>
@@ -20244,34 +20244,34 @@
         <v>4.5</v>
       </c>
       <c r="N222">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O222">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P222">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q222">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R222">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S222">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T222">
         <v>3</v>
       </c>
       <c r="U222">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V222">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W222">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="X222">
         <v>-1</v>
@@ -20280,7 +20280,7 @@
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA222">
         <v>-1</v>
@@ -20297,7 +20297,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6842003</v>
+        <v>6842492</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20309,76 +20309,76 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F223" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G223" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H223">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K223">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="L223">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="M223">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N223">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O223">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P223">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q223">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R223">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S223">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T223">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U223">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V223">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W223">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X223">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y223">
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB223">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC223">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20386,7 +20386,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6842492</v>
+        <v>6842003</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20398,76 +20398,76 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F224" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G224" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K224">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="L224">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="M224">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N224">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="O224">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="P224">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q224">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R224">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S224">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T224">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U224">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V224">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W224">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X224">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA224">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB224">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC224">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20653,7 +20653,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6842493</v>
+        <v>6842391</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20665,49 +20665,49 @@
         <v>45320.66666666666</v>
       </c>
       <c r="F227" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G227" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I227">
         <v>2</v>
       </c>
       <c r="J227" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K227">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="L227">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M227">
-        <v>11</v>
+        <v>2.6</v>
       </c>
       <c r="N227">
-        <v>1.285</v>
+        <v>2.1</v>
       </c>
       <c r="O227">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P227">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="Q227">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R227">
+        <v>1.9</v>
+      </c>
+      <c r="S227">
         <v>1.95</v>
       </c>
-      <c r="S227">
-        <v>1.9</v>
-      </c>
       <c r="T227">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U227">
         <v>1.875</v>
@@ -20719,22 +20719,22 @@
         <v>-1</v>
       </c>
       <c r="X227">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y227">
-        <v>8.5</v>
+        <v>-1</v>
       </c>
       <c r="Z227">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA227">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AB227">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC227">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20742,7 +20742,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6841546</v>
+        <v>6842493</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20754,76 +20754,76 @@
         <v>45320.66666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G228" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H228">
         <v>1</v>
       </c>
       <c r="I228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J228" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K228">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="L228">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="M228">
-        <v>1.6</v>
+        <v>11</v>
       </c>
       <c r="N228">
-        <v>5.5</v>
+        <v>1.285</v>
       </c>
       <c r="O228">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P228">
-        <v>1.571</v>
+        <v>9.5</v>
       </c>
       <c r="Q228">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R228">
+        <v>1.95</v>
+      </c>
+      <c r="S228">
+        <v>1.9</v>
+      </c>
+      <c r="T228">
+        <v>3.25</v>
+      </c>
+      <c r="U228">
         <v>1.875</v>
       </c>
-      <c r="S228">
+      <c r="V228">
         <v>1.975</v>
       </c>
-      <c r="T228">
-        <v>3</v>
-      </c>
-      <c r="U228">
-        <v>1.825</v>
-      </c>
-      <c r="V228">
-        <v>2.025</v>
-      </c>
       <c r="W228">
         <v>-1</v>
       </c>
       <c r="X228">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y228">
-        <v>-1</v>
+        <v>8.5</v>
       </c>
       <c r="Z228">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA228">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB228">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC228">
-        <v>1.025</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20831,7 +20831,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6842391</v>
+        <v>6841546</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20843,76 +20843,76 @@
         <v>45320.66666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G229" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J229" t="s">
         <v>49</v>
       </c>
       <c r="K229">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="L229">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M229">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="N229">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="O229">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P229">
+        <v>1.571</v>
+      </c>
+      <c r="Q229">
+        <v>1</v>
+      </c>
+      <c r="R229">
+        <v>1.875</v>
+      </c>
+      <c r="S229">
+        <v>1.975</v>
+      </c>
+      <c r="T229">
         <v>3</v>
       </c>
-      <c r="Q229">
-        <v>-0.25</v>
-      </c>
-      <c r="R229">
-        <v>1.9</v>
-      </c>
-      <c r="S229">
-        <v>1.95</v>
-      </c>
-      <c r="T229">
-        <v>3.5</v>
-      </c>
       <c r="U229">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V229">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W229">
         <v>-1</v>
       </c>
       <c r="X229">
-        <v>3</v>
+        <v>3.333</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA229">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC229">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -21899,7 +21899,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6842399</v>
+        <v>6842498</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21911,58 +21911,58 @@
         <v>45331.66666666666</v>
       </c>
       <c r="F241" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G241" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H241">
         <v>3</v>
       </c>
       <c r="I241">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J241" t="s">
         <v>50</v>
       </c>
       <c r="K241">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="L241">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="M241">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="N241">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="O241">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P241">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="Q241">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R241">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S241">
         <v>2.05</v>
       </c>
       <c r="T241">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U241">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V241">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W241">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="X241">
         <v>-1</v>
@@ -21971,16 +21971,16 @@
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA241">
         <v>-1</v>
       </c>
       <c r="AB241">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC241">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -22166,7 +22166,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6842498</v>
+        <v>6842399</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22178,58 +22178,58 @@
         <v>45331.66666666666</v>
       </c>
       <c r="F244" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G244" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H244">
         <v>3</v>
       </c>
       <c r="I244">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J244" t="s">
         <v>50</v>
       </c>
       <c r="K244">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="L244">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="M244">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="N244">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="O244">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P244">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="Q244">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R244">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S244">
         <v>2.05</v>
       </c>
       <c r="T244">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U244">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V244">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W244">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="X244">
         <v>-1</v>
@@ -22238,16 +22238,16 @@
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA244">
         <v>-1</v>
       </c>
       <c r="AB244">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC244">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22789,7 +22789,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6842404</v>
+        <v>6842501</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22801,76 +22801,76 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F251" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G251" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I251">
         <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K251">
+        <v>2.7</v>
+      </c>
+      <c r="L251">
         <v>3.4</v>
       </c>
-      <c r="L251">
+      <c r="M251">
+        <v>2.5</v>
+      </c>
+      <c r="N251">
+        <v>3.6</v>
+      </c>
+      <c r="O251">
         <v>3.75</v>
       </c>
-      <c r="M251">
-        <v>2</v>
-      </c>
-      <c r="N251">
-        <v>3.3</v>
-      </c>
-      <c r="O251">
-        <v>3.6</v>
-      </c>
       <c r="P251">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q251">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R251">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S251">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T251">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U251">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V251">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W251">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X251">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y251">
         <v>-1</v>
       </c>
       <c r="Z251">
-        <v>0.5125</v>
+        <v>0.875</v>
       </c>
       <c r="AA251">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB251">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC251">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22878,7 +22878,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6842501</v>
+        <v>6842405</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22890,58 +22890,58 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F252" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G252" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H252">
         <v>3</v>
       </c>
       <c r="I252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J252" t="s">
         <v>50</v>
       </c>
       <c r="K252">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="L252">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M252">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="N252">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="O252">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P252">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="Q252">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R252">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S252">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T252">
         <v>3</v>
       </c>
       <c r="U252">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V252">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W252">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="X252">
         <v>-1</v>
@@ -22950,13 +22950,13 @@
         <v>-1</v>
       </c>
       <c r="Z252">
-        <v>0.875</v>
+        <v>0.5125</v>
       </c>
       <c r="AA252">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB252">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC252">
         <v>-1</v>
@@ -22967,7 +22967,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6842403</v>
+        <v>6842404</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22979,49 +22979,49 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F253" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G253" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253">
         <v>1</v>
       </c>
       <c r="J253" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K253">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="L253">
         <v>3.75</v>
       </c>
       <c r="M253">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N253">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O253">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P253">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Q253">
         <v>0.25</v>
       </c>
       <c r="R253">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S253">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T253">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U253">
         <v>1.825</v>
@@ -23030,25 +23030,25 @@
         <v>2.025</v>
       </c>
       <c r="W253">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X253">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y253">
         <v>-1</v>
       </c>
       <c r="Z253">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AA253">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB253">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC253">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="254" spans="1:29">
@@ -23145,7 +23145,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6842405</v>
+        <v>6842402</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23157,73 +23157,73 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F255" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G255" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H255">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I255">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J255" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K255">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="L255">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M255">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="N255">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="O255">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P255">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q255">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R255">
+        <v>1.9</v>
+      </c>
+      <c r="S255">
+        <v>1.95</v>
+      </c>
+      <c r="T255">
+        <v>3.25</v>
+      </c>
+      <c r="U255">
+        <v>1.825</v>
+      </c>
+      <c r="V255">
         <v>2.025</v>
       </c>
-      <c r="S255">
-        <v>1.825</v>
-      </c>
-      <c r="T255">
-        <v>3</v>
-      </c>
-      <c r="U255">
-        <v>1.925</v>
-      </c>
-      <c r="V255">
-        <v>1.925</v>
-      </c>
       <c r="W255">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X255">
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z255">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA255">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB255">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC255">
         <v>-1</v>
@@ -23234,7 +23234,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6842402</v>
+        <v>6842403</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23246,49 +23246,49 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F256" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G256" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H256">
         <v>2</v>
       </c>
       <c r="I256">
+        <v>1</v>
+      </c>
+      <c r="J256" t="s">
+        <v>50</v>
+      </c>
+      <c r="K256">
+        <v>2.8</v>
+      </c>
+      <c r="L256">
+        <v>3.75</v>
+      </c>
+      <c r="M256">
+        <v>2.25</v>
+      </c>
+      <c r="N256">
+        <v>3.2</v>
+      </c>
+      <c r="O256">
         <v>4</v>
       </c>
-      <c r="J256" t="s">
-        <v>51</v>
-      </c>
-      <c r="K256">
-        <v>1.25</v>
-      </c>
-      <c r="L256">
-        <v>6</v>
-      </c>
-      <c r="M256">
-        <v>10</v>
-      </c>
-      <c r="N256">
-        <v>1.444</v>
-      </c>
-      <c r="O256">
-        <v>5</v>
-      </c>
       <c r="P256">
-        <v>5.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q256">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R256">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S256">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T256">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U256">
         <v>1.825</v>
@@ -23297,25 +23297,25 @@
         <v>2.025</v>
       </c>
       <c r="W256">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X256">
         <v>-1</v>
       </c>
       <c r="Y256">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z256">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA256">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB256">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC256">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -23679,7 +23679,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>6842503</v>
+        <v>6841550</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23691,46 +23691,46 @@
         <v>45345.66666666666</v>
       </c>
       <c r="F261" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G261" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H261">
         <v>2</v>
       </c>
       <c r="I261">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J261" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K261">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="L261">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M261">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N261">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="O261">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P261">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q261">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R261">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S261">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T261">
         <v>3</v>
@@ -23742,25 +23742,25 @@
         <v>1.85</v>
       </c>
       <c r="W261">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X261">
         <v>-1</v>
       </c>
       <c r="Y261">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z261">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA261">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB261">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC261">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -23768,7 +23768,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6842407</v>
+        <v>6842007</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23780,61 +23780,61 @@
         <v>45345.66666666666</v>
       </c>
       <c r="F262" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G262" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J262" t="s">
         <v>49</v>
       </c>
       <c r="K262">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="L262">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M262">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="N262">
-        <v>1.285</v>
+        <v>1.4</v>
       </c>
       <c r="O262">
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="P262">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Q262">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R262">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S262">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T262">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U262">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V262">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W262">
         <v>-1</v>
       </c>
       <c r="X262">
-        <v>6</v>
+        <v>4.25</v>
       </c>
       <c r="Y262">
         <v>-1</v>
@@ -23843,13 +23843,13 @@
         <v>-1</v>
       </c>
       <c r="AA262">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB262">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC262">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23857,7 +23857,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6842504</v>
+        <v>6842407</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23869,10 +23869,10 @@
         <v>45345.66666666666</v>
       </c>
       <c r="F263" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G263" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H263">
         <v>2</v>
@@ -23884,34 +23884,34 @@
         <v>49</v>
       </c>
       <c r="K263">
-        <v>1.833</v>
+        <v>1.6</v>
       </c>
       <c r="L263">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M263">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N263">
-        <v>1.95</v>
+        <v>1.285</v>
       </c>
       <c r="O263">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="P263">
+        <v>8</v>
+      </c>
+      <c r="Q263">
+        <v>-1.75</v>
+      </c>
+      <c r="R263">
+        <v>1.825</v>
+      </c>
+      <c r="S263">
+        <v>2.025</v>
+      </c>
+      <c r="T263">
         <v>3.75</v>
-      </c>
-      <c r="Q263">
-        <v>-0.5</v>
-      </c>
-      <c r="R263">
-        <v>2</v>
-      </c>
-      <c r="S263">
-        <v>1.85</v>
-      </c>
-      <c r="T263">
-        <v>2.75</v>
       </c>
       <c r="U263">
         <v>2</v>
@@ -23923,7 +23923,7 @@
         <v>-1</v>
       </c>
       <c r="X263">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="Y263">
         <v>-1</v>
@@ -23932,13 +23932,13 @@
         <v>-1</v>
       </c>
       <c r="AA263">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB263">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AC263">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23946,7 +23946,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6841550</v>
+        <v>6842503</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23958,46 +23958,46 @@
         <v>45345.66666666666</v>
       </c>
       <c r="F264" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G264" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H264">
         <v>2</v>
       </c>
       <c r="I264">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J264" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K264">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="L264">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M264">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N264">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="O264">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P264">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q264">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R264">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S264">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T264">
         <v>3</v>
@@ -24009,25 +24009,25 @@
         <v>1.85</v>
       </c>
       <c r="W264">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X264">
         <v>-1</v>
       </c>
       <c r="Y264">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z264">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA264">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB264">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC264">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24035,7 +24035,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6842007</v>
+        <v>6842504</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24047,40 +24047,40 @@
         <v>45345.66666666666</v>
       </c>
       <c r="F265" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G265" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J265" t="s">
         <v>49</v>
       </c>
       <c r="K265">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="L265">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M265">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N265">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="O265">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P265">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q265">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R265">
         <v>2</v>
@@ -24089,19 +24089,19 @@
         <v>1.85</v>
       </c>
       <c r="T265">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U265">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V265">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W265">
         <v>-1</v>
       </c>
       <c r="X265">
-        <v>4.25</v>
+        <v>2.5</v>
       </c>
       <c r="Y265">
         <v>-1</v>
@@ -24113,10 +24113,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB265">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC265">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24658,7 +24658,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>6865522</v>
+        <v>6922061</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24670,76 +24670,76 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F272" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G272" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I272">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J272" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K272">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="L272">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M272">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="N272">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O272">
         <v>3.5</v>
       </c>
       <c r="P272">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q272">
         <v>0.25</v>
       </c>
       <c r="R272">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S272">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T272">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U272">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V272">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W272">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X272">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y272">
         <v>-1</v>
       </c>
       <c r="Z272">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AA272">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB272">
         <v>-1</v>
       </c>
       <c r="AC272">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="273" spans="1:29">
@@ -24747,7 +24747,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>6842414</v>
+        <v>6842507</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -24759,76 +24759,76 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F273" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G273" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H273">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I273">
         <v>1</v>
       </c>
       <c r="J273" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K273">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="L273">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M273">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="N273">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O273">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P273">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q273">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R273">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S273">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T273">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U273">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V273">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W273">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X273">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y273">
         <v>-1</v>
       </c>
       <c r="Z273">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA273">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB273">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC273">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:29">
@@ -24836,7 +24836,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6842506</v>
+        <v>6865522</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24848,76 +24848,76 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F274" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G274" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I274">
         <v>1</v>
       </c>
       <c r="J274" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K274">
-        <v>1.3</v>
+        <v>3.75</v>
       </c>
       <c r="L274">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M274">
-        <v>9</v>
+        <v>1.833</v>
       </c>
       <c r="N274">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="O274">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P274">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="Q274">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R274">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S274">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T274">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U274">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V274">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W274">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X274">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y274">
         <v>-1</v>
       </c>
       <c r="Z274">
+        <v>0.425</v>
+      </c>
+      <c r="AA274">
         <v>-0.5</v>
       </c>
-      <c r="AA274">
-        <v>0.475</v>
-      </c>
       <c r="AB274">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC274">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="275" spans="1:29">
@@ -24925,7 +24925,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6842507</v>
+        <v>6842414</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24937,76 +24937,76 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F275" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G275" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I275">
         <v>1</v>
       </c>
       <c r="J275" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K275">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="L275">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M275">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="N275">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="O275">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P275">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q275">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R275">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S275">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T275">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U275">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V275">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W275">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X275">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y275">
         <v>-1</v>
       </c>
       <c r="Z275">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA275">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB275">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC275">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="276" spans="1:29">
@@ -25014,7 +25014,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6922061</v>
+        <v>6842508</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25026,76 +25026,76 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F276" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G276" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J276" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K276">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="L276">
         <v>3.4</v>
       </c>
       <c r="M276">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="N276">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O276">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P276">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q276">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R276">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S276">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T276">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U276">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V276">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W276">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X276">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y276">
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA276">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB276">
         <v>-1</v>
       </c>
       <c r="AC276">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25103,7 +25103,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6842508</v>
+        <v>6842506</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25115,76 +25115,76 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F277" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G277" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I277">
         <v>1</v>
       </c>
       <c r="J277" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K277">
-        <v>2.75</v>
+        <v>1.3</v>
       </c>
       <c r="L277">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M277">
-        <v>2.375</v>
+        <v>9</v>
       </c>
       <c r="N277">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="O277">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P277">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="Q277">
+        <v>-1.25</v>
+      </c>
+      <c r="R277">
+        <v>1.9</v>
+      </c>
+      <c r="S277">
+        <v>1.95</v>
+      </c>
+      <c r="T277">
+        <v>3.25</v>
+      </c>
+      <c r="U277">
+        <v>1.925</v>
+      </c>
+      <c r="V277">
+        <v>1.925</v>
+      </c>
+      <c r="W277">
+        <v>0.444</v>
+      </c>
+      <c r="X277">
+        <v>-1</v>
+      </c>
+      <c r="Y277">
+        <v>-1</v>
+      </c>
+      <c r="Z277">
         <v>-0.5</v>
       </c>
-      <c r="R277">
-        <v>2</v>
-      </c>
-      <c r="S277">
-        <v>1.85</v>
-      </c>
-      <c r="T277">
-        <v>2.75</v>
-      </c>
-      <c r="U277">
-        <v>2</v>
-      </c>
-      <c r="V277">
-        <v>1.85</v>
-      </c>
-      <c r="W277">
-        <v>-1</v>
-      </c>
-      <c r="X277">
-        <v>2.6</v>
-      </c>
-      <c r="Y277">
-        <v>-1</v>
-      </c>
-      <c r="Z277">
-        <v>-1</v>
-      </c>
       <c r="AA277">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AB277">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC277">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25459,7 +25459,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6842511</v>
+        <v>6842512</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25471,76 +25471,76 @@
         <v>45359.66666666666</v>
       </c>
       <c r="F281" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G281" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I281">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J281" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K281">
+        <v>2.6</v>
+      </c>
+      <c r="L281">
+        <v>3.4</v>
+      </c>
+      <c r="M281">
+        <v>2.5</v>
+      </c>
+      <c r="N281">
+        <v>2.45</v>
+      </c>
+      <c r="O281">
+        <v>3.5</v>
+      </c>
+      <c r="P281">
+        <v>2.7</v>
+      </c>
+      <c r="Q281">
+        <v>0</v>
+      </c>
+      <c r="R281">
+        <v>1.8</v>
+      </c>
+      <c r="S281">
         <v>2.05</v>
       </c>
-      <c r="L281">
-        <v>3.6</v>
-      </c>
-      <c r="M281">
-        <v>3.1</v>
-      </c>
-      <c r="N281">
-        <v>2.4</v>
-      </c>
-      <c r="O281">
-        <v>3.3</v>
-      </c>
-      <c r="P281">
-        <v>2.9</v>
-      </c>
-      <c r="Q281">
-        <v>-0.25</v>
-      </c>
-      <c r="R281">
-        <v>2.1</v>
-      </c>
-      <c r="S281">
-        <v>1.775</v>
-      </c>
       <c r="T281">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U281">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V281">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W281">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X281">
         <v>-1</v>
       </c>
       <c r="Y281">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z281">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA281">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB281">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC281">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25548,7 +25548,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6842510</v>
+        <v>6842511</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25560,73 +25560,73 @@
         <v>45359.66666666666</v>
       </c>
       <c r="F282" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G282" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282">
         <v>2</v>
       </c>
       <c r="J282" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K282">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="L282">
         <v>3.6</v>
       </c>
       <c r="M282">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="N282">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="O282">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P282">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q282">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R282">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S282">
+        <v>1.775</v>
+      </c>
+      <c r="T282">
+        <v>2.25</v>
+      </c>
+      <c r="U282">
+        <v>1.825</v>
+      </c>
+      <c r="V282">
+        <v>2.025</v>
+      </c>
+      <c r="W282">
+        <v>-1</v>
+      </c>
+      <c r="X282">
+        <v>-1</v>
+      </c>
+      <c r="Y282">
         <v>1.9</v>
       </c>
-      <c r="T282">
-        <v>3</v>
-      </c>
-      <c r="U282">
-        <v>1.95</v>
-      </c>
-      <c r="V282">
-        <v>1.9</v>
-      </c>
-      <c r="W282">
-        <v>-1</v>
-      </c>
-      <c r="X282">
-        <v>2.75</v>
-      </c>
-      <c r="Y282">
-        <v>-1</v>
-      </c>
       <c r="Z282">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA282">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB282">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC282">
         <v>-1</v>
@@ -25637,7 +25637,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6842417</v>
+        <v>6842510</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25649,76 +25649,76 @@
         <v>45359.66666666666</v>
       </c>
       <c r="F283" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G283" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H283">
+        <v>2</v>
+      </c>
+      <c r="I283">
+        <v>2</v>
+      </c>
+      <c r="J283" t="s">
+        <v>49</v>
+      </c>
+      <c r="K283">
+        <v>2.5</v>
+      </c>
+      <c r="L283">
+        <v>3.6</v>
+      </c>
+      <c r="M283">
+        <v>2.55</v>
+      </c>
+      <c r="N283">
+        <v>2.55</v>
+      </c>
+      <c r="O283">
+        <v>3.75</v>
+      </c>
+      <c r="P283">
+        <v>2.5</v>
+      </c>
+      <c r="Q283">
         <v>0</v>
       </c>
-      <c r="I283">
-        <v>1</v>
-      </c>
-      <c r="J283" t="s">
-        <v>51</v>
-      </c>
-      <c r="K283">
-        <v>3.2</v>
-      </c>
-      <c r="L283">
-        <v>3.8</v>
-      </c>
-      <c r="M283">
-        <v>2</v>
-      </c>
-      <c r="N283">
-        <v>3.6</v>
-      </c>
-      <c r="O283">
-        <v>3.8</v>
-      </c>
-      <c r="P283">
-        <v>1.909</v>
-      </c>
-      <c r="Q283">
-        <v>0.5</v>
-      </c>
       <c r="R283">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S283">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T283">
         <v>3</v>
       </c>
       <c r="U283">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V283">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W283">
         <v>-1</v>
       </c>
       <c r="X283">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y283">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z283">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA283">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB283">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC283">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -25726,7 +25726,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6842509</v>
+        <v>6842417</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25738,76 +25738,76 @@
         <v>45359.66666666666</v>
       </c>
       <c r="F284" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G284" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H284">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I284">
         <v>1</v>
       </c>
       <c r="J284" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K284">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="L284">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M284">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N284">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="O284">
         <v>3.8</v>
       </c>
       <c r="P284">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q284">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R284">
+        <v>1.925</v>
+      </c>
+      <c r="S284">
+        <v>1.925</v>
+      </c>
+      <c r="T284">
+        <v>3</v>
+      </c>
+      <c r="U284">
         <v>1.875</v>
       </c>
-      <c r="S284">
+      <c r="V284">
         <v>1.975</v>
       </c>
-      <c r="T284">
-        <v>3.25</v>
-      </c>
-      <c r="U284">
-        <v>2</v>
-      </c>
-      <c r="V284">
-        <v>1.85</v>
-      </c>
       <c r="W284">
+        <v>-1</v>
+      </c>
+      <c r="X284">
+        <v>-1</v>
+      </c>
+      <c r="Y284">
         <v>0.909</v>
       </c>
-      <c r="X284">
-        <v>-1</v>
-      </c>
-      <c r="Y284">
-        <v>-1</v>
-      </c>
       <c r="Z284">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA284">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB284">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC284">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -25815,7 +25815,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>6842512</v>
+        <v>6842509</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25827,58 +25827,58 @@
         <v>45359.66666666666</v>
       </c>
       <c r="F285" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G285" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J285" t="s">
         <v>50</v>
       </c>
       <c r="K285">
-        <v>2.6</v>
+        <v>1.666</v>
       </c>
       <c r="L285">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M285">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="N285">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O285">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P285">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q285">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R285">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S285">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T285">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U285">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V285">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W285">
-        <v>1.45</v>
+        <v>0.909</v>
       </c>
       <c r="X285">
         <v>-1</v>
@@ -25887,16 +25887,16 @@
         <v>-1</v>
       </c>
       <c r="Z285">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA285">
         <v>-1</v>
       </c>
       <c r="AB285">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC285">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -26616,7 +26616,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6842418</v>
+        <v>6842514</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26628,40 +26628,40 @@
         <v>45362.66666666666</v>
       </c>
       <c r="F294" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G294" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I294">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J294" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K294">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L294">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M294">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="N294">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="O294">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P294">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q294">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R294">
         <v>1.9</v>
@@ -26670,7 +26670,7 @@
         <v>1.95</v>
       </c>
       <c r="T294">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U294">
         <v>1.85</v>
@@ -26679,25 +26679,25 @@
         <v>2</v>
       </c>
       <c r="W294">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X294">
         <v>-1</v>
       </c>
       <c r="Y294">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z294">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA294">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB294">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC294">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -26705,7 +26705,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6842514</v>
+        <v>6842418</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26717,40 +26717,40 @@
         <v>45362.66666666666</v>
       </c>
       <c r="F295" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G295" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H295">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I295">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J295" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K295">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L295">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M295">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="N295">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="O295">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P295">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q295">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R295">
         <v>1.9</v>
@@ -26759,7 +26759,7 @@
         <v>1.95</v>
       </c>
       <c r="T295">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U295">
         <v>1.85</v>
@@ -26768,25 +26768,25 @@
         <v>2</v>
       </c>
       <c r="W295">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X295">
         <v>-1</v>
       </c>
       <c r="Y295">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z295">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA295">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB295">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC295">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -27061,7 +27061,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>6994376</v>
+        <v>7054424</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27073,76 +27073,76 @@
         <v>45366.66666666666</v>
       </c>
       <c r="F299" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G299" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H299">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J299" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K299">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L299">
         <v>3.2</v>
       </c>
       <c r="M299">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N299">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="O299">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P299">
-        <v>1.85</v>
+        <v>5.25</v>
       </c>
       <c r="Q299">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R299">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S299">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T299">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U299">
+        <v>2.05</v>
+      </c>
+      <c r="V299">
         <v>1.8</v>
       </c>
-      <c r="V299">
-        <v>2.05</v>
-      </c>
       <c r="W299">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X299">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y299">
         <v>-1</v>
       </c>
       <c r="Z299">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA299">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB299">
+        <v>-1</v>
+      </c>
+      <c r="AC299">
         <v>0.8</v>
-      </c>
-      <c r="AC299">
-        <v>-1</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -27150,7 +27150,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>7054424</v>
+        <v>6992956</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27162,76 +27162,76 @@
         <v>45366.66666666666</v>
       </c>
       <c r="F300" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G300" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I300">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J300" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K300">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L300">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M300">
-        <v>3.6</v>
+        <v>1.55</v>
       </c>
       <c r="N300">
-        <v>1.6</v>
+        <v>5.25</v>
       </c>
       <c r="O300">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P300">
-        <v>5.25</v>
+        <v>1.65</v>
       </c>
       <c r="Q300">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R300">
+        <v>2.05</v>
+      </c>
+      <c r="S300">
+        <v>1.8</v>
+      </c>
+      <c r="T300">
+        <v>2.5</v>
+      </c>
+      <c r="U300">
+        <v>1.825</v>
+      </c>
+      <c r="V300">
         <v>2.025</v>
       </c>
-      <c r="S300">
-        <v>1.825</v>
-      </c>
-      <c r="T300">
-        <v>3.25</v>
-      </c>
-      <c r="U300">
-        <v>2.05</v>
-      </c>
-      <c r="V300">
-        <v>1.8</v>
-      </c>
       <c r="W300">
         <v>-1</v>
       </c>
       <c r="X300">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y300">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z300">
         <v>-1</v>
       </c>
       <c r="AA300">
+        <v>0.8</v>
+      </c>
+      <c r="AB300">
         <v>0.825</v>
       </c>
-      <c r="AB300">
-        <v>-1</v>
-      </c>
       <c r="AC300">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -27239,7 +27239,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>6992956</v>
+        <v>7054425</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27251,76 +27251,76 @@
         <v>45366.66666666666</v>
       </c>
       <c r="F301" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G301" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I301">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J301" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K301">
-        <v>5</v>
+        <v>1.9</v>
       </c>
       <c r="L301">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M301">
-        <v>1.55</v>
+        <v>3.5</v>
       </c>
       <c r="N301">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="O301">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P301">
-        <v>1.65</v>
+        <v>2.9</v>
       </c>
       <c r="Q301">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R301">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S301">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T301">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U301">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V301">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W301">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X301">
         <v>-1</v>
       </c>
       <c r="Y301">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z301">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA301">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB301">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC301">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="302" spans="1:29">
@@ -27328,7 +27328,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>7054425</v>
+        <v>6994376</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27340,58 +27340,58 @@
         <v>45366.66666666666</v>
       </c>
       <c r="F302" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G302" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H302">
         <v>3</v>
       </c>
       <c r="I302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J302" t="s">
         <v>50</v>
       </c>
       <c r="K302">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="L302">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M302">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="N302">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="O302">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P302">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q302">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R302">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S302">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T302">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U302">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V302">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W302">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="X302">
         <v>-1</v>
@@ -27400,16 +27400,16 @@
         <v>-1</v>
       </c>
       <c r="Z302">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA302">
         <v>-1</v>
       </c>
       <c r="AB302">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC302">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -27417,7 +27417,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>7054426</v>
+        <v>7000862</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27429,76 +27429,76 @@
         <v>45366.66666666666</v>
       </c>
       <c r="F303" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G303" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H303">
         <v>2</v>
       </c>
       <c r="I303">
+        <v>0</v>
+      </c>
+      <c r="J303" t="s">
+        <v>50</v>
+      </c>
+      <c r="K303">
+        <v>2.4</v>
+      </c>
+      <c r="L303">
+        <v>3.6</v>
+      </c>
+      <c r="M303">
+        <v>2.5</v>
+      </c>
+      <c r="N303">
+        <v>2.4</v>
+      </c>
+      <c r="O303">
+        <v>3.6</v>
+      </c>
+      <c r="P303">
+        <v>2.8</v>
+      </c>
+      <c r="Q303">
+        <v>-0.25</v>
+      </c>
+      <c r="R303">
+        <v>2.05</v>
+      </c>
+      <c r="S303">
+        <v>1.75</v>
+      </c>
+      <c r="T303">
         <v>3</v>
       </c>
-      <c r="J303" t="s">
-        <v>51</v>
-      </c>
-      <c r="K303">
-        <v>3</v>
-      </c>
-      <c r="L303">
-        <v>3.25</v>
-      </c>
-      <c r="M303">
-        <v>2.2</v>
-      </c>
-      <c r="N303">
-        <v>3.6</v>
-      </c>
-      <c r="O303">
-        <v>3.5</v>
-      </c>
-      <c r="P303">
-        <v>2.05</v>
-      </c>
-      <c r="Q303">
-        <v>0.25</v>
-      </c>
-      <c r="R303">
-        <v>2.025</v>
-      </c>
-      <c r="S303">
-        <v>1.825</v>
-      </c>
-      <c r="T303">
-        <v>2.75</v>
-      </c>
       <c r="U303">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V303">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W303">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X303">
         <v>-1</v>
       </c>
       <c r="Y303">
+        <v>-1</v>
+      </c>
+      <c r="Z303">
         <v>1.05</v>
       </c>
-      <c r="Z303">
-        <v>-1</v>
-      </c>
       <c r="AA303">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB303">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC303">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="304" spans="1:29">
@@ -27506,7 +27506,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>7000862</v>
+        <v>7054426</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27518,76 +27518,76 @@
         <v>45366.66666666666</v>
       </c>
       <c r="F304" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G304" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H304">
         <v>2</v>
       </c>
       <c r="I304">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J304" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K304">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="L304">
+        <v>3.25</v>
+      </c>
+      <c r="M304">
+        <v>2.2</v>
+      </c>
+      <c r="N304">
         <v>3.6</v>
       </c>
-      <c r="M304">
-        <v>2.5</v>
-      </c>
-      <c r="N304">
-        <v>2.4</v>
-      </c>
       <c r="O304">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P304">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q304">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R304">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S304">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T304">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U304">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V304">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W304">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X304">
         <v>-1</v>
       </c>
       <c r="Y304">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z304">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA304">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB304">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC304">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="305" spans="1:29">
@@ -27773,7 +27773,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>7063018</v>
+        <v>7054427</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27785,13 +27785,13 @@
         <v>45374.66666666666</v>
       </c>
       <c r="F307" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G307" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I307">
         <v>0</v>
@@ -27800,43 +27800,43 @@
         <v>50</v>
       </c>
       <c r="K307">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="L307">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="M307">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="N307">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="O307">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P307">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="Q307">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R307">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S307">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T307">
         <v>3</v>
       </c>
       <c r="U307">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V307">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W307">
-        <v>0.3999999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="X307">
         <v>-1</v>
@@ -27845,7 +27845,7 @@
         <v>-1</v>
       </c>
       <c r="Z307">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA307">
         <v>-1</v>
@@ -27854,7 +27854,7 @@
         <v>-1</v>
       </c>
       <c r="AC307">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -27951,7 +27951,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7054427</v>
+        <v>7063018</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27963,13 +27963,13 @@
         <v>45374.66666666666</v>
       </c>
       <c r="F309" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G309" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I309">
         <v>0</v>
@@ -27978,43 +27978,43 @@
         <v>50</v>
       </c>
       <c r="K309">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="L309">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="M309">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="N309">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="O309">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P309">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="Q309">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R309">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S309">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T309">
         <v>3</v>
       </c>
       <c r="U309">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V309">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W309">
-        <v>1.3</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X309">
         <v>-1</v>
@@ -28023,7 +28023,7 @@
         <v>-1</v>
       </c>
       <c r="Z309">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA309">
         <v>-1</v>
@@ -28032,7 +28032,7 @@
         <v>-1</v>
       </c>
       <c r="AC309">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28040,7 +28040,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>7088603</v>
+        <v>7088604</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28052,58 +28052,58 @@
         <v>45380.66666666666</v>
       </c>
       <c r="F310" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G310" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H310">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I310">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J310" t="s">
         <v>50</v>
       </c>
       <c r="K310">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="L310">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M310">
         <v>4.75</v>
       </c>
       <c r="N310">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="O310">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P310">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q310">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R310">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S310">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T310">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U310">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V310">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W310">
-        <v>0.7270000000000001</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X310">
         <v>-1</v>
@@ -28112,13 +28112,13 @@
         <v>-1</v>
       </c>
       <c r="Z310">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA310">
         <v>-1</v>
       </c>
       <c r="AB310">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC310">
         <v>-1</v>
@@ -28129,7 +28129,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>7088602</v>
+        <v>7088603</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28141,76 +28141,76 @@
         <v>45380.66666666666</v>
       </c>
       <c r="F311" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G311" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I311">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J311" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K311">
-        <v>4</v>
+        <v>1.65</v>
       </c>
       <c r="L311">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M311">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="N311">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="O311">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P311">
-        <v>1.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q311">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R311">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S311">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T311">
         <v>2.75</v>
       </c>
       <c r="U311">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V311">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W311">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X311">
         <v>-1</v>
       </c>
       <c r="Y311">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z311">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA311">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB311">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC311">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="312" spans="1:29">
@@ -28218,7 +28218,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>7088601</v>
+        <v>7088602</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28230,40 +28230,40 @@
         <v>45380.66666666666</v>
       </c>
       <c r="F312" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G312" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H312">
         <v>0</v>
       </c>
       <c r="I312">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J312" t="s">
         <v>51</v>
       </c>
       <c r="K312">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L312">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M312">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="N312">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="O312">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P312">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="Q312">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R312">
         <v>1.95</v>
@@ -28272,13 +28272,13 @@
         <v>1.9</v>
       </c>
       <c r="T312">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U312">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V312">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W312">
         <v>-1</v>
@@ -28287,7 +28287,7 @@
         <v>-1</v>
       </c>
       <c r="Y312">
-        <v>0.909</v>
+        <v>0.7</v>
       </c>
       <c r="Z312">
         <v>-1</v>
@@ -28296,10 +28296,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB312">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC312">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="313" spans="1:29">
@@ -28307,7 +28307,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>7088600</v>
+        <v>7088601</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28319,40 +28319,40 @@
         <v>45380.66666666666</v>
       </c>
       <c r="F313" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G313" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H313">
         <v>0</v>
       </c>
       <c r="I313">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J313" t="s">
         <v>51</v>
       </c>
       <c r="K313">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="L313">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M313">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N313">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="O313">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P313">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="Q313">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R313">
         <v>1.95</v>
@@ -28361,13 +28361,13 @@
         <v>1.9</v>
       </c>
       <c r="T313">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U313">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V313">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W313">
         <v>-1</v>
@@ -28376,7 +28376,7 @@
         <v>-1</v>
       </c>
       <c r="Y313">
-        <v>1.15</v>
+        <v>0.909</v>
       </c>
       <c r="Z313">
         <v>-1</v>
@@ -28385,10 +28385,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB313">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC313">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="314" spans="1:29">
@@ -28396,7 +28396,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7088616</v>
+        <v>7088600</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28408,76 +28408,76 @@
         <v>45380.66666666666</v>
       </c>
       <c r="F314" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G314" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J314" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K314">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="L314">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M314">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N314">
-        <v>1.65</v>
+        <v>3.3</v>
       </c>
       <c r="O314">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P314">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q314">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R314">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S314">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T314">
         <v>2.75</v>
       </c>
       <c r="U314">
+        <v>1.975</v>
+      </c>
+      <c r="V314">
         <v>1.875</v>
       </c>
-      <c r="V314">
-        <v>1.975</v>
-      </c>
       <c r="W314">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X314">
         <v>-1</v>
       </c>
       <c r="Y314">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z314">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA314">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB314">
         <v>-1</v>
       </c>
       <c r="AC314">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28485,7 +28485,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>7088604</v>
+        <v>7088616</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28497,58 +28497,58 @@
         <v>45380.66666666666</v>
       </c>
       <c r="F315" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G315" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H315">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I315">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J315" t="s">
         <v>50</v>
       </c>
       <c r="K315">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="L315">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M315">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N315">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="O315">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P315">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q315">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R315">
+        <v>1.85</v>
+      </c>
+      <c r="S315">
+        <v>2</v>
+      </c>
+      <c r="T315">
+        <v>2.75</v>
+      </c>
+      <c r="U315">
         <v>1.875</v>
       </c>
-      <c r="S315">
+      <c r="V315">
         <v>1.975</v>
       </c>
-      <c r="T315">
-        <v>3.25</v>
-      </c>
-      <c r="U315">
-        <v>1.9</v>
-      </c>
-      <c r="V315">
-        <v>1.95</v>
-      </c>
       <c r="W315">
-        <v>0.3999999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X315">
         <v>-1</v>
@@ -28557,16 +28557,16 @@
         <v>-1</v>
       </c>
       <c r="Z315">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA315">
         <v>-1</v>
       </c>
       <c r="AB315">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC315">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -28574,7 +28574,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>7088607</v>
+        <v>7088606</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28586,49 +28586,49 @@
         <v>45380.66666666666</v>
       </c>
       <c r="F316" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G316" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I316">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J316" t="s">
         <v>51</v>
       </c>
       <c r="K316">
-        <v>2.55</v>
+        <v>1.444</v>
       </c>
       <c r="L316">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M316">
-        <v>2.5</v>
+        <v>5.75</v>
       </c>
       <c r="N316">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="O316">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="P316">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q316">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R316">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S316">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T316">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U316">
         <v>1.9</v>
@@ -28643,19 +28643,19 @@
         <v>-1</v>
       </c>
       <c r="Y316">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="Z316">
         <v>-1</v>
       </c>
       <c r="AA316">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB316">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AC316">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -28663,7 +28663,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>7088606</v>
+        <v>7088605</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28675,76 +28675,76 @@
         <v>45380.66666666666</v>
       </c>
       <c r="F317" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G317" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H317">
+        <v>2</v>
+      </c>
+      <c r="I317">
         <v>1</v>
       </c>
-      <c r="I317">
-        <v>2</v>
-      </c>
       <c r="J317" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K317">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="L317">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M317">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="N317">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="O317">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="P317">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q317">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R317">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S317">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T317">
         <v>3.25</v>
       </c>
       <c r="U317">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V317">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W317">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X317">
         <v>-1</v>
       </c>
       <c r="Y317">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z317">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA317">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB317">
         <v>-0.5</v>
       </c>
       <c r="AC317">
-        <v>0.475</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -28752,7 +28752,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>7088605</v>
+        <v>7088607</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28764,76 +28764,76 @@
         <v>45380.66666666666</v>
       </c>
       <c r="F318" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G318" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J318" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K318">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="L318">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M318">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="N318">
-        <v>1.615</v>
+        <v>2.7</v>
       </c>
       <c r="O318">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P318">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="Q318">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R318">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S318">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T318">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U318">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V318">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W318">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X318">
         <v>-1</v>
       </c>
       <c r="Y318">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z318">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA318">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB318">
+        <v>0.45</v>
+      </c>
+      <c r="AC318">
         <v>-0.5</v>
-      </c>
-      <c r="AC318">
-        <v>0.425</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -29019,7 +29019,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>7138515</v>
+        <v>7138516</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29031,46 +29031,46 @@
         <v>45387.625</v>
       </c>
       <c r="F321" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G321" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K321">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L321">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M321">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="N321">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="O321">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P321">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q321">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R321">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S321">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T321">
         <v>3.25</v>
       </c>
       <c r="U321">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V321">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W321">
         <v>0</v>
@@ -29093,7 +29093,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>7138516</v>
+        <v>7123794</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29105,46 +29105,46 @@
         <v>45387.625</v>
       </c>
       <c r="F322" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G322" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K322">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="L322">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M322">
-        <v>3.25</v>
+        <v>2.45</v>
       </c>
       <c r="N322">
-        <v>1.833</v>
+        <v>2.55</v>
       </c>
       <c r="O322">
         <v>3.5</v>
       </c>
       <c r="P322">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="Q322">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R322">
+        <v>1.9</v>
+      </c>
+      <c r="S322">
+        <v>1.95</v>
+      </c>
+      <c r="T322">
+        <v>2.75</v>
+      </c>
+      <c r="U322">
+        <v>2.025</v>
+      </c>
+      <c r="V322">
         <v>1.825</v>
-      </c>
-      <c r="S322">
-        <v>2.025</v>
-      </c>
-      <c r="T322">
-        <v>3.25</v>
-      </c>
-      <c r="U322">
-        <v>1.925</v>
-      </c>
-      <c r="V322">
-        <v>1.925</v>
       </c>
       <c r="W322">
         <v>0</v>
@@ -29167,7 +29167,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>7123794</v>
+        <v>7138515</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29179,46 +29179,46 @@
         <v>45387.625</v>
       </c>
       <c r="F323" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G323" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="K323">
+        <v>2.4</v>
+      </c>
+      <c r="L323">
+        <v>3.6</v>
+      </c>
+      <c r="M323">
         <v>2.7</v>
       </c>
-      <c r="L323">
-        <v>3.5</v>
-      </c>
-      <c r="M323">
-        <v>2.45</v>
-      </c>
       <c r="N323">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="O323">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P323">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="Q323">
         <v>0</v>
       </c>
       <c r="R323">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S323">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T323">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U323">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V323">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W323">
         <v>0</v>
@@ -29241,7 +29241,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>7123793</v>
+        <v>7123788</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29253,46 +29253,46 @@
         <v>45387.625</v>
       </c>
       <c r="F324" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G324" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="K324">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="L324">
         <v>3.5</v>
       </c>
       <c r="M324">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="N324">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="O324">
         <v>3.5</v>
       </c>
       <c r="P324">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q324">
         <v>0</v>
       </c>
       <c r="R324">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S324">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T324">
         <v>3.25</v>
       </c>
       <c r="U324">
+        <v>1.875</v>
+      </c>
+      <c r="V324">
         <v>1.975</v>
-      </c>
-      <c r="V324">
-        <v>1.875</v>
       </c>
       <c r="W324">
         <v>0</v>
@@ -29315,7 +29315,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>7123788</v>
+        <v>7123793</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29327,46 +29327,46 @@
         <v>45387.625</v>
       </c>
       <c r="F325" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G325" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="K325">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="L325">
         <v>3.5</v>
       </c>
       <c r="M325">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="N325">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="O325">
         <v>3.5</v>
       </c>
       <c r="P325">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q325">
         <v>0</v>
       </c>
       <c r="R325">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S325">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T325">
         <v>3.25</v>
       </c>
       <c r="U325">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V325">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W325">
         <v>0</v>
@@ -29437,10 +29437,10 @@
         <v>2.75</v>
       </c>
       <c r="U326">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V326">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W326">
         <v>0</v>
@@ -29490,22 +29490,22 @@
         <v>5</v>
       </c>
       <c r="N327">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="O327">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P327">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q327">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R327">
+        <v>2.05</v>
+      </c>
+      <c r="S327">
         <v>1.8</v>
-      </c>
-      <c r="S327">
-        <v>2.05</v>
       </c>
       <c r="T327">
         <v>3</v>
@@ -29537,7 +29537,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>7123797</v>
+        <v>7124989</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29549,46 +29549,46 @@
         <v>45390.625</v>
       </c>
       <c r="F328" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G328" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K328">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="L328">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="M328">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="N328">
-        <v>2.45</v>
+        <v>9.5</v>
       </c>
       <c r="O328">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P328">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="Q328">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R328">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S328">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T328">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U328">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V328">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W328">
         <v>0</v>
@@ -29603,6 +29603,154 @@
         <v>0</v>
       </c>
       <c r="AA328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:27">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>7123796</v>
+      </c>
+      <c r="C329" t="s">
+        <v>28</v>
+      </c>
+      <c r="D329" t="s">
+        <v>28</v>
+      </c>
+      <c r="E329" s="2">
+        <v>45390.625</v>
+      </c>
+      <c r="F329" t="s">
+        <v>46</v>
+      </c>
+      <c r="G329" t="s">
+        <v>32</v>
+      </c>
+      <c r="K329">
+        <v>1.75</v>
+      </c>
+      <c r="L329">
+        <v>3.4</v>
+      </c>
+      <c r="M329">
+        <v>5</v>
+      </c>
+      <c r="N329">
+        <v>1.75</v>
+      </c>
+      <c r="O329">
+        <v>3.4</v>
+      </c>
+      <c r="P329">
+        <v>5</v>
+      </c>
+      <c r="Q329">
+        <v>-0.75</v>
+      </c>
+      <c r="R329">
+        <v>2</v>
+      </c>
+      <c r="S329">
+        <v>1.85</v>
+      </c>
+      <c r="T329">
+        <v>3</v>
+      </c>
+      <c r="U329">
+        <v>1.925</v>
+      </c>
+      <c r="V329">
+        <v>1.925</v>
+      </c>
+      <c r="W329">
+        <v>0</v>
+      </c>
+      <c r="X329">
+        <v>0</v>
+      </c>
+      <c r="Y329">
+        <v>0</v>
+      </c>
+      <c r="Z329">
+        <v>0</v>
+      </c>
+      <c r="AA329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:27">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>7123797</v>
+      </c>
+      <c r="C330" t="s">
+        <v>28</v>
+      </c>
+      <c r="D330" t="s">
+        <v>28</v>
+      </c>
+      <c r="E330" s="2">
+        <v>45390.625</v>
+      </c>
+      <c r="F330" t="s">
+        <v>38</v>
+      </c>
+      <c r="G330" t="s">
+        <v>39</v>
+      </c>
+      <c r="K330">
+        <v>2.5</v>
+      </c>
+      <c r="L330">
+        <v>3.6</v>
+      </c>
+      <c r="M330">
+        <v>2.6</v>
+      </c>
+      <c r="N330">
+        <v>2.45</v>
+      </c>
+      <c r="O330">
+        <v>3.6</v>
+      </c>
+      <c r="P330">
+        <v>2.625</v>
+      </c>
+      <c r="Q330">
+        <v>0</v>
+      </c>
+      <c r="R330">
+        <v>1.85</v>
+      </c>
+      <c r="S330">
+        <v>2</v>
+      </c>
+      <c r="T330">
+        <v>2.75</v>
+      </c>
+      <c r="U330">
+        <v>1.825</v>
+      </c>
+      <c r="V330">
+        <v>2.025</v>
+      </c>
+      <c r="W330">
+        <v>0</v>
+      </c>
+      <c r="X330">
+        <v>0</v>
+      </c>
+      <c r="Y330">
+        <v>0</v>
+      </c>
+      <c r="Z330">
+        <v>0</v>
+      </c>
+      <c r="AA330">
         <v>0</v>
       </c>
     </row>

--- a/Netherlands Eerste Divisie/Netherlands Eerste Divisie.xlsx
+++ b/Netherlands Eerste Divisie/Netherlands Eerste Divisie.xlsx
@@ -13533,7 +13533,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6841996</v>
+        <v>6842350</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13545,40 +13545,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G147" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
         <v>50</v>
       </c>
       <c r="K147">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="L147">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="M147">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="N147">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="O147">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P147">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="Q147">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R147">
         <v>1.825</v>
@@ -13587,16 +13587,16 @@
         <v>2.025</v>
       </c>
       <c r="T147">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U147">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V147">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W147">
-        <v>0.5329999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13605,16 +13605,16 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA147">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13622,7 +13622,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6842350</v>
+        <v>6841996</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13634,40 +13634,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G148" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H148">
+        <v>2</v>
+      </c>
+      <c r="I148">
         <v>1</v>
-      </c>
-      <c r="I148">
-        <v>0</v>
       </c>
       <c r="J148" t="s">
         <v>50</v>
       </c>
       <c r="K148">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="L148">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="M148">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="N148">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="O148">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P148">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="Q148">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R148">
         <v>1.825</v>
@@ -13676,16 +13676,16 @@
         <v>2.025</v>
       </c>
       <c r="T148">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U148">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V148">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W148">
-        <v>0.8</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13694,16 +13694,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC148">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13800,7 +13800,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6842467</v>
+        <v>6842465</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13812,76 +13812,76 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G150" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150">
         <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K150">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="L150">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M150">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="N150">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="O150">
         <v>3.75</v>
       </c>
       <c r="P150">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q150">
         <v>0.25</v>
       </c>
       <c r="R150">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S150">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T150">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U150">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V150">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W150">
         <v>-1</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y150">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA150">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC150">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13978,7 +13978,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6842465</v>
+        <v>6842351</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13990,76 +13990,76 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G152" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H152">
         <v>2</v>
       </c>
       <c r="I152">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K152">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="L152">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="M152">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="N152">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="O152">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P152">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="Q152">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R152">
+        <v>2.025</v>
+      </c>
+      <c r="S152">
         <v>1.825</v>
       </c>
-      <c r="S152">
-        <v>2.025</v>
-      </c>
       <c r="T152">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U152">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V152">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X152">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.4125</v>
+        <v>1.025</v>
       </c>
       <c r="AA152">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14067,7 +14067,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6842351</v>
+        <v>6842467</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14079,76 +14079,76 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F153" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G153" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K153">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="L153">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M153">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="N153">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O153">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P153">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="Q153">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R153">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S153">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T153">
         <v>3</v>
       </c>
       <c r="U153">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V153">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W153">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z153">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC153">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14334,7 +14334,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6842348</v>
+        <v>6842349</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14346,58 +14346,58 @@
         <v>45257.66666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G156" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H156">
+        <v>4</v>
+      </c>
+      <c r="I156">
         <v>1</v>
-      </c>
-      <c r="I156">
-        <v>0</v>
       </c>
       <c r="J156" t="s">
         <v>50</v>
       </c>
       <c r="K156">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="L156">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M156">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="N156">
-        <v>1.3</v>
+        <v>2.55</v>
       </c>
       <c r="O156">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="P156">
-        <v>8.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q156">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R156">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S156">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T156">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U156">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V156">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W156">
-        <v>0.3</v>
+        <v>1.55</v>
       </c>
       <c r="X156">
         <v>-1</v>
@@ -14406,16 +14406,16 @@
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA156">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC156">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14423,7 +14423,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6842349</v>
+        <v>6842348</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14435,58 +14435,58 @@
         <v>45257.66666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G157" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H157">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
         <v>50</v>
       </c>
       <c r="K157">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="L157">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M157">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="N157">
-        <v>2.55</v>
+        <v>1.3</v>
       </c>
       <c r="O157">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="P157">
-        <v>2.55</v>
+        <v>8.5</v>
       </c>
       <c r="Q157">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R157">
+        <v>2</v>
+      </c>
+      <c r="S157">
+        <v>1.85</v>
+      </c>
+      <c r="T157">
+        <v>3.5</v>
+      </c>
+      <c r="U157">
         <v>1.925</v>
       </c>
-      <c r="S157">
+      <c r="V157">
         <v>1.925</v>
       </c>
-      <c r="T157">
-        <v>3</v>
-      </c>
-      <c r="U157">
-        <v>2.025</v>
-      </c>
-      <c r="V157">
-        <v>1.825</v>
-      </c>
       <c r="W157">
-        <v>1.55</v>
+        <v>0.3</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14495,16 +14495,16 @@
         <v>-1</v>
       </c>
       <c r="Z157">
+        <v>-1</v>
+      </c>
+      <c r="AA157">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB157">
+        <v>-1</v>
+      </c>
+      <c r="AC157">
         <v>0.925</v>
-      </c>
-      <c r="AA157">
-        <v>-1</v>
-      </c>
-      <c r="AB157">
-        <v>1.025</v>
-      </c>
-      <c r="AC157">
-        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14868,7 +14868,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6842468</v>
+        <v>7451886</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14880,76 +14880,76 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G162" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H162">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K162">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="L162">
         <v>3.6</v>
       </c>
       <c r="M162">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="N162">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="O162">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P162">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="Q162">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R162">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S162">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T162">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U162">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V162">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W162">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X162">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB162">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14957,7 +14957,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7451886</v>
+        <v>6842468</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14969,76 +14969,76 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G163" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J163" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K163">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="L163">
         <v>3.6</v>
       </c>
       <c r="M163">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="N163">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="O163">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P163">
+        <v>2.15</v>
+      </c>
+      <c r="Q163">
+        <v>0.25</v>
+      </c>
+      <c r="R163">
+        <v>1.95</v>
+      </c>
+      <c r="S163">
+        <v>1.9</v>
+      </c>
+      <c r="T163">
         <v>2.75</v>
       </c>
-      <c r="Q163">
-        <v>0</v>
-      </c>
-      <c r="R163">
-        <v>1.825</v>
-      </c>
-      <c r="S163">
-        <v>2.025</v>
-      </c>
-      <c r="T163">
-        <v>3</v>
-      </c>
       <c r="U163">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V163">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X163">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA163">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC163">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15580,7 +15580,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6842359</v>
+        <v>6842360</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15592,76 +15592,76 @@
         <v>45264.66666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G170" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H170">
         <v>0</v>
       </c>
       <c r="I170">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K170">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="L170">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M170">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="N170">
+        <v>3.1</v>
+      </c>
+      <c r="O170">
         <v>3.5</v>
       </c>
-      <c r="O170">
-        <v>3.75</v>
-      </c>
       <c r="P170">
+        <v>2.25</v>
+      </c>
+      <c r="Q170">
+        <v>0.25</v>
+      </c>
+      <c r="R170">
+        <v>1.9</v>
+      </c>
+      <c r="S170">
         <v>1.95</v>
       </c>
-      <c r="Q170">
-        <v>0.5</v>
-      </c>
-      <c r="R170">
-        <v>1.825</v>
-      </c>
-      <c r="S170">
-        <v>2.025</v>
-      </c>
       <c r="T170">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U170">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V170">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W170">
         <v>-1</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y170">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA170">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB170">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15669,7 +15669,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6842360</v>
+        <v>6842359</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15681,76 +15681,76 @@
         <v>45264.66666666666</v>
       </c>
       <c r="F171" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G171" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H171">
         <v>0</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J171" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K171">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="L171">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M171">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="N171">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O171">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P171">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q171">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R171">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S171">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T171">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U171">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V171">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W171">
         <v>-1</v>
       </c>
       <c r="X171">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z171">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA171">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC171">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15758,7 +15758,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6841541</v>
+        <v>6842363</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15770,76 +15770,76 @@
         <v>45268.66666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G172" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K172">
-        <v>2.25</v>
+        <v>1.285</v>
       </c>
       <c r="L172">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M172">
-        <v>2.75</v>
+        <v>7.5</v>
       </c>
       <c r="N172">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="O172">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P172">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q172">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R172">
+        <v>1.875</v>
+      </c>
+      <c r="S172">
         <v>1.975</v>
       </c>
-      <c r="S172">
+      <c r="T172">
+        <v>3</v>
+      </c>
+      <c r="U172">
+        <v>1.975</v>
+      </c>
+      <c r="V172">
         <v>1.875</v>
       </c>
-      <c r="T172">
-        <v>2.5</v>
-      </c>
-      <c r="U172">
-        <v>1.875</v>
-      </c>
-      <c r="V172">
-        <v>1.975</v>
-      </c>
       <c r="W172">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X172">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA172">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
         <v>-1</v>
       </c>
       <c r="AC172">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15847,7 +15847,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6842363</v>
+        <v>6841541</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15859,76 +15859,76 @@
         <v>45268.66666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G173" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173" t="s">
+        <v>49</v>
+      </c>
+      <c r="K173">
+        <v>2.25</v>
+      </c>
+      <c r="L173">
+        <v>3.5</v>
+      </c>
+      <c r="M173">
+        <v>2.75</v>
+      </c>
+      <c r="N173">
+        <v>2.625</v>
+      </c>
+      <c r="O173">
+        <v>3.6</v>
+      </c>
+      <c r="P173">
+        <v>2.5</v>
+      </c>
+      <c r="Q173">
         <v>0</v>
       </c>
-      <c r="J173" t="s">
-        <v>50</v>
-      </c>
-      <c r="K173">
-        <v>1.285</v>
-      </c>
-      <c r="L173">
-        <v>5.5</v>
-      </c>
-      <c r="M173">
-        <v>7.5</v>
-      </c>
-      <c r="N173">
-        <v>1.333</v>
-      </c>
-      <c r="O173">
-        <v>6</v>
-      </c>
-      <c r="P173">
-        <v>7.5</v>
-      </c>
-      <c r="Q173">
-        <v>-1.5</v>
-      </c>
       <c r="R173">
+        <v>1.975</v>
+      </c>
+      <c r="S173">
         <v>1.875</v>
       </c>
-      <c r="S173">
+      <c r="T173">
+        <v>2.5</v>
+      </c>
+      <c r="U173">
+        <v>1.875</v>
+      </c>
+      <c r="V173">
         <v>1.975</v>
       </c>
-      <c r="T173">
-        <v>3</v>
-      </c>
-      <c r="U173">
-        <v>1.975</v>
-      </c>
-      <c r="V173">
-        <v>1.875</v>
-      </c>
       <c r="W173">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X173">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA173">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB173">
         <v>-1</v>
       </c>
       <c r="AC173">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16025,7 +16025,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6842368</v>
+        <v>6842470</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16037,13 +16037,13 @@
         <v>45268.66666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G175" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I175">
         <v>1</v>
@@ -16052,43 +16052,43 @@
         <v>50</v>
       </c>
       <c r="K175">
-        <v>1.285</v>
+        <v>2</v>
       </c>
       <c r="L175">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M175">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="N175">
-        <v>1.45</v>
+        <v>1.909</v>
       </c>
       <c r="O175">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P175">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q175">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R175">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S175">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T175">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U175">
+        <v>1.975</v>
+      </c>
+      <c r="V175">
         <v>1.875</v>
       </c>
-      <c r="V175">
-        <v>1.975</v>
-      </c>
       <c r="W175">
-        <v>0.45</v>
+        <v>0.909</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16097,16 +16097,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA175">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC175">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16114,7 +16114,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6842470</v>
+        <v>6842368</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16126,13 +16126,13 @@
         <v>45268.66666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G176" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H176">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I176">
         <v>1</v>
@@ -16141,61 +16141,61 @@
         <v>50</v>
       </c>
       <c r="K176">
-        <v>2</v>
+        <v>1.285</v>
       </c>
       <c r="L176">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M176">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="N176">
-        <v>1.909</v>
+        <v>1.45</v>
       </c>
       <c r="O176">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P176">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q176">
+        <v>-1.25</v>
+      </c>
+      <c r="R176">
+        <v>1.95</v>
+      </c>
+      <c r="S176">
+        <v>1.9</v>
+      </c>
+      <c r="T176">
+        <v>3.5</v>
+      </c>
+      <c r="U176">
+        <v>1.875</v>
+      </c>
+      <c r="V176">
+        <v>1.975</v>
+      </c>
+      <c r="W176">
+        <v>0.45</v>
+      </c>
+      <c r="X176">
+        <v>-1</v>
+      </c>
+      <c r="Y176">
+        <v>-1</v>
+      </c>
+      <c r="Z176">
         <v>-0.5</v>
       </c>
-      <c r="R176">
-        <v>1.925</v>
-      </c>
-      <c r="S176">
-        <v>1.925</v>
-      </c>
-      <c r="T176">
-        <v>3.25</v>
-      </c>
-      <c r="U176">
-        <v>1.975</v>
-      </c>
-      <c r="V176">
-        <v>1.875</v>
-      </c>
-      <c r="W176">
-        <v>0.909</v>
-      </c>
-      <c r="X176">
-        <v>-1</v>
-      </c>
-      <c r="Y176">
-        <v>-1</v>
-      </c>
-      <c r="Z176">
-        <v>0.925</v>
-      </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB176">
+        <v>-1</v>
+      </c>
+      <c r="AC176">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC176">
-        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16203,7 +16203,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6842361</v>
+        <v>6842362</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16215,76 +16215,76 @@
         <v>45268.66666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G177" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H177">
+        <v>1</v>
+      </c>
+      <c r="I177">
+        <v>2</v>
+      </c>
+      <c r="J177" t="s">
+        <v>51</v>
+      </c>
+      <c r="K177">
+        <v>1.8</v>
+      </c>
+      <c r="L177">
+        <v>3.6</v>
+      </c>
+      <c r="M177">
+        <v>3.9</v>
+      </c>
+      <c r="N177">
+        <v>1.8</v>
+      </c>
+      <c r="O177">
+        <v>3.8</v>
+      </c>
+      <c r="P177">
+        <v>4.2</v>
+      </c>
+      <c r="Q177">
+        <v>-0.75</v>
+      </c>
+      <c r="R177">
+        <v>2.025</v>
+      </c>
+      <c r="S177">
+        <v>1.825</v>
+      </c>
+      <c r="T177">
         <v>3</v>
       </c>
-      <c r="I177">
-        <v>2</v>
-      </c>
-      <c r="J177" t="s">
-        <v>50</v>
-      </c>
-      <c r="K177">
-        <v>2.75</v>
-      </c>
-      <c r="L177">
-        <v>3.5</v>
-      </c>
-      <c r="M177">
-        <v>2.25</v>
-      </c>
-      <c r="N177">
-        <v>3.1</v>
-      </c>
-      <c r="O177">
-        <v>3.75</v>
-      </c>
-      <c r="P177">
-        <v>2.15</v>
-      </c>
-      <c r="Q177">
-        <v>0.25</v>
-      </c>
-      <c r="R177">
-        <v>1.95</v>
-      </c>
-      <c r="S177">
-        <v>1.9</v>
-      </c>
-      <c r="T177">
-        <v>2.5</v>
-      </c>
       <c r="U177">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V177">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W177">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z177">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB177">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16292,7 +16292,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6841998</v>
+        <v>6842361</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16304,58 +16304,58 @@
         <v>45268.66666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G178" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J178" t="s">
         <v>50</v>
       </c>
       <c r="K178">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L178">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M178">
-        <v>7.5</v>
+        <v>2.25</v>
       </c>
       <c r="N178">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="O178">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P178">
-        <v>11</v>
+        <v>2.15</v>
       </c>
       <c r="Q178">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R178">
+        <v>1.95</v>
+      </c>
+      <c r="S178">
         <v>1.9</v>
       </c>
-      <c r="S178">
+      <c r="T178">
+        <v>2.5</v>
+      </c>
+      <c r="U178">
+        <v>1.9</v>
+      </c>
+      <c r="V178">
         <v>1.95</v>
       </c>
-      <c r="T178">
-        <v>3</v>
-      </c>
-      <c r="U178">
-        <v>2.025</v>
-      </c>
-      <c r="V178">
-        <v>1.825</v>
-      </c>
       <c r="W178">
-        <v>0.3</v>
+        <v>2.1</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16364,16 +16364,16 @@
         <v>-1</v>
       </c>
       <c r="Z178">
+        <v>0.95</v>
+      </c>
+      <c r="AA178">
+        <v>-1</v>
+      </c>
+      <c r="AB178">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA178">
-        <v>-1</v>
-      </c>
-      <c r="AB178">
-        <v>-1</v>
-      </c>
       <c r="AC178">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16381,7 +16381,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6842362</v>
+        <v>6841998</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16393,76 +16393,76 @@
         <v>45268.66666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G179" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K179">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L179">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M179">
-        <v>3.9</v>
+        <v>7.5</v>
       </c>
       <c r="N179">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="O179">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P179">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="Q179">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R179">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S179">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T179">
         <v>3</v>
       </c>
       <c r="U179">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V179">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA179">
+        <v>-1</v>
+      </c>
+      <c r="AB179">
+        <v>-1</v>
+      </c>
+      <c r="AC179">
         <v>0.825</v>
-      </c>
-      <c r="AB179">
-        <v>0</v>
-      </c>
-      <c r="AC179">
-        <v>-0</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -17182,7 +17182,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6842474</v>
+        <v>6842372</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17194,73 +17194,73 @@
         <v>45275.66666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G188" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H188">
         <v>2</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J188" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K188">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="L188">
         <v>3.4</v>
       </c>
       <c r="M188">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N188">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="O188">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P188">
+        <v>2.7</v>
+      </c>
+      <c r="Q188">
+        <v>0</v>
+      </c>
+      <c r="R188">
+        <v>1.95</v>
+      </c>
+      <c r="S188">
+        <v>1.9</v>
+      </c>
+      <c r="T188">
+        <v>2.25</v>
+      </c>
+      <c r="U188">
+        <v>1.8</v>
+      </c>
+      <c r="V188">
         <v>2.05</v>
       </c>
-      <c r="Q188">
-        <v>0.5</v>
-      </c>
-      <c r="R188">
-        <v>1.825</v>
-      </c>
-      <c r="S188">
-        <v>2.025</v>
-      </c>
-      <c r="T188">
-        <v>2.5</v>
-      </c>
-      <c r="U188">
-        <v>1.95</v>
-      </c>
-      <c r="V188">
-        <v>1.9</v>
-      </c>
       <c r="W188">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z188">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB188">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC188">
         <v>-1</v>
@@ -17271,7 +17271,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6842372</v>
+        <v>6842371</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17283,76 +17283,76 @@
         <v>45275.66666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G189" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
         <v>51</v>
       </c>
       <c r="K189">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="L189">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M189">
+        <v>3</v>
+      </c>
+      <c r="N189">
+        <v>2.05</v>
+      </c>
+      <c r="O189">
+        <v>3.6</v>
+      </c>
+      <c r="P189">
+        <v>3.5</v>
+      </c>
+      <c r="Q189">
+        <v>-0.25</v>
+      </c>
+      <c r="R189">
+        <v>1.8</v>
+      </c>
+      <c r="S189">
+        <v>2.05</v>
+      </c>
+      <c r="T189">
+        <v>3</v>
+      </c>
+      <c r="U189">
+        <v>2</v>
+      </c>
+      <c r="V189">
+        <v>1.85</v>
+      </c>
+      <c r="W189">
+        <v>-1</v>
+      </c>
+      <c r="X189">
+        <v>-1</v>
+      </c>
+      <c r="Y189">
         <v>2.5</v>
       </c>
-      <c r="N189">
-        <v>2.75</v>
-      </c>
-      <c r="O189">
-        <v>3.2</v>
-      </c>
-      <c r="P189">
-        <v>2.7</v>
-      </c>
-      <c r="Q189">
-        <v>0</v>
-      </c>
-      <c r="R189">
-        <v>1.95</v>
-      </c>
-      <c r="S189">
-        <v>1.9</v>
-      </c>
-      <c r="T189">
-        <v>2.25</v>
-      </c>
-      <c r="U189">
-        <v>1.8</v>
-      </c>
-      <c r="V189">
-        <v>2.05</v>
-      </c>
-      <c r="W189">
-        <v>-1</v>
-      </c>
-      <c r="X189">
-        <v>-1</v>
-      </c>
-      <c r="Y189">
-        <v>1.7</v>
-      </c>
       <c r="Z189">
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB189">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC189">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17360,7 +17360,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6842371</v>
+        <v>6841999</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17372,40 +17372,40 @@
         <v>45275.66666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G190" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I190">
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K190">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="L190">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M190">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="N190">
-        <v>2.05</v>
+        <v>5.75</v>
       </c>
       <c r="O190">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P190">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q190">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R190">
         <v>1.8</v>
@@ -17417,31 +17417,31 @@
         <v>3</v>
       </c>
       <c r="U190">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V190">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W190">
         <v>-1</v>
       </c>
       <c r="X190">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y190">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA190">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
         <v>-1</v>
       </c>
       <c r="AC190">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17449,7 +17449,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6841999</v>
+        <v>6842474</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17461,49 +17461,49 @@
         <v>45275.66666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G191" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191">
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K191">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="L191">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M191">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="N191">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="O191">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P191">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q191">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R191">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S191">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T191">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U191">
         <v>1.95</v>
@@ -17512,25 +17512,25 @@
         <v>1.9</v>
       </c>
       <c r="W191">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X191">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y191">
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA191">
         <v>-1</v>
       </c>
       <c r="AB191">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC191">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17538,7 +17538,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6842479</v>
+        <v>6842478</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17550,13 +17550,13 @@
         <v>45282.66666666666</v>
       </c>
       <c r="F192" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G192" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I192">
         <v>1</v>
@@ -17565,43 +17565,43 @@
         <v>50</v>
       </c>
       <c r="K192">
+        <v>3.5</v>
+      </c>
+      <c r="L192">
+        <v>3.75</v>
+      </c>
+      <c r="M192">
         <v>1.75</v>
       </c>
-      <c r="L192">
-        <v>3.6</v>
-      </c>
-      <c r="M192">
-        <v>3.6</v>
-      </c>
       <c r="N192">
-        <v>1.833</v>
+        <v>3.75</v>
       </c>
       <c r="O192">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P192">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="Q192">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R192">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S192">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T192">
         <v>2.75</v>
       </c>
       <c r="U192">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V192">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W192">
-        <v>0.833</v>
+        <v>2.75</v>
       </c>
       <c r="X192">
         <v>-1</v>
@@ -17610,16 +17610,16 @@
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA192">
         <v>-1</v>
       </c>
       <c r="AB192">
-        <v>0.5125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC192">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17627,7 +17627,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6841543</v>
+        <v>6842375</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17639,76 +17639,76 @@
         <v>45282.66666666666</v>
       </c>
       <c r="F193" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G193" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J193" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K193">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="L193">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M193">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N193">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="O193">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P193">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="Q193">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R193">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S193">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T193">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U193">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V193">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W193">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X193">
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z193">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA193">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB193">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC193">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17716,7 +17716,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6842375</v>
+        <v>6842000</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17728,58 +17728,58 @@
         <v>45282.66666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G194" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H194">
         <v>2</v>
       </c>
       <c r="I194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J194" t="s">
         <v>50</v>
       </c>
       <c r="K194">
-        <v>1.666</v>
+        <v>1.2</v>
       </c>
       <c r="L194">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="M194">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N194">
-        <v>1.65</v>
+        <v>1.181</v>
       </c>
       <c r="O194">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="P194">
-        <v>5.25</v>
+        <v>13</v>
       </c>
       <c r="Q194">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R194">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S194">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T194">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U194">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V194">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W194">
-        <v>0.6499999999999999</v>
+        <v>0.181</v>
       </c>
       <c r="X194">
         <v>-1</v>
@@ -17788,16 +17788,16 @@
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB194">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC194">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17805,7 +17805,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6842478</v>
+        <v>6841543</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17817,73 +17817,73 @@
         <v>45282.66666666666</v>
       </c>
       <c r="F195" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G195" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H195">
+        <v>1</v>
+      </c>
+      <c r="I195">
+        <v>2</v>
+      </c>
+      <c r="J195" t="s">
+        <v>51</v>
+      </c>
+      <c r="K195">
+        <v>2.3</v>
+      </c>
+      <c r="L195">
+        <v>3.3</v>
+      </c>
+      <c r="M195">
+        <v>2.625</v>
+      </c>
+      <c r="N195">
+        <v>2.4</v>
+      </c>
+      <c r="O195">
+        <v>3.25</v>
+      </c>
+      <c r="P195">
         <v>3</v>
       </c>
-      <c r="I195">
-        <v>1</v>
-      </c>
-      <c r="J195" t="s">
-        <v>50</v>
-      </c>
-      <c r="K195">
-        <v>3.5</v>
-      </c>
-      <c r="L195">
-        <v>3.75</v>
-      </c>
-      <c r="M195">
-        <v>1.75</v>
-      </c>
-      <c r="N195">
-        <v>3.75</v>
-      </c>
-      <c r="O195">
-        <v>3.8</v>
-      </c>
-      <c r="P195">
-        <v>1.909</v>
-      </c>
       <c r="Q195">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R195">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S195">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T195">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U195">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V195">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W195">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z195">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB195">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC195">
         <v>-1</v>
@@ -17894,7 +17894,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6842000</v>
+        <v>6842479</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17906,10 +17906,10 @@
         <v>45282.66666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G196" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H196">
         <v>2</v>
@@ -17921,43 +17921,43 @@
         <v>50</v>
       </c>
       <c r="K196">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="L196">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="M196">
-        <v>10</v>
+        <v>3.6</v>
       </c>
       <c r="N196">
-        <v>1.181</v>
+        <v>1.833</v>
       </c>
       <c r="O196">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="P196">
-        <v>13</v>
+        <v>4.333</v>
       </c>
       <c r="Q196">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R196">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S196">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T196">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U196">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V196">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W196">
-        <v>0.181</v>
+        <v>0.833</v>
       </c>
       <c r="X196">
         <v>-1</v>
@@ -17966,16 +17966,16 @@
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA196">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
+        <v>0.5125</v>
+      </c>
+      <c r="AC196">
         <v>-0.5</v>
-      </c>
-      <c r="AC196">
-        <v>0.4375</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -19585,7 +19585,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7711428</v>
+        <v>6842488</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19597,58 +19597,58 @@
         <v>45313.66666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G215" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H215">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
         <v>50</v>
       </c>
       <c r="K215">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="L215">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M215">
-        <v>5.25</v>
+        <v>2.35</v>
       </c>
       <c r="N215">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="O215">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P215">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q215">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R215">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S215">
+        <v>2</v>
+      </c>
+      <c r="T215">
+        <v>2.75</v>
+      </c>
+      <c r="U215">
+        <v>2</v>
+      </c>
+      <c r="V215">
         <v>1.85</v>
       </c>
-      <c r="T215">
-        <v>3</v>
-      </c>
-      <c r="U215">
-        <v>2.025</v>
-      </c>
-      <c r="V215">
-        <v>1.825</v>
-      </c>
       <c r="W215">
-        <v>0.615</v>
+        <v>2</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19657,16 +19657,16 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA215">
         <v>-1</v>
       </c>
       <c r="AB215">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AC215">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19674,7 +19674,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6842488</v>
+        <v>6842489</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19686,13 +19686,13 @@
         <v>45313.66666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G216" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I216">
         <v>1</v>
@@ -19701,43 +19701,43 @@
         <v>50</v>
       </c>
       <c r="K216">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L216">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M216">
-        <v>2.35</v>
+        <v>2.9</v>
       </c>
       <c r="N216">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O216">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P216">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q216">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R216">
+        <v>2</v>
+      </c>
+      <c r="S216">
         <v>1.85</v>
       </c>
-      <c r="S216">
-        <v>2</v>
-      </c>
       <c r="T216">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U216">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V216">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W216">
-        <v>2</v>
+        <v>1.05</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -19746,16 +19746,16 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA216">
         <v>-1</v>
       </c>
       <c r="AB216">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC216">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19763,7 +19763,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6842489</v>
+        <v>7706895</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19775,58 +19775,58 @@
         <v>45313.66666666666</v>
       </c>
       <c r="F217" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G217" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H217">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J217" t="s">
         <v>50</v>
       </c>
       <c r="K217">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="L217">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M217">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="N217">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="O217">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P217">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q217">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R217">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S217">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T217">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U217">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V217">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W217">
-        <v>1.05</v>
+        <v>0.7</v>
       </c>
       <c r="X217">
         <v>-1</v>
@@ -19835,13 +19835,13 @@
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA217">
         <v>-1</v>
       </c>
       <c r="AB217">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC217">
         <v>-1</v>
@@ -19852,7 +19852,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7622839</v>
+        <v>7711428</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19864,76 +19864,76 @@
         <v>45313.66666666666</v>
       </c>
       <c r="F218" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G218" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H218">
+        <v>3</v>
+      </c>
+      <c r="I218">
         <v>0</v>
       </c>
-      <c r="I218">
+      <c r="J218" t="s">
+        <v>50</v>
+      </c>
+      <c r="K218">
+        <v>1.571</v>
+      </c>
+      <c r="L218">
+        <v>4.2</v>
+      </c>
+      <c r="M218">
+        <v>5.25</v>
+      </c>
+      <c r="N218">
+        <v>1.615</v>
+      </c>
+      <c r="O218">
+        <v>4.2</v>
+      </c>
+      <c r="P218">
+        <v>5.25</v>
+      </c>
+      <c r="Q218">
+        <v>-1</v>
+      </c>
+      <c r="R218">
+        <v>2</v>
+      </c>
+      <c r="S218">
+        <v>1.85</v>
+      </c>
+      <c r="T218">
+        <v>3</v>
+      </c>
+      <c r="U218">
+        <v>2.025</v>
+      </c>
+      <c r="V218">
+        <v>1.825</v>
+      </c>
+      <c r="W218">
+        <v>0.615</v>
+      </c>
+      <c r="X218">
+        <v>-1</v>
+      </c>
+      <c r="Y218">
+        <v>-1</v>
+      </c>
+      <c r="Z218">
         <v>1</v>
       </c>
-      <c r="J218" t="s">
-        <v>51</v>
-      </c>
-      <c r="K218">
-        <v>3.75</v>
-      </c>
-      <c r="L218">
-        <v>3.75</v>
-      </c>
-      <c r="M218">
-        <v>1.833</v>
-      </c>
-      <c r="N218">
-        <v>4.5</v>
-      </c>
-      <c r="O218">
-        <v>4</v>
-      </c>
-      <c r="P218">
-        <v>1.7</v>
-      </c>
-      <c r="Q218">
-        <v>0.75</v>
-      </c>
-      <c r="R218">
-        <v>1.975</v>
-      </c>
-      <c r="S218">
-        <v>1.875</v>
-      </c>
-      <c r="T218">
-        <v>3.25</v>
-      </c>
-      <c r="U218">
-        <v>1.9</v>
-      </c>
-      <c r="V218">
-        <v>1.95</v>
-      </c>
-      <c r="W218">
-        <v>-1</v>
-      </c>
-      <c r="X218">
-        <v>-1</v>
-      </c>
-      <c r="Y218">
-        <v>0.7</v>
-      </c>
-      <c r="Z218">
-        <v>-0.5</v>
-      </c>
       <c r="AA218">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB218">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC218">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19941,7 +19941,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7706895</v>
+        <v>7622839</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19953,76 +19953,76 @@
         <v>45313.66666666666</v>
       </c>
       <c r="F219" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G219" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H219">
+        <v>0</v>
+      </c>
+      <c r="I219">
+        <v>1</v>
+      </c>
+      <c r="J219" t="s">
+        <v>51</v>
+      </c>
+      <c r="K219">
+        <v>3.75</v>
+      </c>
+      <c r="L219">
+        <v>3.75</v>
+      </c>
+      <c r="M219">
+        <v>1.833</v>
+      </c>
+      <c r="N219">
+        <v>4.5</v>
+      </c>
+      <c r="O219">
         <v>4</v>
       </c>
-      <c r="I219">
-        <v>2</v>
-      </c>
-      <c r="J219" t="s">
-        <v>50</v>
-      </c>
-      <c r="K219">
-        <v>1.533</v>
-      </c>
-      <c r="L219">
-        <v>4.333</v>
-      </c>
-      <c r="M219">
-        <v>5.5</v>
-      </c>
-      <c r="N219">
+      <c r="P219">
         <v>1.7</v>
       </c>
-      <c r="O219">
-        <v>4.333</v>
-      </c>
-      <c r="P219">
-        <v>4.2</v>
-      </c>
       <c r="Q219">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R219">
+        <v>1.975</v>
+      </c>
+      <c r="S219">
         <v>1.875</v>
       </c>
-      <c r="S219">
-        <v>1.975</v>
-      </c>
       <c r="T219">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U219">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V219">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W219">
+        <v>-1</v>
+      </c>
+      <c r="X219">
+        <v>-1</v>
+      </c>
+      <c r="Y219">
         <v>0.7</v>
       </c>
-      <c r="X219">
-        <v>-1</v>
-      </c>
-      <c r="Y219">
-        <v>-1</v>
-      </c>
       <c r="Z219">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA219">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB219">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC219">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20030,7 +20030,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6842490</v>
+        <v>6842390</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20042,76 +20042,76 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F220" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G220" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H220">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220">
         <v>0</v>
       </c>
       <c r="J220" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K220">
-        <v>1.727</v>
+        <v>1.222</v>
       </c>
       <c r="L220">
-        <v>3.9</v>
+        <v>6</v>
       </c>
       <c r="M220">
-        <v>4.5</v>
+        <v>15</v>
       </c>
       <c r="N220">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="O220">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P220">
-        <v>4.333</v>
+        <v>7.5</v>
       </c>
       <c r="Q220">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R220">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S220">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T220">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U220">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V220">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W220">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X220">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y220">
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB220">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC220">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20119,7 +20119,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6842390</v>
+        <v>6842491</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20131,76 +20131,76 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G221" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I221">
         <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K221">
-        <v>1.222</v>
+        <v>1.727</v>
       </c>
       <c r="L221">
-        <v>6</v>
+        <v>3.9</v>
       </c>
       <c r="M221">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="N221">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="O221">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P221">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q221">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R221">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S221">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T221">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U221">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V221">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X221">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA221">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC221">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20208,7 +20208,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6842491</v>
+        <v>6842490</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20220,10 +20220,10 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G222" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H222">
         <v>3</v>
@@ -20244,34 +20244,34 @@
         <v>4.5</v>
       </c>
       <c r="N222">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O222">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P222">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q222">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R222">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S222">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T222">
         <v>3</v>
       </c>
       <c r="U222">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V222">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W222">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="X222">
         <v>-1</v>
@@ -20280,7 +20280,7 @@
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA222">
         <v>-1</v>
@@ -20297,7 +20297,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6842492</v>
+        <v>6842003</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20309,76 +20309,76 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F223" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G223" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K223">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="L223">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="M223">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N223">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="O223">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="P223">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q223">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R223">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S223">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T223">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U223">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V223">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W223">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X223">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y223">
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA223">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB223">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC223">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20386,7 +20386,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6842003</v>
+        <v>6842492</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20398,76 +20398,76 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F224" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G224" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H224">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K224">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="L224">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="M224">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N224">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O224">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P224">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q224">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R224">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S224">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T224">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U224">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V224">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W224">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X224">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA224">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB224">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC224">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20653,7 +20653,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6842391</v>
+        <v>6842493</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20665,49 +20665,49 @@
         <v>45320.66666666666</v>
       </c>
       <c r="F227" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G227" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227">
         <v>2</v>
       </c>
       <c r="J227" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K227">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="L227">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M227">
-        <v>2.6</v>
+        <v>11</v>
       </c>
       <c r="N227">
-        <v>2.1</v>
+        <v>1.285</v>
       </c>
       <c r="O227">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P227">
-        <v>3</v>
+        <v>9.5</v>
       </c>
       <c r="Q227">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R227">
+        <v>1.95</v>
+      </c>
+      <c r="S227">
         <v>1.9</v>
       </c>
-      <c r="S227">
-        <v>1.95</v>
-      </c>
       <c r="T227">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U227">
         <v>1.875</v>
@@ -20719,22 +20719,22 @@
         <v>-1</v>
       </c>
       <c r="X227">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y227">
-        <v>-1</v>
+        <v>8.5</v>
       </c>
       <c r="Z227">
+        <v>-1</v>
+      </c>
+      <c r="AA227">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB227">
         <v>-0.5</v>
       </c>
-      <c r="AA227">
-        <v>0.475</v>
-      </c>
-      <c r="AB227">
-        <v>0.875</v>
-      </c>
       <c r="AC227">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20742,7 +20742,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6842493</v>
+        <v>6841546</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20754,76 +20754,76 @@
         <v>45320.66666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G228" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H228">
         <v>1</v>
       </c>
       <c r="I228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J228" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K228">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="L228">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="M228">
-        <v>11</v>
+        <v>1.6</v>
       </c>
       <c r="N228">
-        <v>1.285</v>
+        <v>5.5</v>
       </c>
       <c r="O228">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P228">
-        <v>9.5</v>
+        <v>1.571</v>
       </c>
       <c r="Q228">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="R228">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S228">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T228">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U228">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V228">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W228">
         <v>-1</v>
       </c>
       <c r="X228">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y228">
-        <v>8.5</v>
+        <v>-1</v>
       </c>
       <c r="Z228">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA228">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB228">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC228">
-        <v>0.4875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20831,7 +20831,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6841546</v>
+        <v>6842391</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20843,76 +20843,76 @@
         <v>45320.66666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G229" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J229" t="s">
         <v>49</v>
       </c>
       <c r="K229">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="L229">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M229">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="N229">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="O229">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P229">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="Q229">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R229">
+        <v>1.9</v>
+      </c>
+      <c r="S229">
+        <v>1.95</v>
+      </c>
+      <c r="T229">
+        <v>3.5</v>
+      </c>
+      <c r="U229">
         <v>1.875</v>
       </c>
-      <c r="S229">
+      <c r="V229">
         <v>1.975</v>
       </c>
-      <c r="T229">
+      <c r="W229">
+        <v>-1</v>
+      </c>
+      <c r="X229">
         <v>3</v>
       </c>
-      <c r="U229">
-        <v>1.825</v>
-      </c>
-      <c r="V229">
-        <v>2.025</v>
-      </c>
-      <c r="W229">
-        <v>-1</v>
-      </c>
-      <c r="X229">
-        <v>3.333</v>
-      </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
+        <v>-0.5</v>
+      </c>
+      <c r="AA229">
+        <v>0.475</v>
+      </c>
+      <c r="AB229">
         <v>0.875</v>
       </c>
-      <c r="AA229">
-        <v>-1</v>
-      </c>
-      <c r="AB229">
-        <v>-1</v>
-      </c>
       <c r="AC229">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -21899,7 +21899,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6842498</v>
+        <v>6842399</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21911,58 +21911,58 @@
         <v>45331.66666666666</v>
       </c>
       <c r="F241" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G241" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H241">
         <v>3</v>
       </c>
       <c r="I241">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J241" t="s">
         <v>50</v>
       </c>
       <c r="K241">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="L241">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="M241">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="N241">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="O241">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P241">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="Q241">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R241">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S241">
         <v>2.05</v>
       </c>
       <c r="T241">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U241">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V241">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W241">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="X241">
         <v>-1</v>
@@ -21971,16 +21971,16 @@
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA241">
         <v>-1</v>
       </c>
       <c r="AB241">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC241">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -22166,7 +22166,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6842399</v>
+        <v>6842498</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22178,58 +22178,58 @@
         <v>45331.66666666666</v>
       </c>
       <c r="F244" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G244" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H244">
         <v>3</v>
       </c>
       <c r="I244">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J244" t="s">
         <v>50</v>
       </c>
       <c r="K244">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="L244">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="M244">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="N244">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="O244">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P244">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="Q244">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R244">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S244">
         <v>2.05</v>
       </c>
       <c r="T244">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U244">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V244">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W244">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="X244">
         <v>-1</v>
@@ -22238,16 +22238,16 @@
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA244">
         <v>-1</v>
       </c>
       <c r="AB244">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC244">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22789,7 +22789,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6842501</v>
+        <v>6842404</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22801,76 +22801,76 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F251" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G251" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H251">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I251">
         <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K251">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="L251">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M251">
+        <v>2</v>
+      </c>
+      <c r="N251">
+        <v>3.3</v>
+      </c>
+      <c r="O251">
+        <v>3.6</v>
+      </c>
+      <c r="P251">
+        <v>2.1</v>
+      </c>
+      <c r="Q251">
+        <v>0.25</v>
+      </c>
+      <c r="R251">
+        <v>2.025</v>
+      </c>
+      <c r="S251">
+        <v>1.825</v>
+      </c>
+      <c r="T251">
         <v>2.5</v>
       </c>
-      <c r="N251">
-        <v>3.6</v>
-      </c>
-      <c r="O251">
-        <v>3.75</v>
-      </c>
-      <c r="P251">
-        <v>1.95</v>
-      </c>
-      <c r="Q251">
-        <v>0.5</v>
-      </c>
-      <c r="R251">
-        <v>1.875</v>
-      </c>
-      <c r="S251">
-        <v>1.975</v>
-      </c>
-      <c r="T251">
-        <v>3</v>
-      </c>
       <c r="U251">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V251">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W251">
+        <v>-1</v>
+      </c>
+      <c r="X251">
         <v>2.6</v>
       </c>
-      <c r="X251">
-        <v>-1</v>
-      </c>
       <c r="Y251">
         <v>-1</v>
       </c>
       <c r="Z251">
-        <v>0.875</v>
+        <v>0.5125</v>
       </c>
       <c r="AA251">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB251">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC251">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22878,7 +22878,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6842405</v>
+        <v>6842501</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22890,58 +22890,58 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F252" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G252" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H252">
         <v>3</v>
       </c>
       <c r="I252">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J252" t="s">
         <v>50</v>
       </c>
       <c r="K252">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="L252">
+        <v>3.4</v>
+      </c>
+      <c r="M252">
+        <v>2.5</v>
+      </c>
+      <c r="N252">
+        <v>3.6</v>
+      </c>
+      <c r="O252">
         <v>3.75</v>
       </c>
-      <c r="M252">
-        <v>3.6</v>
-      </c>
-      <c r="N252">
-        <v>1.8</v>
-      </c>
-      <c r="O252">
-        <v>3.8</v>
-      </c>
       <c r="P252">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="Q252">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R252">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S252">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T252">
         <v>3</v>
       </c>
       <c r="U252">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V252">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W252">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="X252">
         <v>-1</v>
@@ -22950,13 +22950,13 @@
         <v>-1</v>
       </c>
       <c r="Z252">
-        <v>0.5125</v>
+        <v>0.875</v>
       </c>
       <c r="AA252">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB252">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC252">
         <v>-1</v>
@@ -22967,7 +22967,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6842404</v>
+        <v>6842403</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22979,49 +22979,49 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F253" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G253" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I253">
         <v>1</v>
       </c>
       <c r="J253" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K253">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="L253">
         <v>3.75</v>
       </c>
       <c r="M253">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N253">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O253">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P253">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q253">
         <v>0.25</v>
       </c>
       <c r="R253">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S253">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T253">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U253">
         <v>1.825</v>
@@ -23030,25 +23030,25 @@
         <v>2.025</v>
       </c>
       <c r="W253">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X253">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y253">
         <v>-1</v>
       </c>
       <c r="Z253">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA253">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB253">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC253">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="254" spans="1:29">
@@ -23145,7 +23145,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6842402</v>
+        <v>6842405</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23157,73 +23157,73 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F255" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G255" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I255">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J255" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K255">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="L255">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M255">
-        <v>10</v>
+        <v>3.6</v>
       </c>
       <c r="N255">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="O255">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P255">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q255">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R255">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S255">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T255">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U255">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V255">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W255">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X255">
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z255">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA255">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB255">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC255">
         <v>-1</v>
@@ -23234,7 +23234,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6842403</v>
+        <v>6842402</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23246,49 +23246,49 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F256" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G256" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H256">
         <v>2</v>
       </c>
       <c r="I256">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J256" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K256">
-        <v>2.8</v>
+        <v>1.25</v>
       </c>
       <c r="L256">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M256">
-        <v>2.25</v>
+        <v>10</v>
       </c>
       <c r="N256">
-        <v>3.2</v>
+        <v>1.444</v>
       </c>
       <c r="O256">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P256">
-        <v>2.05</v>
+        <v>5.75</v>
       </c>
       <c r="Q256">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R256">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S256">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T256">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U256">
         <v>1.825</v>
@@ -23297,25 +23297,25 @@
         <v>2.025</v>
       </c>
       <c r="W256">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X256">
         <v>-1</v>
       </c>
       <c r="Y256">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z256">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA256">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB256">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC256">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -23679,7 +23679,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>6841550</v>
+        <v>6842503</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23691,46 +23691,46 @@
         <v>45345.66666666666</v>
       </c>
       <c r="F261" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G261" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H261">
         <v>2</v>
       </c>
       <c r="I261">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J261" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K261">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="L261">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M261">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N261">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="O261">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P261">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q261">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R261">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S261">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T261">
         <v>3</v>
@@ -23742,25 +23742,25 @@
         <v>1.85</v>
       </c>
       <c r="W261">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X261">
         <v>-1</v>
       </c>
       <c r="Y261">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z261">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA261">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB261">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC261">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -23768,7 +23768,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6842007</v>
+        <v>6842407</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23780,61 +23780,61 @@
         <v>45345.66666666666</v>
       </c>
       <c r="F262" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G262" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J262" t="s">
         <v>49</v>
       </c>
       <c r="K262">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L262">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M262">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="N262">
-        <v>1.4</v>
+        <v>1.285</v>
       </c>
       <c r="O262">
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="P262">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Q262">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R262">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S262">
+        <v>2.025</v>
+      </c>
+      <c r="T262">
+        <v>3.75</v>
+      </c>
+      <c r="U262">
+        <v>2</v>
+      </c>
+      <c r="V262">
         <v>1.85</v>
       </c>
-      <c r="T262">
-        <v>3</v>
-      </c>
-      <c r="U262">
-        <v>1.975</v>
-      </c>
-      <c r="V262">
-        <v>1.875</v>
-      </c>
       <c r="W262">
         <v>-1</v>
       </c>
       <c r="X262">
-        <v>4.25</v>
+        <v>6</v>
       </c>
       <c r="Y262">
         <v>-1</v>
@@ -23843,13 +23843,13 @@
         <v>-1</v>
       </c>
       <c r="AA262">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB262">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC262">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23857,7 +23857,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6842407</v>
+        <v>6842504</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23869,10 +23869,10 @@
         <v>45345.66666666666</v>
       </c>
       <c r="F263" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G263" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H263">
         <v>2</v>
@@ -23884,34 +23884,34 @@
         <v>49</v>
       </c>
       <c r="K263">
-        <v>1.6</v>
+        <v>1.833</v>
       </c>
       <c r="L263">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M263">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N263">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="O263">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="P263">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="Q263">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R263">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S263">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T263">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U263">
         <v>2</v>
@@ -23923,7 +23923,7 @@
         <v>-1</v>
       </c>
       <c r="X263">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="Y263">
         <v>-1</v>
@@ -23932,13 +23932,13 @@
         <v>-1</v>
       </c>
       <c r="AA263">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB263">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AC263">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23946,7 +23946,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6842503</v>
+        <v>6841550</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23958,46 +23958,46 @@
         <v>45345.66666666666</v>
       </c>
       <c r="F264" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G264" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H264">
         <v>2</v>
       </c>
       <c r="I264">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J264" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K264">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="L264">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M264">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N264">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="O264">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P264">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q264">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R264">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S264">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T264">
         <v>3</v>
@@ -24009,25 +24009,25 @@
         <v>1.85</v>
       </c>
       <c r="W264">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X264">
         <v>-1</v>
       </c>
       <c r="Y264">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z264">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA264">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB264">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC264">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24035,7 +24035,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6842504</v>
+        <v>6842007</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24047,40 +24047,40 @@
         <v>45345.66666666666</v>
       </c>
       <c r="F265" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G265" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J265" t="s">
         <v>49</v>
       </c>
       <c r="K265">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="L265">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M265">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N265">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="O265">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P265">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q265">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R265">
         <v>2</v>
@@ -24089,19 +24089,19 @@
         <v>1.85</v>
       </c>
       <c r="T265">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U265">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V265">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W265">
         <v>-1</v>
       </c>
       <c r="X265">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="Y265">
         <v>-1</v>
@@ -24113,10 +24113,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB265">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC265">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24658,7 +24658,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>6922061</v>
+        <v>6865522</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24670,76 +24670,76 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F272" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G272" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J272" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K272">
+        <v>3.75</v>
+      </c>
+      <c r="L272">
+        <v>3.5</v>
+      </c>
+      <c r="M272">
+        <v>1.833</v>
+      </c>
+      <c r="N272">
         <v>3.1</v>
-      </c>
-      <c r="L272">
-        <v>3.4</v>
-      </c>
-      <c r="M272">
-        <v>2.15</v>
-      </c>
-      <c r="N272">
-        <v>3</v>
       </c>
       <c r="O272">
         <v>3.5</v>
       </c>
       <c r="P272">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q272">
         <v>0.25</v>
       </c>
       <c r="R272">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S272">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T272">
+        <v>3</v>
+      </c>
+      <c r="U272">
+        <v>2</v>
+      </c>
+      <c r="V272">
+        <v>1.85</v>
+      </c>
+      <c r="W272">
+        <v>-1</v>
+      </c>
+      <c r="X272">
         <v>2.5</v>
       </c>
-      <c r="U272">
-        <v>1.825</v>
-      </c>
-      <c r="V272">
-        <v>2.025</v>
-      </c>
-      <c r="W272">
-        <v>2</v>
-      </c>
-      <c r="X272">
-        <v>-1</v>
-      </c>
       <c r="Y272">
         <v>-1</v>
       </c>
       <c r="Z272">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
       <c r="AA272">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB272">
         <v>-1</v>
       </c>
       <c r="AC272">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="273" spans="1:29">
@@ -24747,7 +24747,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>6842507</v>
+        <v>6842414</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -24759,76 +24759,76 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F273" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G273" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I273">
         <v>1</v>
       </c>
       <c r="J273" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K273">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="L273">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M273">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="N273">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="O273">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P273">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q273">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R273">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S273">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T273">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U273">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V273">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W273">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X273">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y273">
         <v>-1</v>
       </c>
       <c r="Z273">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA273">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB273">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC273">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="274" spans="1:29">
@@ -24836,7 +24836,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6865522</v>
+        <v>6842506</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24848,76 +24848,76 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F274" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G274" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I274">
         <v>1</v>
       </c>
       <c r="J274" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K274">
-        <v>3.75</v>
+        <v>1.3</v>
       </c>
       <c r="L274">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M274">
-        <v>1.833</v>
+        <v>9</v>
       </c>
       <c r="N274">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="O274">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P274">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="Q274">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R274">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S274">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T274">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U274">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V274">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W274">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X274">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y274">
         <v>-1</v>
       </c>
       <c r="Z274">
-        <v>0.425</v>
+        <v>-0.5</v>
       </c>
       <c r="AA274">
+        <v>0.475</v>
+      </c>
+      <c r="AB274">
         <v>-0.5</v>
       </c>
-      <c r="AB274">
-        <v>-1</v>
-      </c>
       <c r="AC274">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="275" spans="1:29">
@@ -24925,7 +24925,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6842414</v>
+        <v>6842507</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24937,76 +24937,76 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F275" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G275" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H275">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I275">
         <v>1</v>
       </c>
       <c r="J275" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K275">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="L275">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M275">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="N275">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O275">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P275">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q275">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R275">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S275">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T275">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U275">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V275">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W275">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X275">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y275">
         <v>-1</v>
       </c>
       <c r="Z275">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA275">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB275">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC275">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:29">
@@ -25014,7 +25014,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6842508</v>
+        <v>6922061</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25026,76 +25026,76 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F276" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G276" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J276" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K276">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="L276">
         <v>3.4</v>
       </c>
       <c r="M276">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="N276">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O276">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P276">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q276">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R276">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S276">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T276">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U276">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V276">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W276">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X276">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y276">
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA276">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB276">
         <v>-1</v>
       </c>
       <c r="AC276">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25103,7 +25103,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6842506</v>
+        <v>6842508</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25115,76 +25115,76 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F277" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G277" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I277">
         <v>1</v>
       </c>
       <c r="J277" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K277">
-        <v>1.3</v>
+        <v>2.75</v>
       </c>
       <c r="L277">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M277">
-        <v>9</v>
+        <v>2.375</v>
       </c>
       <c r="N277">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="O277">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P277">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="Q277">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R277">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S277">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T277">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U277">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V277">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W277">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X277">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y277">
         <v>-1</v>
       </c>
       <c r="Z277">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA277">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB277">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC277">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25459,7 +25459,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6842512</v>
+        <v>6842511</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25471,76 +25471,76 @@
         <v>45359.66666666666</v>
       </c>
       <c r="F281" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G281" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J281" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K281">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L281">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M281">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="N281">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="O281">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P281">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="Q281">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R281">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S281">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T281">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U281">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V281">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W281">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X281">
         <v>-1</v>
       </c>
       <c r="Y281">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z281">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA281">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB281">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC281">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25548,7 +25548,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6842511</v>
+        <v>6842510</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25560,73 +25560,73 @@
         <v>45359.66666666666</v>
       </c>
       <c r="F282" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G282" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I282">
         <v>2</v>
       </c>
       <c r="J282" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K282">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="L282">
         <v>3.6</v>
       </c>
       <c r="M282">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="N282">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="O282">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P282">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="Q282">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R282">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S282">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T282">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U282">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V282">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W282">
         <v>-1</v>
       </c>
       <c r="X282">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y282">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z282">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA282">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB282">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC282">
         <v>-1</v>
@@ -25637,7 +25637,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6842510</v>
+        <v>6842417</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25649,76 +25649,76 @@
         <v>45359.66666666666</v>
       </c>
       <c r="F283" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G283" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J283" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K283">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="L283">
+        <v>3.8</v>
+      </c>
+      <c r="M283">
+        <v>2</v>
+      </c>
+      <c r="N283">
         <v>3.6</v>
       </c>
-      <c r="M283">
-        <v>2.55</v>
-      </c>
-      <c r="N283">
-        <v>2.55</v>
-      </c>
       <c r="O283">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P283">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q283">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R283">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S283">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T283">
         <v>3</v>
       </c>
       <c r="U283">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V283">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W283">
         <v>-1</v>
       </c>
       <c r="X283">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y283">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z283">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA283">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB283">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC283">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -25726,7 +25726,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6842417</v>
+        <v>6842509</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25738,76 +25738,76 @@
         <v>45359.66666666666</v>
       </c>
       <c r="F284" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G284" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I284">
         <v>1</v>
       </c>
       <c r="J284" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K284">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="L284">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M284">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N284">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="O284">
         <v>3.8</v>
       </c>
       <c r="P284">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="Q284">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R284">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S284">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T284">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U284">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V284">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W284">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X284">
         <v>-1</v>
       </c>
       <c r="Y284">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z284">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA284">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB284">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC284">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -25815,7 +25815,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>6842509</v>
+        <v>6842512</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25827,58 +25827,58 @@
         <v>45359.66666666666</v>
       </c>
       <c r="F285" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G285" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H285">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J285" t="s">
         <v>50</v>
       </c>
       <c r="K285">
-        <v>1.666</v>
+        <v>2.6</v>
       </c>
       <c r="L285">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M285">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N285">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="O285">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P285">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q285">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R285">
+        <v>1.8</v>
+      </c>
+      <c r="S285">
+        <v>2.05</v>
+      </c>
+      <c r="T285">
+        <v>2.75</v>
+      </c>
+      <c r="U285">
         <v>1.875</v>
       </c>
-      <c r="S285">
+      <c r="V285">
         <v>1.975</v>
       </c>
-      <c r="T285">
-        <v>3.25</v>
-      </c>
-      <c r="U285">
-        <v>2</v>
-      </c>
-      <c r="V285">
-        <v>1.85</v>
-      </c>
       <c r="W285">
-        <v>0.909</v>
+        <v>1.45</v>
       </c>
       <c r="X285">
         <v>-1</v>
@@ -25887,16 +25887,16 @@
         <v>-1</v>
       </c>
       <c r="Z285">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA285">
         <v>-1</v>
       </c>
       <c r="AB285">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC285">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -26616,7 +26616,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6842514</v>
+        <v>6842418</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26628,40 +26628,40 @@
         <v>45362.66666666666</v>
       </c>
       <c r="F294" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G294" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H294">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I294">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J294" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K294">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L294">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M294">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="N294">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="O294">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P294">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q294">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R294">
         <v>1.9</v>
@@ -26670,7 +26670,7 @@
         <v>1.95</v>
       </c>
       <c r="T294">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U294">
         <v>1.85</v>
@@ -26679,25 +26679,25 @@
         <v>2</v>
       </c>
       <c r="W294">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X294">
         <v>-1</v>
       </c>
       <c r="Y294">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z294">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA294">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB294">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC294">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -26705,7 +26705,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6842418</v>
+        <v>6842514</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26717,40 +26717,40 @@
         <v>45362.66666666666</v>
       </c>
       <c r="F295" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G295" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I295">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J295" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K295">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L295">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M295">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="N295">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="O295">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P295">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q295">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R295">
         <v>1.9</v>
@@ -26759,7 +26759,7 @@
         <v>1.95</v>
       </c>
       <c r="T295">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U295">
         <v>1.85</v>
@@ -26768,25 +26768,25 @@
         <v>2</v>
       </c>
       <c r="W295">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X295">
         <v>-1</v>
       </c>
       <c r="Y295">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z295">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA295">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB295">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC295">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -27061,7 +27061,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>7054424</v>
+        <v>6994376</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27073,76 +27073,76 @@
         <v>45366.66666666666</v>
       </c>
       <c r="F299" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G299" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J299" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K299">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L299">
         <v>3.2</v>
       </c>
       <c r="M299">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="N299">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="O299">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P299">
-        <v>5.25</v>
+        <v>1.85</v>
       </c>
       <c r="Q299">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R299">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S299">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T299">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U299">
+        <v>1.8</v>
+      </c>
+      <c r="V299">
         <v>2.05</v>
       </c>
-      <c r="V299">
-        <v>1.8</v>
-      </c>
       <c r="W299">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X299">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y299">
         <v>-1</v>
       </c>
       <c r="Z299">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA299">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB299">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC299">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -27150,7 +27150,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>6992956</v>
+        <v>7054424</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27162,76 +27162,76 @@
         <v>45366.66666666666</v>
       </c>
       <c r="F300" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G300" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J300" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K300">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L300">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M300">
-        <v>1.55</v>
+        <v>3.6</v>
       </c>
       <c r="N300">
+        <v>1.6</v>
+      </c>
+      <c r="O300">
+        <v>4.2</v>
+      </c>
+      <c r="P300">
         <v>5.25</v>
       </c>
-      <c r="O300">
-        <v>4</v>
-      </c>
-      <c r="P300">
-        <v>1.65</v>
-      </c>
       <c r="Q300">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R300">
+        <v>2.025</v>
+      </c>
+      <c r="S300">
+        <v>1.825</v>
+      </c>
+      <c r="T300">
+        <v>3.25</v>
+      </c>
+      <c r="U300">
         <v>2.05</v>
       </c>
-      <c r="S300">
+      <c r="V300">
         <v>1.8</v>
       </c>
-      <c r="T300">
-        <v>2.5</v>
-      </c>
-      <c r="U300">
-        <v>1.825</v>
-      </c>
-      <c r="V300">
-        <v>2.025</v>
-      </c>
       <c r="W300">
         <v>-1</v>
       </c>
       <c r="X300">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y300">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z300">
         <v>-1</v>
       </c>
       <c r="AA300">
+        <v>0.825</v>
+      </c>
+      <c r="AB300">
+        <v>-1</v>
+      </c>
+      <c r="AC300">
         <v>0.8</v>
-      </c>
-      <c r="AB300">
-        <v>0.825</v>
-      </c>
-      <c r="AC300">
-        <v>-1</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -27239,7 +27239,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>7054425</v>
+        <v>6992956</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27251,76 +27251,76 @@
         <v>45366.66666666666</v>
       </c>
       <c r="F301" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G301" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H301">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I301">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J301" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K301">
-        <v>1.9</v>
+        <v>5</v>
       </c>
       <c r="L301">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M301">
-        <v>3.5</v>
+        <v>1.55</v>
       </c>
       <c r="N301">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="O301">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P301">
-        <v>2.9</v>
+        <v>1.65</v>
       </c>
       <c r="Q301">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R301">
+        <v>2.05</v>
+      </c>
+      <c r="S301">
+        <v>1.8</v>
+      </c>
+      <c r="T301">
+        <v>2.5</v>
+      </c>
+      <c r="U301">
+        <v>1.825</v>
+      </c>
+      <c r="V301">
         <v>2.025</v>
       </c>
-      <c r="S301">
-        <v>1.775</v>
-      </c>
-      <c r="T301">
-        <v>3.5</v>
-      </c>
-      <c r="U301">
-        <v>2</v>
-      </c>
-      <c r="V301">
-        <v>1.85</v>
-      </c>
       <c r="W301">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X301">
         <v>-1</v>
       </c>
       <c r="Y301">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z301">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA301">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB301">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC301">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="302" spans="1:29">
@@ -27328,7 +27328,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>6994376</v>
+        <v>7054425</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27340,58 +27340,58 @@
         <v>45366.66666666666</v>
       </c>
       <c r="F302" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G302" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H302">
         <v>3</v>
       </c>
       <c r="I302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J302" t="s">
         <v>50</v>
       </c>
       <c r="K302">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="L302">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M302">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="N302">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="O302">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P302">
+        <v>2.9</v>
+      </c>
+      <c r="Q302">
+        <v>-0.25</v>
+      </c>
+      <c r="R302">
+        <v>2.025</v>
+      </c>
+      <c r="S302">
+        <v>1.775</v>
+      </c>
+      <c r="T302">
+        <v>3.5</v>
+      </c>
+      <c r="U302">
+        <v>2</v>
+      </c>
+      <c r="V302">
         <v>1.85</v>
       </c>
-      <c r="Q302">
-        <v>0.5</v>
-      </c>
-      <c r="R302">
-        <v>1.975</v>
-      </c>
-      <c r="S302">
-        <v>1.875</v>
-      </c>
-      <c r="T302">
-        <v>2.75</v>
-      </c>
-      <c r="U302">
-        <v>1.8</v>
-      </c>
-      <c r="V302">
-        <v>2.05</v>
-      </c>
       <c r="W302">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="X302">
         <v>-1</v>
@@ -27400,16 +27400,16 @@
         <v>-1</v>
       </c>
       <c r="Z302">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA302">
         <v>-1</v>
       </c>
       <c r="AB302">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC302">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -27417,7 +27417,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>7000862</v>
+        <v>7054426</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27429,76 +27429,76 @@
         <v>45366.66666666666</v>
       </c>
       <c r="F303" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G303" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H303">
         <v>2</v>
       </c>
       <c r="I303">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J303" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K303">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="L303">
+        <v>3.25</v>
+      </c>
+      <c r="M303">
+        <v>2.2</v>
+      </c>
+      <c r="N303">
         <v>3.6</v>
       </c>
-      <c r="M303">
-        <v>2.5</v>
-      </c>
-      <c r="N303">
-        <v>2.4</v>
-      </c>
       <c r="O303">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P303">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q303">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R303">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S303">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T303">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U303">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V303">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W303">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X303">
         <v>-1</v>
       </c>
       <c r="Y303">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z303">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA303">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB303">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC303">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="304" spans="1:29">
@@ -27506,7 +27506,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>7054426</v>
+        <v>7000862</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27518,76 +27518,76 @@
         <v>45366.66666666666</v>
       </c>
       <c r="F304" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G304" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H304">
         <v>2</v>
       </c>
       <c r="I304">
+        <v>0</v>
+      </c>
+      <c r="J304" t="s">
+        <v>50</v>
+      </c>
+      <c r="K304">
+        <v>2.4</v>
+      </c>
+      <c r="L304">
+        <v>3.6</v>
+      </c>
+      <c r="M304">
+        <v>2.5</v>
+      </c>
+      <c r="N304">
+        <v>2.4</v>
+      </c>
+      <c r="O304">
+        <v>3.6</v>
+      </c>
+      <c r="P304">
+        <v>2.8</v>
+      </c>
+      <c r="Q304">
+        <v>-0.25</v>
+      </c>
+      <c r="R304">
+        <v>2.05</v>
+      </c>
+      <c r="S304">
+        <v>1.75</v>
+      </c>
+      <c r="T304">
         <v>3</v>
       </c>
-      <c r="J304" t="s">
-        <v>51</v>
-      </c>
-      <c r="K304">
-        <v>3</v>
-      </c>
-      <c r="L304">
-        <v>3.25</v>
-      </c>
-      <c r="M304">
-        <v>2.2</v>
-      </c>
-      <c r="N304">
-        <v>3.6</v>
-      </c>
-      <c r="O304">
-        <v>3.5</v>
-      </c>
-      <c r="P304">
-        <v>2.05</v>
-      </c>
-      <c r="Q304">
-        <v>0.25</v>
-      </c>
-      <c r="R304">
-        <v>2.025</v>
-      </c>
-      <c r="S304">
-        <v>1.825</v>
-      </c>
-      <c r="T304">
-        <v>2.75</v>
-      </c>
       <c r="U304">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V304">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W304">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X304">
         <v>-1</v>
       </c>
       <c r="Y304">
+        <v>-1</v>
+      </c>
+      <c r="Z304">
         <v>1.05</v>
       </c>
-      <c r="Z304">
-        <v>-1</v>
-      </c>
       <c r="AA304">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB304">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC304">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="305" spans="1:29">
@@ -27773,7 +27773,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>7054427</v>
+        <v>7063018</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27785,13 +27785,13 @@
         <v>45374.66666666666</v>
       </c>
       <c r="F307" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G307" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I307">
         <v>0</v>
@@ -27800,43 +27800,43 @@
         <v>50</v>
       </c>
       <c r="K307">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="L307">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="M307">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="N307">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="O307">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P307">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="Q307">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R307">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S307">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T307">
         <v>3</v>
       </c>
       <c r="U307">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V307">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W307">
-        <v>1.3</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X307">
         <v>-1</v>
@@ -27845,7 +27845,7 @@
         <v>-1</v>
       </c>
       <c r="Z307">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA307">
         <v>-1</v>
@@ -27854,7 +27854,7 @@
         <v>-1</v>
       </c>
       <c r="AC307">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -27951,7 +27951,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7063018</v>
+        <v>7054427</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27963,13 +27963,13 @@
         <v>45374.66666666666</v>
       </c>
       <c r="F309" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G309" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I309">
         <v>0</v>
@@ -27978,43 +27978,43 @@
         <v>50</v>
       </c>
       <c r="K309">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="L309">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="M309">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="N309">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="O309">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P309">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="Q309">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R309">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S309">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T309">
         <v>3</v>
       </c>
       <c r="U309">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V309">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W309">
-        <v>0.3999999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="X309">
         <v>-1</v>
@@ -28023,7 +28023,7 @@
         <v>-1</v>
       </c>
       <c r="Z309">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA309">
         <v>-1</v>
@@ -28032,7 +28032,7 @@
         <v>-1</v>
       </c>
       <c r="AC309">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28040,7 +28040,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>7088604</v>
+        <v>7088603</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28052,58 +28052,58 @@
         <v>45380.66666666666</v>
       </c>
       <c r="F310" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G310" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H310">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I310">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J310" t="s">
         <v>50</v>
       </c>
       <c r="K310">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="L310">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M310">
         <v>4.75</v>
       </c>
       <c r="N310">
-        <v>1.4</v>
+        <v>1.727</v>
       </c>
       <c r="O310">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P310">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="Q310">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R310">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S310">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T310">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U310">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V310">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W310">
-        <v>0.3999999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X310">
         <v>-1</v>
@@ -28112,13 +28112,13 @@
         <v>-1</v>
       </c>
       <c r="Z310">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA310">
         <v>-1</v>
       </c>
       <c r="AB310">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC310">
         <v>-1</v>
@@ -28129,7 +28129,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>7088603</v>
+        <v>7088602</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28141,76 +28141,76 @@
         <v>45380.66666666666</v>
       </c>
       <c r="F311" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G311" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H311">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I311">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J311" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K311">
-        <v>1.65</v>
+        <v>4</v>
       </c>
       <c r="L311">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M311">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="N311">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="O311">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P311">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="Q311">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R311">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S311">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T311">
         <v>2.75</v>
       </c>
       <c r="U311">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V311">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W311">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X311">
         <v>-1</v>
       </c>
       <c r="Y311">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z311">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA311">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB311">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC311">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="312" spans="1:29">
@@ -28218,7 +28218,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>7088602</v>
+        <v>7088601</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28230,40 +28230,40 @@
         <v>45380.66666666666</v>
       </c>
       <c r="F312" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G312" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H312">
         <v>0</v>
       </c>
       <c r="I312">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J312" t="s">
         <v>51</v>
       </c>
       <c r="K312">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L312">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M312">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="N312">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="O312">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P312">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="Q312">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R312">
         <v>1.95</v>
@@ -28272,13 +28272,13 @@
         <v>1.9</v>
       </c>
       <c r="T312">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U312">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V312">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W312">
         <v>-1</v>
@@ -28287,7 +28287,7 @@
         <v>-1</v>
       </c>
       <c r="Y312">
-        <v>0.7</v>
+        <v>0.909</v>
       </c>
       <c r="Z312">
         <v>-1</v>
@@ -28296,10 +28296,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB312">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC312">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="313" spans="1:29">
@@ -28307,7 +28307,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>7088601</v>
+        <v>7088600</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28319,40 +28319,40 @@
         <v>45380.66666666666</v>
       </c>
       <c r="F313" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G313" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H313">
         <v>0</v>
       </c>
       <c r="I313">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J313" t="s">
         <v>51</v>
       </c>
       <c r="K313">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="L313">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M313">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N313">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="O313">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P313">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="Q313">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R313">
         <v>1.95</v>
@@ -28361,13 +28361,13 @@
         <v>1.9</v>
       </c>
       <c r="T313">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U313">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V313">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W313">
         <v>-1</v>
@@ -28376,7 +28376,7 @@
         <v>-1</v>
       </c>
       <c r="Y313">
-        <v>0.909</v>
+        <v>1.15</v>
       </c>
       <c r="Z313">
         <v>-1</v>
@@ -28385,10 +28385,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB313">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC313">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="314" spans="1:29">
@@ -28396,7 +28396,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7088600</v>
+        <v>7088616</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28408,76 +28408,76 @@
         <v>45380.66666666666</v>
       </c>
       <c r="F314" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G314" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H314">
+        <v>2</v>
+      </c>
+      <c r="I314">
         <v>0</v>
       </c>
-      <c r="I314">
-        <v>2</v>
-      </c>
       <c r="J314" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K314">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="L314">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M314">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N314">
-        <v>3.3</v>
+        <v>1.65</v>
       </c>
       <c r="O314">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P314">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="Q314">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R314">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S314">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T314">
         <v>2.75</v>
       </c>
       <c r="U314">
+        <v>1.875</v>
+      </c>
+      <c r="V314">
         <v>1.975</v>
       </c>
-      <c r="V314">
-        <v>1.875</v>
-      </c>
       <c r="W314">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X314">
         <v>-1</v>
       </c>
       <c r="Y314">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z314">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA314">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB314">
         <v>-1</v>
       </c>
       <c r="AC314">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28485,7 +28485,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>7088616</v>
+        <v>7088604</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28497,58 +28497,58 @@
         <v>45380.66666666666</v>
       </c>
       <c r="F315" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G315" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I315">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J315" t="s">
         <v>50</v>
       </c>
       <c r="K315">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="L315">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M315">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="N315">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="O315">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P315">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q315">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R315">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S315">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T315">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U315">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V315">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W315">
-        <v>0.6499999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X315">
         <v>-1</v>
@@ -28557,16 +28557,16 @@
         <v>-1</v>
       </c>
       <c r="Z315">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA315">
         <v>-1</v>
       </c>
       <c r="AB315">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC315">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -28574,7 +28574,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>7088606</v>
+        <v>7088607</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28586,49 +28586,49 @@
         <v>45380.66666666666</v>
       </c>
       <c r="F316" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G316" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J316" t="s">
         <v>51</v>
       </c>
       <c r="K316">
-        <v>1.444</v>
+        <v>2.55</v>
       </c>
       <c r="L316">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="M316">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="N316">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="O316">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P316">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q316">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R316">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S316">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T316">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U316">
         <v>1.9</v>
@@ -28643,19 +28643,19 @@
         <v>-1</v>
       </c>
       <c r="Y316">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="Z316">
         <v>-1</v>
       </c>
       <c r="AA316">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB316">
+        <v>0.45</v>
+      </c>
+      <c r="AC316">
         <v>-0.5</v>
-      </c>
-      <c r="AC316">
-        <v>0.475</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -28663,7 +28663,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>7088605</v>
+        <v>7088606</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28675,76 +28675,76 @@
         <v>45380.66666666666</v>
       </c>
       <c r="F317" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G317" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I317">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J317" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K317">
-        <v>1.666</v>
+        <v>1.444</v>
       </c>
       <c r="L317">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M317">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="N317">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="O317">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="P317">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q317">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R317">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S317">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T317">
         <v>3.25</v>
       </c>
       <c r="U317">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V317">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W317">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X317">
         <v>-1</v>
       </c>
       <c r="Y317">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z317">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA317">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB317">
         <v>-0.5</v>
       </c>
       <c r="AC317">
-        <v>0.425</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -28752,7 +28752,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>7088607</v>
+        <v>7088605</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28764,76 +28764,76 @@
         <v>45380.66666666666</v>
       </c>
       <c r="F318" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G318" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H318">
+        <v>2</v>
+      </c>
+      <c r="I318">
+        <v>1</v>
+      </c>
+      <c r="J318" t="s">
+        <v>50</v>
+      </c>
+      <c r="K318">
+        <v>1.666</v>
+      </c>
+      <c r="L318">
+        <v>4</v>
+      </c>
+      <c r="M318">
+        <v>4.333</v>
+      </c>
+      <c r="N318">
+        <v>1.615</v>
+      </c>
+      <c r="O318">
+        <v>4.333</v>
+      </c>
+      <c r="P318">
+        <v>5</v>
+      </c>
+      <c r="Q318">
+        <v>-1</v>
+      </c>
+      <c r="R318">
+        <v>1.975</v>
+      </c>
+      <c r="S318">
+        <v>1.875</v>
+      </c>
+      <c r="T318">
+        <v>3.25</v>
+      </c>
+      <c r="U318">
+        <v>2</v>
+      </c>
+      <c r="V318">
+        <v>1.85</v>
+      </c>
+      <c r="W318">
+        <v>0.615</v>
+      </c>
+      <c r="X318">
+        <v>-1</v>
+      </c>
+      <c r="Y318">
+        <v>-1</v>
+      </c>
+      <c r="Z318">
         <v>0</v>
       </c>
-      <c r="I318">
-        <v>3</v>
-      </c>
-      <c r="J318" t="s">
-        <v>51</v>
-      </c>
-      <c r="K318">
-        <v>2.55</v>
-      </c>
-      <c r="L318">
-        <v>3.3</v>
-      </c>
-      <c r="M318">
-        <v>2.5</v>
-      </c>
-      <c r="N318">
-        <v>2.7</v>
-      </c>
-      <c r="O318">
-        <v>3.6</v>
-      </c>
-      <c r="P318">
-        <v>2.5</v>
-      </c>
-      <c r="Q318">
-        <v>0</v>
-      </c>
-      <c r="R318">
-        <v>2.05</v>
-      </c>
-      <c r="S318">
-        <v>1.8</v>
-      </c>
-      <c r="T318">
-        <v>2.75</v>
-      </c>
-      <c r="U318">
-        <v>1.9</v>
-      </c>
-      <c r="V318">
-        <v>1.95</v>
-      </c>
-      <c r="W318">
-        <v>-1</v>
-      </c>
-      <c r="X318">
-        <v>-1</v>
-      </c>
-      <c r="Y318">
-        <v>1.5</v>
-      </c>
-      <c r="Z318">
-        <v>-1</v>
-      </c>
       <c r="AA318">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB318">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AC318">
-        <v>-0.5</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -29019,7 +29019,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>7138516</v>
+        <v>7138515</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29031,31 +29031,31 @@
         <v>45387.625</v>
       </c>
       <c r="F321" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G321" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K321">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L321">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M321">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="N321">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="O321">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P321">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="Q321">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R321">
         <v>1.875</v>
@@ -29064,13 +29064,13 @@
         <v>1.975</v>
       </c>
       <c r="T321">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U321">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V321">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W321">
         <v>0</v>
@@ -29093,7 +29093,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>7123794</v>
+        <v>7138516</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29105,46 +29105,46 @@
         <v>45387.625</v>
       </c>
       <c r="F322" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G322" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K322">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="L322">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M322">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="N322">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="O322">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P322">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="Q322">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R322">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S322">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T322">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U322">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V322">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W322">
         <v>0</v>
@@ -29167,7 +29167,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>7138515</v>
+        <v>7123788</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29179,46 +29179,46 @@
         <v>45387.625</v>
       </c>
       <c r="F323" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G323" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="K323">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="L323">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M323">
         <v>2.7</v>
       </c>
       <c r="N323">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="O323">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P323">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q323">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R323">
+        <v>2.05</v>
+      </c>
+      <c r="S323">
         <v>1.8</v>
-      </c>
-      <c r="S323">
-        <v>2.05</v>
       </c>
       <c r="T323">
         <v>3.25</v>
       </c>
       <c r="U323">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V323">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W323">
         <v>0</v>
@@ -29241,7 +29241,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>7123788</v>
+        <v>7123793</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29253,40 +29253,40 @@
         <v>45387.625</v>
       </c>
       <c r="F324" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G324" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="K324">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="L324">
         <v>3.5</v>
       </c>
       <c r="M324">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="N324">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="O324">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P324">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q324">
         <v>0</v>
       </c>
       <c r="R324">
+        <v>2.05</v>
+      </c>
+      <c r="S324">
         <v>1.8</v>
       </c>
-      <c r="S324">
-        <v>2.05</v>
-      </c>
       <c r="T324">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U324">
         <v>1.875</v>
@@ -29315,7 +29315,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>7123793</v>
+        <v>7123794</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29327,46 +29327,46 @@
         <v>45387.625</v>
       </c>
       <c r="F325" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G325" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K325">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="L325">
         <v>3.5</v>
       </c>
       <c r="M325">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="N325">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="O325">
         <v>3.5</v>
       </c>
       <c r="P325">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q325">
         <v>0</v>
       </c>
       <c r="R325">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S325">
+        <v>1.925</v>
+      </c>
+      <c r="T325">
+        <v>2.5</v>
+      </c>
+      <c r="U325">
         <v>1.85</v>
       </c>
-      <c r="T325">
-        <v>3.25</v>
-      </c>
-      <c r="U325">
-        <v>2.025</v>
-      </c>
       <c r="V325">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W325">
         <v>0</v>
@@ -29511,10 +29511,10 @@
         <v>3</v>
       </c>
       <c r="U327">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V327">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W327">
         <v>0</v>
@@ -29585,10 +29585,10 @@
         <v>3</v>
       </c>
       <c r="U328">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V328">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W328">
         <v>0</v>
@@ -29733,10 +29733,10 @@
         <v>2.75</v>
       </c>
       <c r="U330">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V330">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W330">
         <v>0</v>

--- a/Netherlands Eerste Divisie/Netherlands Eerste Divisie.xlsx
+++ b/Netherlands Eerste Divisie/Netherlands Eerste Divisie.xlsx
@@ -97,13 +97,25 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
+    <t>7248109</t>
+  </si>
+  <si>
     <t>7248108</t>
   </si>
   <si>
     <t>7248110</t>
   </si>
   <si>
-    <t>7248109</t>
+    <t>7248111</t>
+  </si>
+  <si>
+    <t>7248112</t>
+  </si>
+  <si>
+    <t>7248113</t>
+  </si>
+  <si>
+    <t>7248117</t>
   </si>
   <si>
     <t>7248116</t>
@@ -113,18 +125,6 @@
   </si>
   <si>
     <t>7248114</t>
-  </si>
-  <si>
-    <t>7248113</t>
-  </si>
-  <si>
-    <t>7248112</t>
-  </si>
-  <si>
-    <t>7248111</t>
-  </si>
-  <si>
-    <t>7248117</t>
   </si>
   <si>
     <t>Netherlands Eerste Divisie</t>
@@ -160,13 +160,13 @@
     <t>PSV Reserves</t>
   </si>
   <si>
-    <t>Top Oss</t>
-  </si>
-  <si>
     <t>FC Emmen</t>
   </si>
   <si>
     <t>NAC</t>
+  </si>
+  <si>
+    <t>Top Oss</t>
   </si>
   <si>
     <t>Helmond Sport</t>
@@ -836,7 +836,7 @@
         <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -922,7 +922,7 @@
         <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1094,7 +1094,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1512,7 +1512,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6842268</v>
+        <v>6842425</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -1524,43 +1524,43 @@
         <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J12">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="K12">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L12">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="M12">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="N12">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O12">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q12">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S12">
         <v>2.75</v>
@@ -1572,19 +1572,19 @@
         <v>2</v>
       </c>
       <c r="V12">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA12">
         <v>0.8500000000000001</v>
@@ -1598,7 +1598,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6842425</v>
+        <v>6842270</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
@@ -1610,25 +1610,25 @@
         <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J13">
-        <v>1.75</v>
+        <v>1.833</v>
       </c>
       <c r="K13">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L13">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="M13">
         <v>1.7</v>
@@ -1643,40 +1643,40 @@
         <v>-0.75</v>
       </c>
       <c r="Q13">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="R13">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S13">
         <v>2.75</v>
       </c>
       <c r="T13">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U13">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V13">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="W13">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="Z13">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA13">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6842270</v>
+        <v>6842268</v>
       </c>
       <c r="C14" t="s">
         <v>37</v>
@@ -1696,10 +1696,10 @@
         <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1708,43 +1708,43 @@
         <v>59</v>
       </c>
       <c r="J14">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="K14">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="L14">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="M14">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="N14">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O14">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="P14">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R14">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S14">
         <v>2.75</v>
       </c>
       <c r="T14">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U14">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V14">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="W14">
         <v>-1</v>
@@ -1753,16 +1753,16 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z14">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB14">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -2286,7 +2286,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6842274</v>
+        <v>6842273</v>
       </c>
       <c r="C21" t="s">
         <v>37</v>
@@ -2295,58 +2295,58 @@
         <v>45163.625</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="s">
         <v>59</v>
       </c>
       <c r="J21">
-        <v>1.55</v>
+        <v>2.6</v>
       </c>
       <c r="K21">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="L21">
-        <v>5.75</v>
+        <v>2.6</v>
       </c>
       <c r="M21">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="N21">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="O21">
-        <v>11</v>
+        <v>2.75</v>
       </c>
       <c r="P21">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R21">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S21">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21">
         <v>1.85</v>
       </c>
-      <c r="U21">
-        <v>2</v>
-      </c>
       <c r="V21">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="W21">
         <v>-1</v>
@@ -2355,16 +2355,16 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
+        <v>-1</v>
+      </c>
+      <c r="AB21">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB21">
-        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -2458,7 +2458,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6842273</v>
+        <v>6842274</v>
       </c>
       <c r="C23" t="s">
         <v>37</v>
@@ -2467,58 +2467,58 @@
         <v>45163.625</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="s">
         <v>59</v>
       </c>
       <c r="J23">
-        <v>2.6</v>
+        <v>1.55</v>
       </c>
       <c r="K23">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="L23">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="M23">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="N23">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="O23">
-        <v>2.75</v>
+        <v>11</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q23">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R23">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S23">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="T23">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U23">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V23">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="W23">
         <v>-1</v>
@@ -2527,16 +2527,16 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB23">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2630,7 +2630,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6842429</v>
+        <v>6842276</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
@@ -2639,76 +2639,76 @@
         <v>45163.625</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J25">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="K25">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L25">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="M25">
-        <v>2.45</v>
+        <v>1.45</v>
       </c>
       <c r="N25">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="O25">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="P25">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q25">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="R25">
-        <v>1.75</v>
+        <v>2.125</v>
       </c>
       <c r="S25">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T25">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U25">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V25">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z25">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -2802,7 +2802,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6842276</v>
+        <v>6842429</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
@@ -2811,76 +2811,76 @@
         <v>45163.625</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s">
         <v>48</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J27">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="K27">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L27">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="M27">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="N27">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="O27">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="P27">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q27">
+        <v>2.05</v>
+      </c>
+      <c r="R27">
         <v>1.75</v>
       </c>
-      <c r="R27">
-        <v>2.125</v>
-      </c>
       <c r="S27">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T27">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U27">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V27">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y27">
+        <v>-1</v>
+      </c>
+      <c r="Z27">
         <v>0.75</v>
       </c>
-      <c r="Z27">
-        <v>-1</v>
-      </c>
       <c r="AA27">
         <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -3327,7 +3327,7 @@
         <v>45170.625</v>
       </c>
       <c r="E33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F33" t="s">
         <v>41</v>
@@ -3499,7 +3499,7 @@
         <v>45170.625</v>
       </c>
       <c r="E35" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F35" t="s">
         <v>39</v>
@@ -3846,7 +3846,7 @@
         <v>53</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -4273,7 +4273,7 @@
         <v>45178.66666666666</v>
       </c>
       <c r="E44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F44" t="s">
         <v>42</v>
@@ -4362,7 +4362,7 @@
         <v>51</v>
       </c>
       <c r="F45" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4620,7 +4620,7 @@
         <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -5050,7 +5050,7 @@
         <v>55</v>
       </c>
       <c r="F53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -5210,7 +5210,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6842285</v>
+        <v>6842284</v>
       </c>
       <c r="C55" t="s">
         <v>37</v>
@@ -5219,76 +5219,76 @@
         <v>45187.625</v>
       </c>
       <c r="E55" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G55">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J55">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="K55">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L55">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M55">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="N55">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="O55">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="P55">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R55">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S55">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="T55">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U55">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V55">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA55">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -5391,7 +5391,7 @@
         <v>45187.625</v>
       </c>
       <c r="E57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F57" t="s">
         <v>56</v>
@@ -5468,7 +5468,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6842284</v>
+        <v>6842285</v>
       </c>
       <c r="C58" t="s">
         <v>37</v>
@@ -5477,76 +5477,76 @@
         <v>45187.625</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J58">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="K58">
+        <v>4</v>
+      </c>
+      <c r="L58">
+        <v>3.6</v>
+      </c>
+      <c r="M58">
+        <v>1.75</v>
+      </c>
+      <c r="N58">
+        <v>4.333</v>
+      </c>
+      <c r="O58">
+        <v>4</v>
+      </c>
+      <c r="P58">
+        <v>-0.75</v>
+      </c>
+      <c r="Q58">
+        <v>1.9</v>
+      </c>
+      <c r="R58">
+        <v>1.95</v>
+      </c>
+      <c r="S58">
         <v>3.5</v>
       </c>
-      <c r="L58">
-        <v>3.5</v>
-      </c>
-      <c r="M58">
-        <v>2.6</v>
-      </c>
-      <c r="N58">
-        <v>3.5</v>
-      </c>
-      <c r="O58">
-        <v>2.6</v>
-      </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
-      <c r="Q58">
+      <c r="T58">
+        <v>1.975</v>
+      </c>
+      <c r="U58">
         <v>1.875</v>
       </c>
-      <c r="R58">
-        <v>1.975</v>
-      </c>
-      <c r="S58">
-        <v>2.5</v>
-      </c>
-      <c r="T58">
-        <v>1.85</v>
-      </c>
-      <c r="U58">
-        <v>2</v>
-      </c>
       <c r="V58">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W58">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z58">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB58">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:28">
@@ -5649,7 +5649,7 @@
         <v>45187.625</v>
       </c>
       <c r="E60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F60" t="s">
         <v>41</v>
@@ -5726,7 +5726,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6842308</v>
+        <v>6842305</v>
       </c>
       <c r="C61" t="s">
         <v>37</v>
@@ -5735,73 +5735,73 @@
         <v>45191.625</v>
       </c>
       <c r="E61" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
         <v>3</v>
       </c>
-      <c r="H61">
-        <v>2</v>
-      </c>
       <c r="I61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J61">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="K61">
+        <v>3.5</v>
+      </c>
+      <c r="L61">
+        <v>2.5</v>
+      </c>
+      <c r="M61">
+        <v>2.1</v>
+      </c>
+      <c r="N61">
         <v>3.6</v>
       </c>
-      <c r="L61">
-        <v>1.75</v>
-      </c>
-      <c r="M61">
-        <v>4.5</v>
-      </c>
-      <c r="N61">
-        <v>4</v>
-      </c>
       <c r="O61">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="P61">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q61">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="R61">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S61">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T61">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U61">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V61">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y61">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA61">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB61">
         <v>-1</v>
@@ -5812,7 +5812,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6842440</v>
+        <v>6842308</v>
       </c>
       <c r="C62" t="s">
         <v>37</v>
@@ -5821,76 +5821,76 @@
         <v>45191.625</v>
       </c>
       <c r="E62" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F62" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J62">
+        <v>4</v>
+      </c>
+      <c r="K62">
+        <v>3.6</v>
+      </c>
+      <c r="L62">
+        <v>1.75</v>
+      </c>
+      <c r="M62">
+        <v>4.5</v>
+      </c>
+      <c r="N62">
+        <v>4</v>
+      </c>
+      <c r="O62">
         <v>1.666</v>
       </c>
-      <c r="K62">
-        <v>4</v>
-      </c>
-      <c r="L62">
-        <v>4</v>
-      </c>
-      <c r="M62">
-        <v>1.533</v>
-      </c>
-      <c r="N62">
-        <v>4.333</v>
-      </c>
-      <c r="O62">
-        <v>5.25</v>
-      </c>
       <c r="P62">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Q62">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="R62">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S62">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T62">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="U62">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V62">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="W62">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z62">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB62">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:28">
@@ -5898,7 +5898,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6842441</v>
+        <v>6842440</v>
       </c>
       <c r="C63" t="s">
         <v>37</v>
@@ -5907,49 +5907,49 @@
         <v>45191.625</v>
       </c>
       <c r="E63" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F63" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="s">
         <v>58</v>
       </c>
       <c r="J63">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="K63">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L63">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="M63">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="N63">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="O63">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="P63">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q63">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R63">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S63">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T63">
         <v>1.8</v>
@@ -5961,16 +5961,16 @@
         <v>-1</v>
       </c>
       <c r="W63">
-        <v>2.6</v>
+        <v>3.333</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AA63">
         <v>-1</v>
@@ -5984,7 +5984,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6841987</v>
+        <v>6842441</v>
       </c>
       <c r="C64" t="s">
         <v>37</v>
@@ -5993,76 +5993,76 @@
         <v>45191.625</v>
       </c>
       <c r="E64" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J64">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="K64">
+        <v>3.4</v>
+      </c>
+      <c r="L64">
+        <v>2.5</v>
+      </c>
+      <c r="M64">
+        <v>2.25</v>
+      </c>
+      <c r="N64">
         <v>3.6</v>
       </c>
-      <c r="L64">
+      <c r="O64">
+        <v>2.9</v>
+      </c>
+      <c r="P64">
+        <v>-0.25</v>
+      </c>
+      <c r="Q64">
+        <v>2</v>
+      </c>
+      <c r="R64">
+        <v>1.85</v>
+      </c>
+      <c r="S64">
+        <v>3</v>
+      </c>
+      <c r="T64">
         <v>1.8</v>
       </c>
-      <c r="M64">
-        <v>4.75</v>
-      </c>
-      <c r="N64">
-        <v>4</v>
-      </c>
-      <c r="O64">
-        <v>1.7</v>
-      </c>
-      <c r="P64">
-        <v>0.75</v>
-      </c>
-      <c r="Q64">
-        <v>1.975</v>
-      </c>
-      <c r="R64">
-        <v>1.875</v>
-      </c>
-      <c r="S64">
-        <v>2.75</v>
-      </c>
-      <c r="T64">
-        <v>1.925</v>
-      </c>
       <c r="U64">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V64">
         <v>-1</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X64">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-0.5</v>
       </c>
       <c r="Z64">
-        <v>0.4375</v>
+        <v>0.425</v>
       </c>
       <c r="AA64">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="65" spans="1:28">
@@ -6070,7 +6070,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6842293</v>
+        <v>6841987</v>
       </c>
       <c r="C65" t="s">
         <v>37</v>
@@ -6079,76 +6079,76 @@
         <v>45191.625</v>
       </c>
       <c r="E65" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F65" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J65">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="K65">
         <v>3.6</v>
       </c>
       <c r="L65">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="M65">
+        <v>4.75</v>
+      </c>
+      <c r="N65">
         <v>4</v>
       </c>
-      <c r="N65">
-        <v>4.2</v>
-      </c>
       <c r="O65">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P65">
         <v>0.75</v>
       </c>
       <c r="Q65">
+        <v>1.975</v>
+      </c>
+      <c r="R65">
         <v>1.875</v>
       </c>
-      <c r="R65">
-        <v>1.975</v>
-      </c>
       <c r="S65">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T65">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U65">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V65">
         <v>-1</v>
       </c>
       <c r="W65">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Y65">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB65">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -6156,7 +6156,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6842304</v>
+        <v>6842293</v>
       </c>
       <c r="C66" t="s">
         <v>37</v>
@@ -6165,76 +6165,76 @@
         <v>45191.625</v>
       </c>
       <c r="E66" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F66" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66" t="s">
+        <v>58</v>
+      </c>
+      <c r="J66">
+        <v>2.625</v>
+      </c>
+      <c r="K66">
+        <v>3.6</v>
+      </c>
+      <c r="L66">
+        <v>2.3</v>
+      </c>
+      <c r="M66">
         <v>4</v>
       </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
-      <c r="I66" t="s">
-        <v>59</v>
-      </c>
-      <c r="J66">
-        <v>1.444</v>
-      </c>
-      <c r="K66">
-        <v>4.5</v>
-      </c>
-      <c r="L66">
-        <v>5.5</v>
-      </c>
-      <c r="M66">
-        <v>1.5</v>
-      </c>
       <c r="N66">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="O66">
-        <v>5.25</v>
+        <v>1.75</v>
       </c>
       <c r="P66">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q66">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="R66">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S66">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T66">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U66">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V66">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="Z66">
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="67" spans="1:28">
@@ -6242,7 +6242,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6842305</v>
+        <v>6842304</v>
       </c>
       <c r="C67" t="s">
         <v>37</v>
@@ -6251,73 +6251,73 @@
         <v>45191.625</v>
       </c>
       <c r="E67" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F67" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G67">
+        <v>4</v>
+      </c>
+      <c r="H67">
         <v>1</v>
       </c>
-      <c r="H67">
-        <v>3</v>
-      </c>
       <c r="I67" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J67">
-        <v>2.45</v>
+        <v>1.444</v>
       </c>
       <c r="K67">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L67">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="M67">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="N67">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="O67">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="P67">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q67">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="R67">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S67">
         <v>3</v>
       </c>
       <c r="T67">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U67">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V67">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W67">
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z67">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB67">
         <v>-1</v>
@@ -7111,10 +7111,10 @@
         <v>45198.625</v>
       </c>
       <c r="E77" t="s">
+        <v>50</v>
+      </c>
+      <c r="F77" t="s">
         <v>48</v>
-      </c>
-      <c r="F77" t="s">
-        <v>49</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7274,7 +7274,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7076931</v>
+        <v>6842314</v>
       </c>
       <c r="C79" t="s">
         <v>37</v>
@@ -7283,76 +7283,76 @@
         <v>45201.625</v>
       </c>
       <c r="E79" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F79" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79">
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J79">
-        <v>2.35</v>
+        <v>2.9</v>
       </c>
       <c r="K79">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L79">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="M79">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="N79">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O79">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="P79">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q79">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="R79">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S79">
+        <v>3</v>
+      </c>
+      <c r="T79">
+        <v>2</v>
+      </c>
+      <c r="U79">
+        <v>1.85</v>
+      </c>
+      <c r="V79">
+        <v>-1</v>
+      </c>
+      <c r="W79">
         <v>2.75</v>
       </c>
-      <c r="T79">
-        <v>1.9</v>
-      </c>
-      <c r="U79">
-        <v>1.95</v>
-      </c>
-      <c r="V79">
-        <v>-1</v>
-      </c>
-      <c r="W79">
-        <v>-1</v>
-      </c>
       <c r="X79">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z79">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="80" spans="1:28">
@@ -7360,7 +7360,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6842314</v>
+        <v>7076931</v>
       </c>
       <c r="C80" t="s">
         <v>37</v>
@@ -7369,76 +7369,76 @@
         <v>45201.625</v>
       </c>
       <c r="E80" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F80" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80">
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J80">
-        <v>2.9</v>
+        <v>2.35</v>
       </c>
       <c r="K80">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L80">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="M80">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="N80">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O80">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="P80">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q80">
+        <v>2.1</v>
+      </c>
+      <c r="R80">
+        <v>1.775</v>
+      </c>
+      <c r="S80">
+        <v>2.75</v>
+      </c>
+      <c r="T80">
         <v>1.9</v>
       </c>
-      <c r="R80">
+      <c r="U80">
         <v>1.95</v>
       </c>
-      <c r="S80">
-        <v>3</v>
-      </c>
-      <c r="T80">
-        <v>2</v>
-      </c>
-      <c r="U80">
-        <v>1.85</v>
-      </c>
       <c r="V80">
         <v>-1</v>
       </c>
       <c r="W80">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y80">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="81" spans="1:28">
@@ -7458,7 +7458,7 @@
         <v>53</v>
       </c>
       <c r="F81" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G81">
         <v>2</v>
@@ -7876,7 +7876,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6841989</v>
+        <v>6841532</v>
       </c>
       <c r="C86" t="s">
         <v>37</v>
@@ -7885,13 +7885,13 @@
         <v>45205.625</v>
       </c>
       <c r="E86" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -7900,43 +7900,43 @@
         <v>59</v>
       </c>
       <c r="J86">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="K86">
         <v>3.75</v>
       </c>
       <c r="L86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M86">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="N86">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O86">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="P86">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q86">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="R86">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S86">
         <v>2.75</v>
       </c>
       <c r="T86">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V86">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="W86">
         <v>-1</v>
@@ -7945,13 +7945,13 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB86">
         <v>-1</v>
@@ -7974,7 +7974,7 @@
         <v>54</v>
       </c>
       <c r="F87" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -8143,7 +8143,7 @@
         <v>45205.625</v>
       </c>
       <c r="E89" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F89" t="s">
         <v>52</v>
@@ -8220,7 +8220,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6842315</v>
+        <v>6841989</v>
       </c>
       <c r="C90" t="s">
         <v>37</v>
@@ -8229,76 +8229,76 @@
         <v>45205.625</v>
       </c>
       <c r="E90" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F90" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J90">
+        <v>3.4</v>
+      </c>
+      <c r="K90">
+        <v>3.75</v>
+      </c>
+      <c r="L90">
+        <v>2</v>
+      </c>
+      <c r="M90">
         <v>2.75</v>
       </c>
-      <c r="K90">
-        <v>3.5</v>
-      </c>
-      <c r="L90">
+      <c r="N90">
+        <v>3.6</v>
+      </c>
+      <c r="O90">
         <v>2.4</v>
       </c>
-      <c r="M90">
-        <v>2.5</v>
-      </c>
-      <c r="N90">
-        <v>3.4</v>
-      </c>
-      <c r="O90">
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>2.05</v>
+      </c>
+      <c r="R90">
+        <v>1.8</v>
+      </c>
+      <c r="S90">
         <v>2.75</v>
       </c>
-      <c r="P90">
-        <v>0</v>
-      </c>
-      <c r="Q90">
-        <v>1.8</v>
-      </c>
-      <c r="R90">
-        <v>2.05</v>
-      </c>
-      <c r="S90">
-        <v>2.5</v>
-      </c>
       <c r="T90">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U90">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V90">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z90">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB90">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:28">
@@ -8306,7 +8306,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6841532</v>
+        <v>6842315</v>
       </c>
       <c r="C91" t="s">
         <v>37</v>
@@ -8315,76 +8315,76 @@
         <v>45205.625</v>
       </c>
       <c r="E91" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G91">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J91">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="K91">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="M91">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N91">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O91">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="P91">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q91">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="R91">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S91">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T91">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U91">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V91">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y91">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA91">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:28">
@@ -8662,7 +8662,7 @@
         <v>40</v>
       </c>
       <c r="F95" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8822,7 +8822,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6842327</v>
+        <v>6842451</v>
       </c>
       <c r="C97" t="s">
         <v>37</v>
@@ -8831,76 +8831,76 @@
         <v>45219.625</v>
       </c>
       <c r="E97" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F97" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J97">
+        <v>2.3</v>
+      </c>
+      <c r="K97">
+        <v>3.7</v>
+      </c>
+      <c r="L97">
+        <v>2.7</v>
+      </c>
+      <c r="M97">
+        <v>2.3</v>
+      </c>
+      <c r="N97">
+        <v>3.6</v>
+      </c>
+      <c r="O97">
+        <v>2.8</v>
+      </c>
+      <c r="P97">
+        <v>-0.25</v>
+      </c>
+      <c r="Q97">
+        <v>2.05</v>
+      </c>
+      <c r="R97">
+        <v>1.75</v>
+      </c>
+      <c r="S97">
+        <v>2.75</v>
+      </c>
+      <c r="T97">
         <v>1.9</v>
       </c>
-      <c r="K97">
-        <v>3.8</v>
-      </c>
-      <c r="L97">
-        <v>3.5</v>
-      </c>
-      <c r="M97">
-        <v>1.65</v>
-      </c>
-      <c r="N97">
-        <v>4.75</v>
-      </c>
-      <c r="O97">
-        <v>4.333</v>
-      </c>
-      <c r="P97">
-        <v>-1</v>
-      </c>
-      <c r="Q97">
-        <v>1.975</v>
-      </c>
-      <c r="R97">
-        <v>1.875</v>
-      </c>
-      <c r="S97">
-        <v>4</v>
-      </c>
-      <c r="T97">
-        <v>2.025</v>
-      </c>
       <c r="U97">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V97">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y97">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA97">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AB97">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="98" spans="1:28">
@@ -8908,7 +8908,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6842329</v>
+        <v>6842327</v>
       </c>
       <c r="C98" t="s">
         <v>37</v>
@@ -8917,58 +8917,58 @@
         <v>45219.625</v>
       </c>
       <c r="E98" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F98" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G98">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="s">
         <v>59</v>
       </c>
       <c r="J98">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="K98">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L98">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M98">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="N98">
         <v>4.75</v>
       </c>
       <c r="O98">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="P98">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="Q98">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R98">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S98">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T98">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="U98">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V98">
-        <v>0.444</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W98">
         <v>-1</v>
@@ -8977,16 +8977,16 @@
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:28">
@@ -8994,7 +8994,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6842449</v>
+        <v>6842329</v>
       </c>
       <c r="C99" t="s">
         <v>37</v>
@@ -9003,16 +9003,16 @@
         <v>45219.625</v>
       </c>
       <c r="E99" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F99" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G99">
         <v>3</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="s">
         <v>59</v>
@@ -9021,40 +9021,40 @@
         <v>1.75</v>
       </c>
       <c r="K99">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="L99">
-        <v>4.1</v>
+        <v>4.333</v>
       </c>
       <c r="M99">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="N99">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="O99">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P99">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q99">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="R99">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S99">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T99">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U99">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V99">
-        <v>0.8</v>
+        <v>0.444</v>
       </c>
       <c r="W99">
         <v>-1</v>
@@ -9063,16 +9063,16 @@
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AB99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:28">
@@ -9080,7 +9080,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6842330</v>
+        <v>6842449</v>
       </c>
       <c r="C100" t="s">
         <v>37</v>
@@ -9089,76 +9089,76 @@
         <v>45219.625</v>
       </c>
       <c r="E100" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J100">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="K100">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L100">
-        <v>2.05</v>
+        <v>4.1</v>
       </c>
       <c r="M100">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="N100">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O100">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="P100">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q100">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="R100">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S100">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T100">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U100">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V100">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W100">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB100">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9166,7 +9166,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6842326</v>
+        <v>6842330</v>
       </c>
       <c r="C101" t="s">
         <v>37</v>
@@ -9175,76 +9175,76 @@
         <v>45219.625</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F101" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G101">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J101">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="K101">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L101">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="M101">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N101">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O101">
+        <v>1.909</v>
+      </c>
+      <c r="P101">
+        <v>0.5</v>
+      </c>
+      <c r="Q101">
+        <v>1.9</v>
+      </c>
+      <c r="R101">
+        <v>1.95</v>
+      </c>
+      <c r="S101">
+        <v>3.25</v>
+      </c>
+      <c r="T101">
+        <v>1.9</v>
+      </c>
+      <c r="U101">
+        <v>1.95</v>
+      </c>
+      <c r="V101">
+        <v>-1</v>
+      </c>
+      <c r="W101">
         <v>2.8</v>
       </c>
-      <c r="P101">
-        <v>0</v>
-      </c>
-      <c r="Q101">
-        <v>1.825</v>
-      </c>
-      <c r="R101">
-        <v>2.025</v>
-      </c>
-      <c r="S101">
-        <v>2.5</v>
-      </c>
-      <c r="T101">
-        <v>2</v>
-      </c>
-      <c r="U101">
-        <v>1.85</v>
-      </c>
-      <c r="V101">
-        <v>-1</v>
-      </c>
-      <c r="W101">
-        <v>-1</v>
-      </c>
       <c r="X101">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z101">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="102" spans="1:28">
@@ -9252,7 +9252,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6842450</v>
+        <v>6842326</v>
       </c>
       <c r="C102" t="s">
         <v>37</v>
@@ -9261,55 +9261,55 @@
         <v>45219.625</v>
       </c>
       <c r="E102" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F102" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="s">
         <v>60</v>
       </c>
       <c r="J102">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="K102">
         <v>3.5</v>
       </c>
       <c r="L102">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="M102">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="N102">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="O102">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P102">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q102">
+        <v>1.825</v>
+      </c>
+      <c r="R102">
         <v>2.025</v>
       </c>
-      <c r="R102">
-        <v>1.825</v>
-      </c>
       <c r="S102">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T102">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U102">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V102">
         <v>-1</v>
@@ -9318,16 +9318,16 @@
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA102">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB102">
         <v>-1</v>
@@ -9338,7 +9338,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6842451</v>
+        <v>6842450</v>
       </c>
       <c r="C103" t="s">
         <v>37</v>
@@ -9347,55 +9347,55 @@
         <v>45219.625</v>
       </c>
       <c r="E103" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F103" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I103" t="s">
         <v>60</v>
       </c>
       <c r="J103">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="K103">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="L103">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="M103">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N103">
         <v>3.6</v>
       </c>
       <c r="O103">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P103">
         <v>-0.25</v>
       </c>
       <c r="Q103">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="R103">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S103">
         <v>2.75</v>
       </c>
       <c r="T103">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U103">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V103">
         <v>-1</v>
@@ -9404,19 +9404,19 @@
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AA103">
-        <v>0.45</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:28">
@@ -9510,7 +9510,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6842324</v>
+        <v>6842323</v>
       </c>
       <c r="C105" t="s">
         <v>37</v>
@@ -9519,67 +9519,67 @@
         <v>45222.625</v>
       </c>
       <c r="E105" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F105" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J105">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="K105">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L105">
-        <v>2.35</v>
+        <v>2.7</v>
       </c>
       <c r="M105">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="N105">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="O105">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="P105">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q105">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R105">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S105">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T105">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V105">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W105">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="Z105">
         <v>-1</v>
@@ -9588,7 +9588,7 @@
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="106" spans="1:28">
@@ -9596,7 +9596,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6842448</v>
+        <v>6842324</v>
       </c>
       <c r="C106" t="s">
         <v>37</v>
@@ -9605,76 +9605,76 @@
         <v>45222.625</v>
       </c>
       <c r="E106" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F106" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="s">
         <v>58</v>
       </c>
       <c r="J106">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="K106">
+        <v>3.6</v>
+      </c>
+      <c r="L106">
+        <v>2.35</v>
+      </c>
+      <c r="M106">
+        <v>3.8</v>
+      </c>
+      <c r="N106">
+        <v>4</v>
+      </c>
+      <c r="O106">
+        <v>1.85</v>
+      </c>
+      <c r="P106">
+        <v>0.5</v>
+      </c>
+      <c r="Q106">
+        <v>1.975</v>
+      </c>
+      <c r="R106">
+        <v>1.875</v>
+      </c>
+      <c r="S106">
         <v>3.5</v>
       </c>
-      <c r="L106">
-        <v>3.3</v>
-      </c>
-      <c r="M106">
-        <v>2</v>
-      </c>
-      <c r="N106">
-        <v>3.6</v>
-      </c>
-      <c r="O106">
-        <v>3.6</v>
-      </c>
-      <c r="P106">
-        <v>-0.5</v>
-      </c>
-      <c r="Q106">
-        <v>2</v>
-      </c>
-      <c r="R106">
-        <v>1.85</v>
-      </c>
-      <c r="S106">
+      <c r="T106">
+        <v>1.95</v>
+      </c>
+      <c r="U106">
+        <v>1.9</v>
+      </c>
+      <c r="V106">
+        <v>-1</v>
+      </c>
+      <c r="W106">
         <v>3</v>
       </c>
-      <c r="T106">
-        <v>1.85</v>
-      </c>
-      <c r="U106">
-        <v>2</v>
-      </c>
-      <c r="V106">
-        <v>-1</v>
-      </c>
-      <c r="W106">
-        <v>2.6</v>
-      </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z106">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="107" spans="1:28">
@@ -9682,7 +9682,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6842323</v>
+        <v>6842448</v>
       </c>
       <c r="C107" t="s">
         <v>37</v>
@@ -9691,76 +9691,76 @@
         <v>45222.625</v>
       </c>
       <c r="E107" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F107" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="G107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J107">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="K107">
+        <v>3.5</v>
+      </c>
+      <c r="L107">
         <v>3.3</v>
       </c>
-      <c r="L107">
-        <v>2.7</v>
-      </c>
       <c r="M107">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N107">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O107">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P107">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q107">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="R107">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S107">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T107">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U107">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V107">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA107">
         <v>-1</v>
       </c>
       <c r="AB107">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:28">
@@ -9952,7 +9952,7 @@
         <v>39</v>
       </c>
       <c r="F110" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>45226.625</v>
       </c>
       <c r="E112" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F112" t="s">
         <v>46</v>
@@ -10210,7 +10210,7 @@
         <v>52</v>
       </c>
       <c r="F113" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -10293,7 +10293,7 @@
         <v>45226.625</v>
       </c>
       <c r="E114" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F114" t="s">
         <v>51</v>
@@ -10984,7 +10984,7 @@
         <v>38</v>
       </c>
       <c r="F122" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -11414,7 +11414,7 @@
         <v>57</v>
       </c>
       <c r="F127" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11669,7 +11669,7 @@
         <v>45236.66666666666</v>
       </c>
       <c r="E130" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F130" t="s">
         <v>40</v>
@@ -11755,7 +11755,7 @@
         <v>45240.66666666666</v>
       </c>
       <c r="E131" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F131" t="s">
         <v>43</v>
@@ -12099,7 +12099,7 @@
         <v>45240.66666666666</v>
       </c>
       <c r="E135" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F135" t="s">
         <v>55</v>
@@ -12185,7 +12185,7 @@
         <v>45240.66666666666</v>
       </c>
       <c r="E136" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F136" t="s">
         <v>57</v>
@@ -12876,7 +12876,7 @@
         <v>57</v>
       </c>
       <c r="F144" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -13048,7 +13048,7 @@
         <v>55</v>
       </c>
       <c r="F146" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13475,7 +13475,7 @@
         <v>45254.66666666666</v>
       </c>
       <c r="E151" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F151" t="s">
         <v>43</v>
@@ -13564,7 +13564,7 @@
         <v>51</v>
       </c>
       <c r="F152" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -13991,7 +13991,7 @@
         <v>45257.66666666666</v>
       </c>
       <c r="E157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F157" t="s">
         <v>47</v>
@@ -14166,7 +14166,7 @@
         <v>44</v>
       </c>
       <c r="F159" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -14252,7 +14252,7 @@
         <v>53</v>
       </c>
       <c r="F160" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -14679,7 +14679,7 @@
         <v>45261.66666666666</v>
       </c>
       <c r="E165" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F165" t="s">
         <v>38</v>
@@ -15014,7 +15014,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6842359</v>
+        <v>6842360</v>
       </c>
       <c r="C169" t="s">
         <v>37</v>
@@ -15023,76 +15023,76 @@
         <v>45264.66666666666</v>
       </c>
       <c r="E169" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F169" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G169">
         <v>0</v>
       </c>
       <c r="H169">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J169">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="K169">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L169">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="M169">
+        <v>3.1</v>
+      </c>
+      <c r="N169">
         <v>3.5</v>
       </c>
-      <c r="N169">
-        <v>3.75</v>
-      </c>
       <c r="O169">
+        <v>2.25</v>
+      </c>
+      <c r="P169">
+        <v>0.25</v>
+      </c>
+      <c r="Q169">
+        <v>1.9</v>
+      </c>
+      <c r="R169">
         <v>1.95</v>
       </c>
-      <c r="P169">
-        <v>0.5</v>
-      </c>
-      <c r="Q169">
-        <v>1.825</v>
-      </c>
-      <c r="R169">
-        <v>2.025</v>
-      </c>
       <c r="S169">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T169">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U169">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V169">
         <v>-1</v>
       </c>
       <c r="W169">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X169">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z169">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA169">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="170" spans="1:28">
@@ -15100,7 +15100,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6842360</v>
+        <v>6842359</v>
       </c>
       <c r="C170" t="s">
         <v>37</v>
@@ -15109,76 +15109,76 @@
         <v>45264.66666666666</v>
       </c>
       <c r="E170" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F170" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G170">
         <v>0</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I170" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J170">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="K170">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L170">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="M170">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N170">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O170">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="P170">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q170">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R170">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S170">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T170">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U170">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V170">
         <v>-1</v>
       </c>
       <c r="W170">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y170">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA170">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB170">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:28">
@@ -15272,7 +15272,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6842363</v>
+        <v>6841541</v>
       </c>
       <c r="C172" t="s">
         <v>37</v>
@@ -15281,76 +15281,76 @@
         <v>45268.66666666666</v>
       </c>
       <c r="E172" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F172" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J172">
-        <v>1.285</v>
+        <v>2.25</v>
       </c>
       <c r="K172">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="L172">
-        <v>7.5</v>
+        <v>2.75</v>
       </c>
       <c r="M172">
-        <v>1.333</v>
+        <v>2.625</v>
       </c>
       <c r="N172">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="O172">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="P172">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="Q172">
+        <v>1.975</v>
+      </c>
+      <c r="R172">
         <v>1.875</v>
       </c>
-      <c r="R172">
+      <c r="S172">
+        <v>2.5</v>
+      </c>
+      <c r="T172">
+        <v>1.875</v>
+      </c>
+      <c r="U172">
         <v>1.975</v>
       </c>
-      <c r="S172">
-        <v>3</v>
-      </c>
-      <c r="T172">
-        <v>1.975</v>
-      </c>
-      <c r="U172">
-        <v>1.875</v>
-      </c>
       <c r="V172">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="W172">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA172">
         <v>-1</v>
       </c>
       <c r="AB172">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="173" spans="1:28">
@@ -15358,7 +15358,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6842471</v>
+        <v>6842363</v>
       </c>
       <c r="C173" t="s">
         <v>37</v>
@@ -15367,76 +15367,76 @@
         <v>45268.66666666666</v>
       </c>
       <c r="E173" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F173" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G173">
         <v>2</v>
       </c>
       <c r="H173">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J173">
-        <v>2.25</v>
+        <v>1.285</v>
       </c>
       <c r="K173">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="L173">
-        <v>2.75</v>
+        <v>7.5</v>
       </c>
       <c r="M173">
-        <v>2.4</v>
+        <v>1.333</v>
       </c>
       <c r="N173">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="O173">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="P173">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="Q173">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R173">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S173">
         <v>3</v>
       </c>
       <c r="T173">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="U173">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V173">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="W173">
         <v>-1</v>
       </c>
       <c r="X173">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z173">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="174" spans="1:28">
@@ -15444,7 +15444,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6842362</v>
+        <v>6842471</v>
       </c>
       <c r="C174" t="s">
         <v>37</v>
@@ -15453,55 +15453,55 @@
         <v>45268.66666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F174" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="G174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I174" t="s">
         <v>60</v>
       </c>
       <c r="J174">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="K174">
+        <v>3.5</v>
+      </c>
+      <c r="L174">
+        <v>2.75</v>
+      </c>
+      <c r="M174">
+        <v>2.4</v>
+      </c>
+      <c r="N174">
         <v>3.6</v>
       </c>
-      <c r="L174">
-        <v>3.9</v>
-      </c>
-      <c r="M174">
-        <v>1.8</v>
-      </c>
-      <c r="N174">
-        <v>3.8</v>
-      </c>
       <c r="O174">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="P174">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q174">
+        <v>1.825</v>
+      </c>
+      <c r="R174">
         <v>2.025</v>
-      </c>
-      <c r="R174">
-        <v>1.825</v>
       </c>
       <c r="S174">
         <v>3</v>
       </c>
       <c r="T174">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U174">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V174">
         <v>-1</v>
@@ -15510,19 +15510,19 @@
         <v>-1</v>
       </c>
       <c r="X174">
-        <v>3.2</v>
+        <v>1.625</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
+        <v>1.025</v>
+      </c>
+      <c r="AA174">
         <v>0.825</v>
       </c>
-      <c r="AA174">
-        <v>0</v>
-      </c>
       <c r="AB174">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:28">
@@ -15530,7 +15530,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6842368</v>
+        <v>6842362</v>
       </c>
       <c r="C175" t="s">
         <v>37</v>
@@ -15539,49 +15539,49 @@
         <v>45268.66666666666</v>
       </c>
       <c r="E175" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F175" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J175">
-        <v>1.285</v>
+        <v>1.8</v>
       </c>
       <c r="K175">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="L175">
-        <v>7.5</v>
+        <v>3.9</v>
       </c>
       <c r="M175">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="N175">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="O175">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P175">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q175">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="R175">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S175">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T175">
         <v>1.875</v>
@@ -15590,25 +15590,25 @@
         <v>1.975</v>
       </c>
       <c r="V175">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="W175">
         <v>-1</v>
       </c>
       <c r="X175">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y175">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB175">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:28">
@@ -15616,7 +15616,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6842470</v>
+        <v>6842361</v>
       </c>
       <c r="C176" t="s">
         <v>37</v>
@@ -15625,58 +15625,58 @@
         <v>45268.66666666666</v>
       </c>
       <c r="E176" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F176" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G176">
         <v>3</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176" t="s">
         <v>59</v>
       </c>
       <c r="J176">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="K176">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L176">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="M176">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="N176">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O176">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="P176">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q176">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R176">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S176">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T176">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U176">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V176">
-        <v>0.909</v>
+        <v>2.1</v>
       </c>
       <c r="W176">
         <v>-1</v>
@@ -15685,13 +15685,13 @@
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="Z176">
         <v>-1</v>
       </c>
       <c r="AA176">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB176">
         <v>-1</v>
@@ -15702,7 +15702,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6841541</v>
+        <v>6841998</v>
       </c>
       <c r="C177" t="s">
         <v>37</v>
@@ -15711,76 +15711,76 @@
         <v>45268.66666666666</v>
       </c>
       <c r="E177" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F177" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J177">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="K177">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L177">
-        <v>2.75</v>
+        <v>7.5</v>
       </c>
       <c r="M177">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="N177">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="O177">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="P177">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="Q177">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R177">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S177">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T177">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="U177">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V177">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="W177">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z177">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
         <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="178" spans="1:28">
@@ -15788,7 +15788,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6841998</v>
+        <v>6842470</v>
       </c>
       <c r="C178" t="s">
         <v>37</v>
@@ -15797,58 +15797,58 @@
         <v>45268.66666666666</v>
       </c>
       <c r="E178" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F178" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G178">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178" t="s">
         <v>59</v>
       </c>
       <c r="J178">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="K178">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L178">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="M178">
-        <v>1.3</v>
+        <v>1.909</v>
       </c>
       <c r="N178">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="O178">
-        <v>11</v>
+        <v>3.75</v>
       </c>
       <c r="P178">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q178">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R178">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S178">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T178">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U178">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V178">
-        <v>0.3</v>
+        <v>0.909</v>
       </c>
       <c r="W178">
         <v>-1</v>
@@ -15857,16 +15857,16 @@
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="Z178">
         <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB178">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:28">
@@ -15874,7 +15874,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6842361</v>
+        <v>6842368</v>
       </c>
       <c r="C179" t="s">
         <v>37</v>
@@ -15883,40 +15883,40 @@
         <v>45268.66666666666</v>
       </c>
       <c r="E179" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F179" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="s">
         <v>59</v>
       </c>
       <c r="J179">
-        <v>2.75</v>
+        <v>1.285</v>
       </c>
       <c r="K179">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="L179">
-        <v>2.25</v>
+        <v>7.5</v>
       </c>
       <c r="M179">
-        <v>3.1</v>
+        <v>1.45</v>
       </c>
       <c r="N179">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="O179">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="P179">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q179">
         <v>1.95</v>
@@ -15925,16 +15925,16 @@
         <v>1.9</v>
       </c>
       <c r="S179">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="T179">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U179">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V179">
-        <v>2.1</v>
+        <v>0.45</v>
       </c>
       <c r="W179">
         <v>-1</v>
@@ -15943,16 +15943,16 @@
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA179">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="180" spans="1:28">
@@ -15960,7 +15960,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6842472</v>
+        <v>6842369</v>
       </c>
       <c r="C180" t="s">
         <v>37</v>
@@ -15969,76 +15969,76 @@
         <v>45271.66666666666</v>
       </c>
       <c r="E180" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F180" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J180">
+        <v>1.666</v>
+      </c>
+      <c r="K180">
+        <v>3.5</v>
+      </c>
+      <c r="L180">
+        <v>4.75</v>
+      </c>
+      <c r="M180">
         <v>1.727</v>
       </c>
-      <c r="K180">
-        <v>3.75</v>
-      </c>
-      <c r="L180">
+      <c r="N180">
         <v>4</v>
       </c>
-      <c r="M180">
+      <c r="O180">
+        <v>4.333</v>
+      </c>
+      <c r="P180">
+        <v>-0.75</v>
+      </c>
+      <c r="Q180">
+        <v>2</v>
+      </c>
+      <c r="R180">
         <v>1.85</v>
       </c>
-      <c r="N180">
-        <v>3.6</v>
-      </c>
-      <c r="O180">
-        <v>4</v>
-      </c>
-      <c r="P180">
+      <c r="S180">
+        <v>3</v>
+      </c>
+      <c r="T180">
+        <v>1.85</v>
+      </c>
+      <c r="U180">
+        <v>2</v>
+      </c>
+      <c r="V180">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="W180">
+        <v>-1</v>
+      </c>
+      <c r="X180">
+        <v>-1</v>
+      </c>
+      <c r="Y180">
+        <v>0.5</v>
+      </c>
+      <c r="Z180">
         <v>-0.5</v>
       </c>
-      <c r="Q180">
-        <v>1.9</v>
-      </c>
-      <c r="R180">
-        <v>1.95</v>
-      </c>
-      <c r="S180">
-        <v>2.75</v>
-      </c>
-      <c r="T180">
-        <v>1.95</v>
-      </c>
-      <c r="U180">
-        <v>1.9</v>
-      </c>
-      <c r="V180">
-        <v>-1</v>
-      </c>
-      <c r="W180">
-        <v>2.6</v>
-      </c>
-      <c r="X180">
-        <v>-1</v>
-      </c>
-      <c r="Y180">
-        <v>-1</v>
-      </c>
-      <c r="Z180">
-        <v>0.95</v>
-      </c>
       <c r="AA180">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB180">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:28">
@@ -16046,7 +16046,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6842369</v>
+        <v>6842472</v>
       </c>
       <c r="C181" t="s">
         <v>37</v>
@@ -16055,76 +16055,76 @@
         <v>45271.66666666666</v>
       </c>
       <c r="E181" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F181" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G181">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J181">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="K181">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L181">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M181">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="N181">
+        <v>3.6</v>
+      </c>
+      <c r="O181">
         <v>4</v>
       </c>
-      <c r="O181">
-        <v>4.333</v>
-      </c>
       <c r="P181">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q181">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R181">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S181">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T181">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="U181">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V181">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA181">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="182" spans="1:28">
@@ -16132,7 +16132,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6842371</v>
+        <v>6842475</v>
       </c>
       <c r="C182" t="s">
         <v>37</v>
@@ -16141,55 +16141,55 @@
         <v>45275.66666666666</v>
       </c>
       <c r="E182" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F182" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G182">
         <v>0</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182" t="s">
         <v>60</v>
       </c>
       <c r="J182">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="K182">
         <v>3.5</v>
       </c>
       <c r="L182">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M182">
         <v>2.05</v>
       </c>
       <c r="N182">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O182">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P182">
         <v>-0.25</v>
       </c>
       <c r="Q182">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R182">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S182">
         <v>3</v>
       </c>
       <c r="T182">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U182">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V182">
         <v>-1</v>
@@ -16198,19 +16198,19 @@
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AA182">
         <v>-1</v>
       </c>
       <c r="AB182">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:28">
@@ -16313,7 +16313,7 @@
         <v>45275.66666666666</v>
       </c>
       <c r="E184" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F184" t="s">
         <v>45</v>
@@ -16390,7 +16390,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6842475</v>
+        <v>6842372</v>
       </c>
       <c r="C185" t="s">
         <v>37</v>
@@ -16399,56 +16399,56 @@
         <v>45275.66666666666</v>
       </c>
       <c r="E185" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F185" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I185" t="s">
         <v>60</v>
       </c>
       <c r="J185">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="K185">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L185">
+        <v>2.5</v>
+      </c>
+      <c r="M185">
         <v>2.75</v>
       </c>
-      <c r="M185">
+      <c r="N185">
+        <v>3.2</v>
+      </c>
+      <c r="O185">
+        <v>2.7</v>
+      </c>
+      <c r="P185">
+        <v>0</v>
+      </c>
+      <c r="Q185">
+        <v>1.95</v>
+      </c>
+      <c r="R185">
+        <v>1.9</v>
+      </c>
+      <c r="S185">
+        <v>2.25</v>
+      </c>
+      <c r="T185">
+        <v>1.8</v>
+      </c>
+      <c r="U185">
         <v>2.05</v>
       </c>
-      <c r="N185">
-        <v>3.75</v>
-      </c>
-      <c r="O185">
-        <v>3.4</v>
-      </c>
-      <c r="P185">
-        <v>-0.25</v>
-      </c>
-      <c r="Q185">
-        <v>1.825</v>
-      </c>
-      <c r="R185">
-        <v>2.025</v>
-      </c>
-      <c r="S185">
-        <v>3</v>
-      </c>
-      <c r="T185">
-        <v>1.85</v>
-      </c>
-      <c r="U185">
-        <v>2</v>
-      </c>
       <c r="V185">
         <v>-1</v>
       </c>
@@ -16456,19 +16456,19 @@
         <v>-1</v>
       </c>
       <c r="X185">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="Y185">
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA185">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB185">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:28">
@@ -16562,7 +16562,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6841542</v>
+        <v>6842371</v>
       </c>
       <c r="C187" t="s">
         <v>37</v>
@@ -16571,76 +16571,76 @@
         <v>45275.66666666666</v>
       </c>
       <c r="E187" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F187" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G187">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H187">
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J187">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="K187">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="L187">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M187">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="N187">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="O187">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="P187">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q187">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R187">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S187">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T187">
+        <v>2</v>
+      </c>
+      <c r="U187">
         <v>1.85</v>
       </c>
-      <c r="U187">
-        <v>2</v>
-      </c>
       <c r="V187">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W187">
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y187">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z187">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA187">
+        <v>-1</v>
+      </c>
+      <c r="AB187">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB187">
-        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:28">
@@ -16648,7 +16648,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6842372</v>
+        <v>6841999</v>
       </c>
       <c r="C188" t="s">
         <v>37</v>
@@ -16657,76 +16657,76 @@
         <v>45275.66666666666</v>
       </c>
       <c r="E188" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F188" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H188">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I188" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J188">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="K188">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L188">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="M188">
-        <v>2.75</v>
+        <v>5.75</v>
       </c>
       <c r="N188">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="O188">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="P188">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q188">
+        <v>1.8</v>
+      </c>
+      <c r="R188">
+        <v>2.05</v>
+      </c>
+      <c r="S188">
+        <v>3</v>
+      </c>
+      <c r="T188">
         <v>1.95</v>
       </c>
-      <c r="R188">
+      <c r="U188">
         <v>1.9</v>
       </c>
-      <c r="S188">
-        <v>2.25</v>
-      </c>
-      <c r="T188">
-        <v>1.8</v>
-      </c>
-      <c r="U188">
-        <v>2.05</v>
-      </c>
       <c r="V188">
         <v>-1</v>
       </c>
       <c r="W188">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X188">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z188">
+        <v>-1</v>
+      </c>
+      <c r="AA188">
+        <v>-1</v>
+      </c>
+      <c r="AB188">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA188">
-        <v>0.8</v>
-      </c>
-      <c r="AB188">
-        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:28">
@@ -16734,7 +16734,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6841999</v>
+        <v>6842473</v>
       </c>
       <c r="C189" t="s">
         <v>37</v>
@@ -16743,76 +16743,76 @@
         <v>45275.66666666666</v>
       </c>
       <c r="E189" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F189" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I189" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J189">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="K189">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L189">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="M189">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="N189">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="O189">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="P189">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q189">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R189">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S189">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T189">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U189">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V189">
         <v>-1</v>
       </c>
       <c r="W189">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X189">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y189">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB189">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:28">
@@ -16832,7 +16832,7 @@
         <v>54</v>
       </c>
       <c r="F190" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G190">
         <v>3</v>
@@ -16906,7 +16906,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6842473</v>
+        <v>6841542</v>
       </c>
       <c r="C191" t="s">
         <v>37</v>
@@ -16915,73 +16915,73 @@
         <v>45275.66666666666</v>
       </c>
       <c r="E191" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F191" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G191">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H191">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I191" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J191">
-        <v>3.8</v>
+        <v>1.444</v>
       </c>
       <c r="K191">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="L191">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="M191">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="N191">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="O191">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="P191">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q191">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R191">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S191">
         <v>2.75</v>
       </c>
       <c r="T191">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U191">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V191">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W191">
         <v>-1</v>
       </c>
       <c r="X191">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y191">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z191">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA191">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB191">
         <v>-1</v>
@@ -17173,7 +17173,7 @@
         <v>45282.66666666666</v>
       </c>
       <c r="E194" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F194" t="s">
         <v>53</v>
@@ -17348,7 +17348,7 @@
         <v>57</v>
       </c>
       <c r="F196" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G196">
         <v>2</v>
@@ -17520,7 +17520,7 @@
         <v>41</v>
       </c>
       <c r="F198" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G198">
         <v>2</v>
@@ -17775,7 +17775,7 @@
         <v>45303.66666666666</v>
       </c>
       <c r="E201" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F201" t="s">
         <v>53</v>
@@ -18205,10 +18205,10 @@
         <v>45304.52083333334</v>
       </c>
       <c r="E206" t="s">
+        <v>48</v>
+      </c>
+      <c r="F206" t="s">
         <v>49</v>
-      </c>
-      <c r="F206" t="s">
-        <v>50</v>
       </c>
       <c r="G206">
         <v>2</v>
@@ -18540,7 +18540,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6841545</v>
+        <v>6842385</v>
       </c>
       <c r="C210" t="s">
         <v>37</v>
@@ -18549,40 +18549,40 @@
         <v>45310.66666666666</v>
       </c>
       <c r="E210" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F210" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I210" t="s">
         <v>58</v>
       </c>
       <c r="J210">
-        <v>1.363</v>
+        <v>1.9</v>
       </c>
       <c r="K210">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="L210">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="M210">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="N210">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="O210">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P210">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q210">
         <v>2.025</v>
@@ -18591,19 +18591,19 @@
         <v>1.825</v>
       </c>
       <c r="S210">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T210">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U210">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V210">
         <v>-1</v>
       </c>
       <c r="W210">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="X210">
         <v>-1</v>
@@ -18615,10 +18615,10 @@
         <v>0.825</v>
       </c>
       <c r="AA210">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB210">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:28">
@@ -18626,7 +18626,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6842385</v>
+        <v>6842487</v>
       </c>
       <c r="C211" t="s">
         <v>37</v>
@@ -18635,76 +18635,76 @@
         <v>45310.66666666666</v>
       </c>
       <c r="E211" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F211" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J211">
+        <v>3</v>
+      </c>
+      <c r="K211">
+        <v>3.5</v>
+      </c>
+      <c r="L211">
+        <v>2.25</v>
+      </c>
+      <c r="M211">
+        <v>3.75</v>
+      </c>
+      <c r="N211">
+        <v>3.3</v>
+      </c>
+      <c r="O211">
+        <v>2.1</v>
+      </c>
+      <c r="P211">
+        <v>0.25</v>
+      </c>
+      <c r="Q211">
+        <v>2</v>
+      </c>
+      <c r="R211">
+        <v>1.85</v>
+      </c>
+      <c r="S211">
+        <v>2.25</v>
+      </c>
+      <c r="T211">
+        <v>1.95</v>
+      </c>
+      <c r="U211">
         <v>1.9</v>
       </c>
-      <c r="K211">
-        <v>3.7</v>
-      </c>
-      <c r="L211">
-        <v>3.75</v>
-      </c>
-      <c r="M211">
-        <v>1.8</v>
-      </c>
-      <c r="N211">
-        <v>4.2</v>
-      </c>
-      <c r="O211">
-        <v>4</v>
-      </c>
-      <c r="P211">
-        <v>-0.75</v>
-      </c>
-      <c r="Q211">
-        <v>2.025</v>
-      </c>
-      <c r="R211">
-        <v>1.825</v>
-      </c>
-      <c r="S211">
-        <v>3.25</v>
-      </c>
-      <c r="T211">
-        <v>1.875</v>
-      </c>
-      <c r="U211">
-        <v>1.975</v>
-      </c>
       <c r="V211">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="W211">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X211">
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z211">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA211">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="212" spans="1:28">
@@ -18712,7 +18712,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6842487</v>
+        <v>6841545</v>
       </c>
       <c r="C212" t="s">
         <v>37</v>
@@ -18721,76 +18721,76 @@
         <v>45310.66666666666</v>
       </c>
       <c r="E212" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F212" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G212">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J212">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="K212">
+        <v>5</v>
+      </c>
+      <c r="L212">
+        <v>7.5</v>
+      </c>
+      <c r="M212">
+        <v>1.3</v>
+      </c>
+      <c r="N212">
+        <v>5.75</v>
+      </c>
+      <c r="O212">
+        <v>8</v>
+      </c>
+      <c r="P212">
+        <v>-1.75</v>
+      </c>
+      <c r="Q212">
+        <v>2.025</v>
+      </c>
+      <c r="R212">
+        <v>1.825</v>
+      </c>
+      <c r="S212">
         <v>3.5</v>
       </c>
-      <c r="L212">
-        <v>2.25</v>
-      </c>
-      <c r="M212">
-        <v>3.75</v>
-      </c>
-      <c r="N212">
-        <v>3.3</v>
-      </c>
-      <c r="O212">
-        <v>2.1</v>
-      </c>
-      <c r="P212">
-        <v>0.25</v>
-      </c>
-      <c r="Q212">
-        <v>2</v>
-      </c>
-      <c r="R212">
-        <v>1.85</v>
-      </c>
-      <c r="S212">
-        <v>2.25</v>
-      </c>
       <c r="T212">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U212">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V212">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="W212">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z212">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA212">
         <v>-1</v>
       </c>
       <c r="AB212">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="213" spans="1:28">
@@ -18970,7 +18970,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7711428</v>
+        <v>6842489</v>
       </c>
       <c r="C215" t="s">
         <v>37</v>
@@ -18979,40 +18979,40 @@
         <v>45313.66666666666</v>
       </c>
       <c r="E215" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F215" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G215">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I215" t="s">
         <v>59</v>
       </c>
       <c r="J215">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="K215">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L215">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="M215">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="N215">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O215">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="P215">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q215">
         <v>2</v>
@@ -19021,16 +19021,16 @@
         <v>1.85</v>
       </c>
       <c r="S215">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T215">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U215">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V215">
-        <v>0.615</v>
+        <v>1.05</v>
       </c>
       <c r="W215">
         <v>-1</v>
@@ -19045,10 +19045,10 @@
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AB215">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:28">
@@ -19142,7 +19142,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6842489</v>
+        <v>6842488</v>
       </c>
       <c r="C217" t="s">
         <v>37</v>
@@ -19151,13 +19151,13 @@
         <v>45313.66666666666</v>
       </c>
       <c r="E217" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F217" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G217">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H217">
         <v>1</v>
@@ -19166,61 +19166,61 @@
         <v>59</v>
       </c>
       <c r="J217">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="K217">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L217">
-        <v>2.9</v>
+        <v>2.35</v>
       </c>
       <c r="M217">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="N217">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="O217">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="P217">
+        <v>0.25</v>
+      </c>
+      <c r="Q217">
+        <v>1.85</v>
+      </c>
+      <c r="R217">
+        <v>2</v>
+      </c>
+      <c r="S217">
+        <v>2.75</v>
+      </c>
+      <c r="T217">
+        <v>2</v>
+      </c>
+      <c r="U217">
+        <v>1.85</v>
+      </c>
+      <c r="V217">
+        <v>2</v>
+      </c>
+      <c r="W217">
+        <v>-1</v>
+      </c>
+      <c r="X217">
+        <v>-1</v>
+      </c>
+      <c r="Y217">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z217">
+        <v>-1</v>
+      </c>
+      <c r="AA217">
+        <v>0.5</v>
+      </c>
+      <c r="AB217">
         <v>-0.5</v>
-      </c>
-      <c r="Q217">
-        <v>2</v>
-      </c>
-      <c r="R217">
-        <v>1.85</v>
-      </c>
-      <c r="S217">
-        <v>3.25</v>
-      </c>
-      <c r="T217">
-        <v>1.925</v>
-      </c>
-      <c r="U217">
-        <v>1.925</v>
-      </c>
-      <c r="V217">
-        <v>1.05</v>
-      </c>
-      <c r="W217">
-        <v>-1</v>
-      </c>
-      <c r="X217">
-        <v>-1</v>
-      </c>
-      <c r="Y217">
-        <v>1</v>
-      </c>
-      <c r="Z217">
-        <v>-1</v>
-      </c>
-      <c r="AA217">
-        <v>0.925</v>
-      </c>
-      <c r="AB217">
-        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:28">
@@ -19228,7 +19228,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6842488</v>
+        <v>7711428</v>
       </c>
       <c r="C218" t="s">
         <v>37</v>
@@ -19237,58 +19237,58 @@
         <v>45313.66666666666</v>
       </c>
       <c r="E218" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F218" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G218">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="s">
         <v>59</v>
       </c>
       <c r="J218">
-        <v>2.75</v>
+        <v>1.571</v>
       </c>
       <c r="K218">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="L218">
-        <v>2.35</v>
+        <v>5.25</v>
       </c>
       <c r="M218">
+        <v>1.615</v>
+      </c>
+      <c r="N218">
+        <v>4.2</v>
+      </c>
+      <c r="O218">
+        <v>5.25</v>
+      </c>
+      <c r="P218">
+        <v>-1</v>
+      </c>
+      <c r="Q218">
+        <v>2</v>
+      </c>
+      <c r="R218">
+        <v>1.85</v>
+      </c>
+      <c r="S218">
         <v>3</v>
       </c>
-      <c r="N218">
-        <v>3.4</v>
-      </c>
-      <c r="O218">
-        <v>2.3</v>
-      </c>
-      <c r="P218">
-        <v>0.25</v>
-      </c>
-      <c r="Q218">
-        <v>1.85</v>
-      </c>
-      <c r="R218">
-        <v>2</v>
-      </c>
-      <c r="S218">
-        <v>2.75</v>
-      </c>
       <c r="T218">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U218">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V218">
-        <v>2</v>
+        <v>0.615</v>
       </c>
       <c r="W218">
         <v>-1</v>
@@ -19297,16 +19297,16 @@
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z218">
         <v>-1</v>
       </c>
       <c r="AA218">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB218">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:28">
@@ -19486,7 +19486,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6842390</v>
+        <v>6842388</v>
       </c>
       <c r="C221" t="s">
         <v>37</v>
@@ -19495,76 +19495,76 @@
         <v>45317.66666666666</v>
       </c>
       <c r="E221" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F221" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G221">
         <v>0</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I221" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J221">
-        <v>1.222</v>
+        <v>1.8</v>
       </c>
       <c r="K221">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="L221">
-        <v>15</v>
+        <v>4.2</v>
       </c>
       <c r="M221">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="N221">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O221">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="P221">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q221">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R221">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S221">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T221">
+        <v>1.95</v>
+      </c>
+      <c r="U221">
         <v>1.9</v>
       </c>
-      <c r="U221">
-        <v>1.95</v>
-      </c>
       <c r="V221">
         <v>-1</v>
       </c>
       <c r="W221">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="X221">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y221">
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA221">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB221">
-        <v>0.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:28">
@@ -19572,7 +19572,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6842388</v>
+        <v>6842003</v>
       </c>
       <c r="C222" t="s">
         <v>37</v>
@@ -19581,76 +19581,76 @@
         <v>45317.66666666666</v>
       </c>
       <c r="E222" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F222" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G222">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H222">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I222" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J222">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="K222">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="L222">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M222">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="N222">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O222">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P222">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q222">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="R222">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S222">
         <v>3</v>
       </c>
       <c r="T222">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U222">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V222">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W222">
         <v>-1</v>
       </c>
       <c r="X222">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y222">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z222">
+        <v>-1</v>
+      </c>
+      <c r="AA222">
         <v>0.8</v>
       </c>
-      <c r="AA222">
-        <v>0</v>
-      </c>
       <c r="AB222">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:28">
@@ -19658,7 +19658,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6842003</v>
+        <v>6842389</v>
       </c>
       <c r="C223" t="s">
         <v>37</v>
@@ -19667,49 +19667,49 @@
         <v>45317.66666666666</v>
       </c>
       <c r="E223" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F223" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G223">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="s">
         <v>59</v>
       </c>
       <c r="J223">
-        <v>1.55</v>
+        <v>3.4</v>
       </c>
       <c r="K223">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="L223">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M223">
-        <v>1.4</v>
+        <v>3.25</v>
       </c>
       <c r="N223">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="O223">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="P223">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q223">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="R223">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S223">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T223">
         <v>1.8</v>
@@ -19718,7 +19718,7 @@
         <v>2.05</v>
       </c>
       <c r="V223">
-        <v>0.3999999999999999</v>
+        <v>2.25</v>
       </c>
       <c r="W223">
         <v>-1</v>
@@ -19727,16 +19727,16 @@
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="Z223">
         <v>-1</v>
       </c>
       <c r="AA223">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB223">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="224" spans="1:28">
@@ -19744,7 +19744,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6842389</v>
+        <v>6842490</v>
       </c>
       <c r="C224" t="s">
         <v>37</v>
@@ -19753,13 +19753,13 @@
         <v>45317.66666666666</v>
       </c>
       <c r="E224" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F224" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G224">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H224">
         <v>0</v>
@@ -19768,43 +19768,43 @@
         <v>59</v>
       </c>
       <c r="J224">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="K224">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L224">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="M224">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="N224">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O224">
+        <v>4.333</v>
+      </c>
+      <c r="P224">
+        <v>-0.5</v>
+      </c>
+      <c r="Q224">
+        <v>1.825</v>
+      </c>
+      <c r="R224">
+        <v>2.025</v>
+      </c>
+      <c r="S224">
+        <v>3</v>
+      </c>
+      <c r="T224">
         <v>2.05</v>
       </c>
-      <c r="P224">
-        <v>0.25</v>
-      </c>
-      <c r="Q224">
-        <v>2.05</v>
-      </c>
-      <c r="R224">
+      <c r="U224">
         <v>1.8</v>
       </c>
-      <c r="S224">
-        <v>2.75</v>
-      </c>
-      <c r="T224">
-        <v>1.8</v>
-      </c>
-      <c r="U224">
-        <v>2.05</v>
-      </c>
       <c r="V224">
-        <v>2.25</v>
+        <v>0.8</v>
       </c>
       <c r="W224">
         <v>-1</v>
@@ -19813,16 +19813,16 @@
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="Z224">
         <v>-1</v>
       </c>
       <c r="AA224">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB224">
-        <v>1.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:28">
@@ -19830,7 +19830,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6842490</v>
+        <v>6842491</v>
       </c>
       <c r="C225" t="s">
         <v>37</v>
@@ -19839,10 +19839,10 @@
         <v>45317.66666666666</v>
       </c>
       <c r="E225" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F225" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G225">
         <v>3</v>
@@ -19863,34 +19863,34 @@
         <v>4.5</v>
       </c>
       <c r="M225">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="N225">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O225">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P225">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q225">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R225">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S225">
         <v>3</v>
       </c>
       <c r="T225">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="U225">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V225">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="W225">
         <v>-1</v>
@@ -19899,7 +19899,7 @@
         <v>-1</v>
       </c>
       <c r="Y225">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z225">
         <v>-1</v>
@@ -19916,7 +19916,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6842491</v>
+        <v>6842390</v>
       </c>
       <c r="C226" t="s">
         <v>37</v>
@@ -19925,76 +19925,76 @@
         <v>45317.66666666666</v>
       </c>
       <c r="E226" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F226" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G226">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H226">
         <v>0</v>
       </c>
       <c r="I226" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J226">
-        <v>1.727</v>
+        <v>1.222</v>
       </c>
       <c r="K226">
-        <v>3.9</v>
+        <v>6</v>
       </c>
       <c r="L226">
-        <v>4.5</v>
+        <v>15</v>
       </c>
       <c r="M226">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="N226">
+        <v>5</v>
+      </c>
+      <c r="O226">
+        <v>7.5</v>
+      </c>
+      <c r="P226">
+        <v>-1.5</v>
+      </c>
+      <c r="Q226">
+        <v>2</v>
+      </c>
+      <c r="R226">
+        <v>1.85</v>
+      </c>
+      <c r="S226">
+        <v>3.25</v>
+      </c>
+      <c r="T226">
+        <v>1.9</v>
+      </c>
+      <c r="U226">
+        <v>1.95</v>
+      </c>
+      <c r="V226">
+        <v>-1</v>
+      </c>
+      <c r="W226">
         <v>4</v>
       </c>
-      <c r="O226">
-        <v>4.5</v>
-      </c>
-      <c r="P226">
-        <v>-0.75</v>
-      </c>
-      <c r="Q226">
-        <v>1.9</v>
-      </c>
-      <c r="R226">
-        <v>1.95</v>
-      </c>
-      <c r="S226">
-        <v>3</v>
-      </c>
-      <c r="T226">
-        <v>1.975</v>
-      </c>
-      <c r="U226">
-        <v>1.875</v>
-      </c>
-      <c r="V226">
-        <v>0.7</v>
-      </c>
-      <c r="W226">
-        <v>-1</v>
-      </c>
       <c r="X226">
         <v>-1</v>
       </c>
       <c r="Y226">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA226">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB226">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="227" spans="1:28">
@@ -20002,7 +20002,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6842391</v>
+        <v>6841546</v>
       </c>
       <c r="C227" t="s">
         <v>37</v>
@@ -20011,76 +20011,76 @@
         <v>45320.66666666666</v>
       </c>
       <c r="E227" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F227" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227" t="s">
         <v>58</v>
       </c>
       <c r="J227">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="K227">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="L227">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="M227">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N227">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="O227">
+        <v>1.571</v>
+      </c>
+      <c r="P227">
+        <v>1</v>
+      </c>
+      <c r="Q227">
+        <v>1.875</v>
+      </c>
+      <c r="R227">
+        <v>1.975</v>
+      </c>
+      <c r="S227">
         <v>3</v>
       </c>
-      <c r="P227">
-        <v>-0.25</v>
-      </c>
-      <c r="Q227">
-        <v>1.9</v>
-      </c>
-      <c r="R227">
-        <v>1.95</v>
-      </c>
-      <c r="S227">
-        <v>3.5</v>
-      </c>
       <c r="T227">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U227">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V227">
         <v>-1</v>
       </c>
       <c r="W227">
-        <v>3</v>
+        <v>3.333</v>
       </c>
       <c r="X227">
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="Z227">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB227">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="228" spans="1:28">
@@ -20100,7 +20100,7 @@
         <v>40</v>
       </c>
       <c r="F228" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G228">
         <v>1</v>
@@ -20174,7 +20174,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6841546</v>
+        <v>6842391</v>
       </c>
       <c r="C229" t="s">
         <v>37</v>
@@ -20183,76 +20183,76 @@
         <v>45320.66666666666</v>
       </c>
       <c r="E229" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F229" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I229" t="s">
         <v>58</v>
       </c>
       <c r="J229">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="K229">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="L229">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="M229">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N229">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="O229">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="P229">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q229">
+        <v>1.9</v>
+      </c>
+      <c r="R229">
+        <v>1.95</v>
+      </c>
+      <c r="S229">
+        <v>3.5</v>
+      </c>
+      <c r="T229">
         <v>1.875</v>
       </c>
-      <c r="R229">
+      <c r="U229">
         <v>1.975</v>
       </c>
-      <c r="S229">
+      <c r="V229">
+        <v>-1</v>
+      </c>
+      <c r="W229">
         <v>3</v>
       </c>
-      <c r="T229">
-        <v>1.825</v>
-      </c>
-      <c r="U229">
-        <v>2.025</v>
-      </c>
-      <c r="V229">
-        <v>-1</v>
-      </c>
-      <c r="W229">
-        <v>3.333</v>
-      </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
+        <v>-0.5</v>
+      </c>
+      <c r="Z229">
+        <v>0.475</v>
+      </c>
+      <c r="AA229">
         <v>0.875</v>
       </c>
-      <c r="Z229">
-        <v>-1</v>
-      </c>
-      <c r="AA229">
-        <v>-1</v>
-      </c>
       <c r="AB229">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:28">
@@ -20260,7 +20260,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6841547</v>
+        <v>6842495</v>
       </c>
       <c r="C230" t="s">
         <v>37</v>
@@ -20269,76 +20269,76 @@
         <v>45324.66666666666</v>
       </c>
       <c r="E230" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F230" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G230">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I230" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J230">
-        <v>1.85</v>
+        <v>4.2</v>
       </c>
       <c r="K230">
         <v>4</v>
       </c>
       <c r="L230">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="M230">
-        <v>1.65</v>
+        <v>6.5</v>
       </c>
       <c r="N230">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O230">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="P230">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="Q230">
+        <v>1.8</v>
+      </c>
+      <c r="R230">
+        <v>2.05</v>
+      </c>
+      <c r="S230">
+        <v>2.75</v>
+      </c>
+      <c r="T230">
         <v>1.825</v>
       </c>
-      <c r="R230">
+      <c r="U230">
         <v>2.025</v>
       </c>
-      <c r="S230">
-        <v>3</v>
-      </c>
-      <c r="T230">
-        <v>2.05</v>
-      </c>
-      <c r="U230">
-        <v>1.8</v>
-      </c>
       <c r="V230">
         <v>-1</v>
       </c>
       <c r="W230">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X230">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AA230">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB230">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:28">
@@ -20346,7 +20346,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6842495</v>
+        <v>6841547</v>
       </c>
       <c r="C231" t="s">
         <v>37</v>
@@ -20355,76 +20355,76 @@
         <v>45324.66666666666</v>
       </c>
       <c r="E231" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F231" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G231">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I231" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J231">
-        <v>4.2</v>
+        <v>1.85</v>
       </c>
       <c r="K231">
         <v>4</v>
       </c>
       <c r="L231">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="M231">
-        <v>6.5</v>
+        <v>1.65</v>
       </c>
       <c r="N231">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="O231">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="P231">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q231">
+        <v>1.825</v>
+      </c>
+      <c r="R231">
+        <v>2.025</v>
+      </c>
+      <c r="S231">
+        <v>3</v>
+      </c>
+      <c r="T231">
+        <v>2.05</v>
+      </c>
+      <c r="U231">
         <v>1.8</v>
       </c>
-      <c r="R231">
-        <v>2.05</v>
-      </c>
-      <c r="S231">
-        <v>2.75</v>
-      </c>
-      <c r="T231">
-        <v>1.825</v>
-      </c>
-      <c r="U231">
-        <v>2.025</v>
-      </c>
       <c r="V231">
         <v>-1</v>
       </c>
       <c r="W231">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X231">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y231">
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AA231">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB231">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="232" spans="1:28">
@@ -20613,7 +20613,7 @@
         <v>45324.66666666666</v>
       </c>
       <c r="E234" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F234" t="s">
         <v>38</v>
@@ -20699,7 +20699,7 @@
         <v>45324.66666666666</v>
       </c>
       <c r="E235" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F235" t="s">
         <v>44</v>
@@ -21132,7 +21132,7 @@
         <v>47</v>
       </c>
       <c r="F240" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G240">
         <v>3</v>
@@ -21387,7 +21387,7 @@
         <v>45331.66666666666</v>
       </c>
       <c r="E243" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F243" t="s">
         <v>44</v>
@@ -21734,7 +21734,7 @@
         <v>39</v>
       </c>
       <c r="F247" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G247">
         <v>3</v>
@@ -21989,7 +21989,7 @@
         <v>45338.66666666666</v>
       </c>
       <c r="E250" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F250" t="s">
         <v>55</v>
@@ -22078,7 +22078,7 @@
         <v>52</v>
       </c>
       <c r="F251" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G251">
         <v>1</v>
@@ -22250,7 +22250,7 @@
         <v>42</v>
       </c>
       <c r="F253" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G253">
         <v>3</v>
@@ -22849,7 +22849,7 @@
         <v>45341.66666666666</v>
       </c>
       <c r="E260" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F260" t="s">
         <v>40</v>
@@ -22935,7 +22935,7 @@
         <v>45345.66666666666</v>
       </c>
       <c r="E261" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F261" t="s">
         <v>40</v>
@@ -23454,7 +23454,7 @@
         <v>56</v>
       </c>
       <c r="F267" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G267">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>46</v>
       </c>
       <c r="F270" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G270">
         <v>2</v>
@@ -23970,7 +23970,7 @@
         <v>38</v>
       </c>
       <c r="F273" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G273">
         <v>2</v>
@@ -24053,7 +24053,7 @@
         <v>45352.66666666666</v>
       </c>
       <c r="E274" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F274" t="s">
         <v>53</v>
@@ -24139,7 +24139,7 @@
         <v>45352.66666666666</v>
       </c>
       <c r="E275" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F275" t="s">
         <v>56</v>
@@ -24658,7 +24658,7 @@
         <v>45</v>
       </c>
       <c r="F281" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G281">
         <v>2</v>
@@ -24913,7 +24913,7 @@
         <v>45359.66666666666</v>
       </c>
       <c r="E284" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F284" t="s">
         <v>43</v>
@@ -25174,7 +25174,7 @@
         <v>55</v>
       </c>
       <c r="F287" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G287">
         <v>0</v>
@@ -25859,10 +25859,10 @@
         <v>45362.66666666666</v>
       </c>
       <c r="E295" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F295" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G295">
         <v>0</v>
@@ -25945,7 +25945,7 @@
         <v>45366.66666666666</v>
       </c>
       <c r="E296" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F296" t="s">
         <v>51</v>
@@ -26547,7 +26547,7 @@
         <v>45366.66666666666</v>
       </c>
       <c r="E303" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F303" t="s">
         <v>45</v>
@@ -26636,7 +26636,7 @@
         <v>56</v>
       </c>
       <c r="F304" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G304">
         <v>2</v>
@@ -26980,7 +26980,7 @@
         <v>42</v>
       </c>
       <c r="F308" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G308">
         <v>3</v>
@@ -27238,7 +27238,7 @@
         <v>45</v>
       </c>
       <c r="F311" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G311">
         <v>2</v>
@@ -27579,7 +27579,7 @@
         <v>45380.66666666666</v>
       </c>
       <c r="E315" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F315" t="s">
         <v>57</v>
@@ -27665,7 +27665,7 @@
         <v>45380.66666666666</v>
       </c>
       <c r="E316" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F316" t="s">
         <v>55</v>
@@ -27923,7 +27923,7 @@
         <v>45383.39583333334</v>
       </c>
       <c r="E319" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F319" t="s">
         <v>39</v>
@@ -28172,7 +28172,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>7123793</v>
+        <v>7138516</v>
       </c>
       <c r="C322" t="s">
         <v>37</v>
@@ -28181,76 +28181,76 @@
         <v>45387.625</v>
       </c>
       <c r="E322" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F322" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G322">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I322" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J322">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="K322">
+        <v>3.25</v>
+      </c>
+      <c r="L322">
+        <v>3.25</v>
+      </c>
+      <c r="M322">
+        <v>1.95</v>
+      </c>
+      <c r="N322">
+        <v>3.8</v>
+      </c>
+      <c r="O322">
         <v>3.5</v>
       </c>
-      <c r="L322">
-        <v>2.3</v>
-      </c>
-      <c r="M322">
-        <v>2.375</v>
-      </c>
-      <c r="N322">
-        <v>3.5</v>
-      </c>
-      <c r="O322">
-        <v>3</v>
-      </c>
       <c r="P322">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q322">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="R322">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S322">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T322">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U322">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V322">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W322">
         <v>-1</v>
       </c>
       <c r="X322">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y322">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z322">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA322">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB322">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="323" spans="1:28">
@@ -28258,7 +28258,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>7138516</v>
+        <v>7123793</v>
       </c>
       <c r="C323" t="s">
         <v>37</v>
@@ -28267,76 +28267,76 @@
         <v>45387.625</v>
       </c>
       <c r="E323" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F323" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G323">
+        <v>0</v>
+      </c>
+      <c r="H323">
+        <v>2</v>
+      </c>
+      <c r="I323" t="s">
+        <v>60</v>
+      </c>
+      <c r="J323">
+        <v>2.9</v>
+      </c>
+      <c r="K323">
+        <v>3.5</v>
+      </c>
+      <c r="L323">
+        <v>2.3</v>
+      </c>
+      <c r="M323">
+        <v>2.375</v>
+      </c>
+      <c r="N323">
+        <v>3.5</v>
+      </c>
+      <c r="O323">
         <v>3</v>
       </c>
-      <c r="H323">
-        <v>1</v>
-      </c>
-      <c r="I323" t="s">
-        <v>59</v>
-      </c>
-      <c r="J323">
-        <v>2.2</v>
-      </c>
-      <c r="K323">
-        <v>3.25</v>
-      </c>
-      <c r="L323">
-        <v>3.25</v>
-      </c>
-      <c r="M323">
+      <c r="P323">
+        <v>-0.25</v>
+      </c>
+      <c r="Q323">
+        <v>2.05</v>
+      </c>
+      <c r="R323">
+        <v>1.8</v>
+      </c>
+      <c r="S323">
+        <v>2.75</v>
+      </c>
+      <c r="T323">
+        <v>1.9</v>
+      </c>
+      <c r="U323">
         <v>1.95</v>
       </c>
-      <c r="N323">
-        <v>3.8</v>
-      </c>
-      <c r="O323">
-        <v>3.5</v>
-      </c>
-      <c r="P323">
-        <v>-0.5</v>
-      </c>
-      <c r="Q323">
-        <v>1.95</v>
-      </c>
-      <c r="R323">
-        <v>1.9</v>
-      </c>
-      <c r="S323">
-        <v>3.25</v>
-      </c>
-      <c r="T323">
-        <v>2.025</v>
-      </c>
-      <c r="U323">
-        <v>1.825</v>
-      </c>
       <c r="V323">
+        <v>-1</v>
+      </c>
+      <c r="W323">
+        <v>-1</v>
+      </c>
+      <c r="X323">
+        <v>2</v>
+      </c>
+      <c r="Y323">
+        <v>-1</v>
+      </c>
+      <c r="Z323">
+        <v>0.8</v>
+      </c>
+      <c r="AA323">
+        <v>-1</v>
+      </c>
+      <c r="AB323">
         <v>0.95</v>
-      </c>
-      <c r="W323">
-        <v>-1</v>
-      </c>
-      <c r="X323">
-        <v>-1</v>
-      </c>
-      <c r="Y323">
-        <v>0.95</v>
-      </c>
-      <c r="Z323">
-        <v>-1</v>
-      </c>
-      <c r="AA323">
-        <v>1.025</v>
-      </c>
-      <c r="AB323">
-        <v>-1</v>
       </c>
     </row>
     <row r="324" spans="1:28">
@@ -28353,7 +28353,7 @@
         <v>45387.625</v>
       </c>
       <c r="E324" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F324" t="s">
         <v>44</v>
@@ -28528,7 +28528,7 @@
         <v>39</v>
       </c>
       <c r="F326" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G326">
         <v>1</v>
@@ -28688,7 +28688,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>7123796</v>
+        <v>7124989</v>
       </c>
       <c r="C328" t="s">
         <v>37</v>
@@ -28697,76 +28697,76 @@
         <v>45390.625</v>
       </c>
       <c r="E328" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F328" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I328" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J328">
-        <v>1.75</v>
+        <v>6</v>
       </c>
       <c r="K328">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="L328">
+        <v>1.533</v>
+      </c>
+      <c r="M328">
         <v>5</v>
       </c>
-      <c r="M328">
-        <v>1.571</v>
-      </c>
       <c r="N328">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="O328">
-        <v>5.25</v>
+        <v>1.6</v>
       </c>
       <c r="P328">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q328">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="R328">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S328">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T328">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U328">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V328">
         <v>-1</v>
       </c>
       <c r="W328">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X328">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y328">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z328">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA328">
         <v>-1</v>
       </c>
       <c r="AB328">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:28">
@@ -28786,7 +28786,7 @@
         <v>46</v>
       </c>
       <c r="F329" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G329">
         <v>3</v>
@@ -28860,7 +28860,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>7124989</v>
+        <v>7123796</v>
       </c>
       <c r="C330" t="s">
         <v>37</v>
@@ -28869,76 +28869,76 @@
         <v>45390.625</v>
       </c>
       <c r="E330" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F330" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G330">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I330" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J330">
-        <v>6</v>
+        <v>1.75</v>
       </c>
       <c r="K330">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="L330">
-        <v>1.533</v>
+        <v>5</v>
       </c>
       <c r="M330">
-        <v>5</v>
+        <v>1.571</v>
       </c>
       <c r="N330">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="O330">
-        <v>1.6</v>
+        <v>5.25</v>
       </c>
       <c r="P330">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q330">
+        <v>1.95</v>
+      </c>
+      <c r="R330">
+        <v>1.9</v>
+      </c>
+      <c r="S330">
+        <v>3.25</v>
+      </c>
+      <c r="T330">
+        <v>2</v>
+      </c>
+      <c r="U330">
         <v>1.85</v>
       </c>
-      <c r="R330">
-        <v>2</v>
-      </c>
-      <c r="S330">
-        <v>2.75</v>
-      </c>
-      <c r="T330">
-        <v>1.85</v>
-      </c>
-      <c r="U330">
-        <v>2</v>
-      </c>
       <c r="V330">
         <v>-1</v>
       </c>
       <c r="W330">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X330">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y330">
+        <v>-1</v>
+      </c>
+      <c r="Z330">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA330">
+        <v>-1</v>
+      </c>
+      <c r="AB330">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z330">
-        <v>-1</v>
-      </c>
-      <c r="AA330">
-        <v>-1</v>
-      </c>
-      <c r="AB330">
-        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:28">
@@ -29041,7 +29041,7 @@
         <v>45394.625</v>
       </c>
       <c r="E332" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F332" t="s">
         <v>42</v>
@@ -29204,7 +29204,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7154912</v>
+        <v>7161705</v>
       </c>
       <c r="C334" t="s">
         <v>37</v>
@@ -29213,73 +29213,73 @@
         <v>45394.625</v>
       </c>
       <c r="E334" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F334" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G334">
+        <v>4</v>
+      </c>
+      <c r="H334">
         <v>1</v>
       </c>
-      <c r="H334">
-        <v>4</v>
-      </c>
       <c r="I334" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J334">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="K334">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L334">
+        <v>5.5</v>
+      </c>
+      <c r="M334">
+        <v>1.5</v>
+      </c>
+      <c r="N334">
+        <v>5</v>
+      </c>
+      <c r="O334">
+        <v>5.5</v>
+      </c>
+      <c r="P334">
+        <v>-1.25</v>
+      </c>
+      <c r="Q334">
+        <v>1.975</v>
+      </c>
+      <c r="R334">
+        <v>1.875</v>
+      </c>
+      <c r="S334">
         <v>3.25</v>
       </c>
-      <c r="M334">
-        <v>2.05</v>
-      </c>
-      <c r="N334">
-        <v>4</v>
-      </c>
-      <c r="O334">
-        <v>3.2</v>
-      </c>
-      <c r="P334">
-        <v>-0.5</v>
-      </c>
-      <c r="Q334">
-        <v>2.05</v>
-      </c>
-      <c r="R334">
-        <v>1.8</v>
-      </c>
-      <c r="S334">
-        <v>3</v>
-      </c>
       <c r="T334">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U334">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V334">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W334">
         <v>-1</v>
       </c>
       <c r="X334">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y334">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z334">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA334">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB334">
         <v>-1</v>
@@ -29290,7 +29290,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7219204</v>
+        <v>7154912</v>
       </c>
       <c r="C335" t="s">
         <v>37</v>
@@ -29299,55 +29299,55 @@
         <v>45394.625</v>
       </c>
       <c r="E335" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F335" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G335">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H335">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I335" t="s">
         <v>60</v>
       </c>
       <c r="J335">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="K335">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L335">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M335">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="N335">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O335">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P335">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q335">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="R335">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S335">
         <v>3</v>
       </c>
       <c r="T335">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U335">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V335">
         <v>-1</v>
@@ -29356,16 +29356,16 @@
         <v>-1</v>
       </c>
       <c r="X335">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="Y335">
         <v>-1</v>
       </c>
       <c r="Z335">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA335">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB335">
         <v>-1</v>
@@ -29376,7 +29376,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>7154910</v>
+        <v>7219204</v>
       </c>
       <c r="C336" t="s">
         <v>37</v>
@@ -29385,73 +29385,73 @@
         <v>45394.625</v>
       </c>
       <c r="E336" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F336" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G336">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H336">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I336" t="s">
         <v>60</v>
       </c>
       <c r="J336">
+        <v>2.15</v>
+      </c>
+      <c r="K336">
+        <v>3.6</v>
+      </c>
+      <c r="L336">
+        <v>2.875</v>
+      </c>
+      <c r="M336">
         <v>2.25</v>
       </c>
-      <c r="K336">
-        <v>3.75</v>
-      </c>
-      <c r="L336">
-        <v>2.6</v>
-      </c>
-      <c r="M336">
-        <v>1.666</v>
-      </c>
       <c r="N336">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="O336">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="P336">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q336">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R336">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S336">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T336">
+        <v>1.85</v>
+      </c>
+      <c r="U336">
+        <v>2</v>
+      </c>
+      <c r="V336">
+        <v>-1</v>
+      </c>
+      <c r="W336">
+        <v>-1</v>
+      </c>
+      <c r="X336">
         <v>1.9</v>
       </c>
-      <c r="U336">
-        <v>1.95</v>
-      </c>
-      <c r="V336">
-        <v>-1</v>
-      </c>
-      <c r="W336">
-        <v>-1</v>
-      </c>
-      <c r="X336">
-        <v>3.5</v>
-      </c>
       <c r="Y336">
         <v>-1</v>
       </c>
       <c r="Z336">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA336">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB336">
         <v>-1</v>
@@ -29462,7 +29462,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>7161705</v>
+        <v>7154910</v>
       </c>
       <c r="C337" t="s">
         <v>37</v>
@@ -29471,73 +29471,73 @@
         <v>45394.625</v>
       </c>
       <c r="E337" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F337" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="G337">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I337" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J337">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="K337">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L337">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="M337">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="N337">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="O337">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P337">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q337">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="R337">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S337">
         <v>3.25</v>
       </c>
       <c r="T337">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U337">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V337">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W337">
         <v>-1</v>
       </c>
       <c r="X337">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y337">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z337">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA337">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB337">
         <v>-1</v>
@@ -29818,7 +29818,7 @@
         <v>52</v>
       </c>
       <c r="F341" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G341">
         <v>2</v>
@@ -29990,7 +29990,7 @@
         <v>41</v>
       </c>
       <c r="F343" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G343">
         <v>3</v>
@@ -30162,7 +30162,7 @@
         <v>43</v>
       </c>
       <c r="F345" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G345">
         <v>2</v>
@@ -30933,7 +30933,7 @@
         <v>45408.625</v>
       </c>
       <c r="E354" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F354" t="s">
         <v>46</v>
@@ -31277,7 +31277,7 @@
         <v>45410.48958333334</v>
       </c>
       <c r="E358" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F358" t="s">
         <v>47</v>
@@ -31449,7 +31449,7 @@
         <v>45411.625</v>
       </c>
       <c r="E360" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F360" t="s">
         <v>51</v>
@@ -31535,40 +31535,40 @@
         <v>45415.625</v>
       </c>
       <c r="E361" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F361" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="J361">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="K361">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="L361">
-        <v>5.75</v>
+        <v>2.05</v>
       </c>
       <c r="M361">
-        <v>1.363</v>
+        <v>3.4</v>
       </c>
       <c r="N361">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="O361">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="P361">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q361">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R361">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S361">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T361">
         <v>1.85</v>
@@ -31600,46 +31600,46 @@
         <v>45415.625</v>
       </c>
       <c r="E362" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F362" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J362">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="K362">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="L362">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="M362">
-        <v>2.8</v>
+        <v>1.363</v>
       </c>
       <c r="N362">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="O362">
-        <v>2.375</v>
+        <v>6.5</v>
       </c>
       <c r="P362">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q362">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R362">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S362">
         <v>3.25</v>
       </c>
       <c r="T362">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="U362">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V362">
         <v>0</v>
@@ -31665,46 +31665,46 @@
         <v>45415.625</v>
       </c>
       <c r="E363" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F363" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J363">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="K363">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L363">
+        <v>2.3</v>
+      </c>
+      <c r="M363">
+        <v>2.75</v>
+      </c>
+      <c r="N363">
+        <v>3.75</v>
+      </c>
+      <c r="O363">
+        <v>2.4</v>
+      </c>
+      <c r="P363">
+        <v>0</v>
+      </c>
+      <c r="Q363">
         <v>2.05</v>
       </c>
-      <c r="M363">
-        <v>3.4</v>
-      </c>
-      <c r="N363">
-        <v>3.5</v>
-      </c>
-      <c r="O363">
-        <v>2.1</v>
-      </c>
-      <c r="P363">
-        <v>0.25</v>
-      </c>
-      <c r="Q363">
-        <v>2.025</v>
-      </c>
       <c r="R363">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S363">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T363">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="U363">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V363">
         <v>0</v>
@@ -31730,46 +31730,46 @@
         <v>45415.625</v>
       </c>
       <c r="E364" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F364" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="J364">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="K364">
         <v>4</v>
       </c>
       <c r="L364">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M364">
-        <v>1.615</v>
+        <v>1.85</v>
       </c>
       <c r="N364">
         <v>4.2</v>
       </c>
       <c r="O364">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P364">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q364">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R364">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S364">
         <v>3.25</v>
       </c>
       <c r="T364">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U364">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V364">
         <v>0</v>
@@ -31795,40 +31795,40 @@
         <v>45415.625</v>
       </c>
       <c r="E365" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F365" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J365">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="K365">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L365">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="M365">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="N365">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O365">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P365">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q365">
+        <v>2.025</v>
+      </c>
+      <c r="R365">
         <v>1.825</v>
       </c>
-      <c r="R365">
-        <v>2.025</v>
-      </c>
       <c r="S365">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T365">
         <v>1.875</v>
@@ -31860,46 +31860,46 @@
         <v>45415.625</v>
       </c>
       <c r="E366" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F366" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J366">
-        <v>5.75</v>
+        <v>1.8</v>
       </c>
       <c r="K366">
+        <v>3.6</v>
+      </c>
+      <c r="L366">
+        <v>3.75</v>
+      </c>
+      <c r="M366">
+        <v>1.833</v>
+      </c>
+      <c r="N366">
+        <v>3.8</v>
+      </c>
+      <c r="O366">
         <v>4</v>
       </c>
-      <c r="L366">
-        <v>1.5</v>
-      </c>
-      <c r="M366">
-        <v>6.5</v>
-      </c>
-      <c r="N366">
-        <v>4.333</v>
-      </c>
-      <c r="O366">
-        <v>1.5</v>
-      </c>
       <c r="P366">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q366">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="R366">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S366">
         <v>3</v>
       </c>
       <c r="T366">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="U366">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V366">
         <v>0</v>
@@ -31925,25 +31925,25 @@
         <v>45415.625</v>
       </c>
       <c r="E367" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F367" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J367">
         <v>1.8</v>
       </c>
       <c r="K367">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L367">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M367">
         <v>1.8</v>
       </c>
       <c r="N367">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O367">
         <v>4</v>
@@ -31958,13 +31958,13 @@
         <v>1.825</v>
       </c>
       <c r="S367">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T367">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U367">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V367">
         <v>0</v>
@@ -31990,46 +31990,46 @@
         <v>45415.625</v>
       </c>
       <c r="E368" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F368" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="J368">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="K368">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L368">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="M368">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="N368">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="O368">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="P368">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q368">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="R368">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S368">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T368">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U368">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V368">
         <v>0</v>
@@ -32055,40 +32055,40 @@
         <v>45415.625</v>
       </c>
       <c r="E369" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F369" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J369">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="K369">
+        <v>3.75</v>
+      </c>
+      <c r="L369">
+        <v>3.8</v>
+      </c>
+      <c r="M369">
+        <v>1.8</v>
+      </c>
+      <c r="N369">
         <v>4</v>
       </c>
-      <c r="L369">
-        <v>3.4</v>
-      </c>
-      <c r="M369">
-        <v>1.85</v>
-      </c>
-      <c r="N369">
-        <v>4.2</v>
-      </c>
       <c r="O369">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P369">
         <v>-0.5</v>
       </c>
       <c r="Q369">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R369">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S369">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T369">
         <v>1.875</v>
@@ -32120,46 +32120,46 @@
         <v>45415.625</v>
       </c>
       <c r="E370" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F370" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J370">
-        <v>1.8</v>
+        <v>5.75</v>
       </c>
       <c r="K370">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L370">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="M370">
-        <v>1.85</v>
+        <v>6.5</v>
       </c>
       <c r="N370">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O370">
-        <v>3.8</v>
+        <v>1.45</v>
       </c>
       <c r="P370">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q370">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R370">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S370">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T370">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U370">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V370">
         <v>0</v>

--- a/Netherlands Eerste Divisie/Netherlands Eerste Divisie.xlsx
+++ b/Netherlands Eerste Divisie/Netherlands Eerste Divisie.xlsx
@@ -103,7 +103,7 @@
     <t>7289771</t>
   </si>
   <si>
-    <t>7305885</t>
+    <t>7305886</t>
   </si>
   <si>
     <t>7305887</t>
@@ -118,13 +118,13 @@
     <t>7305892</t>
   </si>
   <si>
-    <t>7305893</t>
-  </si>
-  <si>
-    <t>7305886</t>
+    <t>7305885</t>
   </si>
   <si>
     <t>7305894</t>
+  </si>
+  <si>
+    <t>7305893</t>
   </si>
   <si>
     <t>Netherlands Eerste Divisie</t>
@@ -32410,7 +32410,7 @@
         <v>2.55</v>
       </c>
       <c r="M371">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="N371">
         <v>4</v>
@@ -32428,13 +32428,13 @@
         <v>2.025</v>
       </c>
       <c r="S371">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T371">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U371">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V371">
         <v>0</v>
@@ -32475,31 +32475,31 @@
         <v>1.7</v>
       </c>
       <c r="M372">
+        <v>3.6</v>
+      </c>
+      <c r="N372">
         <v>4</v>
       </c>
-      <c r="N372">
-        <v>4.2</v>
-      </c>
       <c r="O372">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="P372">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q372">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="R372">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S372">
         <v>3.5</v>
       </c>
       <c r="T372">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U372">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V372">
         <v>0</v>
@@ -32525,46 +32525,46 @@
         <v>45422.625</v>
       </c>
       <c r="E373" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F373" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="J373">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="K373">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="L373">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M373">
-        <v>1.55</v>
+        <v>1.909</v>
       </c>
       <c r="N373">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="O373">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P373">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q373">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="R373">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S373">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="T373">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U373">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V373">
         <v>0</v>
@@ -32605,31 +32605,31 @@
         <v>3.2</v>
       </c>
       <c r="M374">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="N374">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O374">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P374">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q374">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R374">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S374">
         <v>3.25</v>
       </c>
       <c r="T374">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U374">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V374">
         <v>0</v>
@@ -32682,19 +32682,19 @@
         <v>-0.5</v>
       </c>
       <c r="Q375">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R375">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S375">
         <v>3.25</v>
       </c>
       <c r="T375">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U375">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V375">
         <v>0</v>
@@ -32747,19 +32747,19 @@
         <v>-0.5</v>
       </c>
       <c r="Q376">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R376">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S376">
         <v>2.75</v>
       </c>
       <c r="T376">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U376">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V376">
         <v>0</v>
@@ -32800,31 +32800,31 @@
         <v>5</v>
       </c>
       <c r="M377">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="N377">
         <v>4.2</v>
       </c>
       <c r="O377">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P377">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q377">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="R377">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S377">
         <v>3</v>
       </c>
       <c r="T377">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U377">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V377">
         <v>0</v>
@@ -32850,46 +32850,46 @@
         <v>45422.625</v>
       </c>
       <c r="E378" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F378" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J378">
-        <v>4.333</v>
+        <v>1.55</v>
       </c>
       <c r="K378">
+        <v>4.5</v>
+      </c>
+      <c r="L378">
+        <v>4.75</v>
+      </c>
+      <c r="M378">
+        <v>1.6</v>
+      </c>
+      <c r="N378">
+        <v>4.5</v>
+      </c>
+      <c r="O378">
+        <v>4.5</v>
+      </c>
+      <c r="P378">
+        <v>-1</v>
+      </c>
+      <c r="Q378">
+        <v>1.975</v>
+      </c>
+      <c r="R378">
+        <v>1.875</v>
+      </c>
+      <c r="S378">
         <v>3.75</v>
       </c>
-      <c r="L378">
-        <v>1.75</v>
-      </c>
-      <c r="M378">
-        <v>4.333</v>
-      </c>
-      <c r="N378">
-        <v>3.75</v>
-      </c>
-      <c r="O378">
-        <v>1.75</v>
-      </c>
-      <c r="P378">
-        <v>0.75</v>
-      </c>
-      <c r="Q378">
+      <c r="T378">
+        <v>2</v>
+      </c>
+      <c r="U378">
         <v>1.85</v>
-      </c>
-      <c r="R378">
-        <v>2</v>
-      </c>
-      <c r="S378">
-        <v>2.75</v>
-      </c>
-      <c r="T378">
-        <v>1.825</v>
-      </c>
-      <c r="U378">
-        <v>2.025</v>
       </c>
       <c r="V378">
         <v>0</v>
@@ -32915,46 +32915,46 @@
         <v>45422.625</v>
       </c>
       <c r="E379" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F379" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="J379">
-        <v>1.95</v>
+        <v>1.45</v>
       </c>
       <c r="K379">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="L379">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="M379">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="N379">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="O379">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="P379">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q379">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="R379">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S379">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T379">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="U379">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V379">
         <v>0</v>
@@ -32980,46 +32980,46 @@
         <v>45422.625</v>
       </c>
       <c r="E380" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F380" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J380">
-        <v>1.45</v>
+        <v>4.333</v>
       </c>
       <c r="K380">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="L380">
-        <v>5.75</v>
+        <v>1.75</v>
       </c>
       <c r="M380">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="N380">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="O380">
-        <v>6.5</v>
+        <v>1.7</v>
       </c>
       <c r="P380">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q380">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R380">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S380">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T380">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U380">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V380">
         <v>0</v>

--- a/Netherlands Eerste Divisie/Netherlands Eerste Divisie.xlsx
+++ b/Netherlands Eerste Divisie/Netherlands Eerste Divisie.xlsx
@@ -115,13 +115,13 @@
     <t>FC Groningen</t>
   </si>
   <si>
+    <t>De Graafschap</t>
+  </si>
+  <si>
     <t>FC Den Bosch</t>
   </si>
   <si>
     <t>Cambuur Leeuwarden</t>
-  </si>
-  <si>
-    <t>De Graafschap</t>
   </si>
   <si>
     <t>FC Eindhoven</t>
@@ -157,10 +157,10 @@
     <t>FC Emmen</t>
   </si>
   <si>
-    <t>Ajax Reserves</t>
+    <t>FC Utrecht Reserves</t>
   </si>
   <si>
-    <t>FC Utrecht Reserves</t>
+    <t>Ajax Reserves</t>
   </si>
   <si>
     <t>Maastricht</t>
@@ -836,7 +836,7 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -916,7 +916,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6842422</v>
+        <v>6842424</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -928,10 +928,10 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -943,64 +943,64 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L5">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="M5">
         <v>3.6</v>
       </c>
       <c r="N5">
+        <v>3.5</v>
+      </c>
+      <c r="O5">
+        <v>1.909</v>
+      </c>
+      <c r="P5">
+        <v>3.75</v>
+      </c>
+      <c r="Q5">
         <v>3.8</v>
       </c>
-      <c r="O5">
-        <v>2.3</v>
-      </c>
-      <c r="P5">
-        <v>3.25</v>
-      </c>
-      <c r="Q5">
-        <v>3.1</v>
-      </c>
       <c r="R5">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S5">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T5">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U5">
+        <v>3</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>1.85</v>
+      </c>
+      <c r="X5">
+        <v>-1</v>
+      </c>
+      <c r="Y5">
         <v>2.75</v>
       </c>
-      <c r="V5">
-        <v>1.925</v>
-      </c>
-      <c r="W5">
-        <v>1.925</v>
-      </c>
-      <c r="X5">
-        <v>1.3</v>
-      </c>
-      <c r="Y5">
-        <v>-1</v>
-      </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC5">
         <v>-1</v>
       </c>
       <c r="AD5">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -1008,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6842423</v>
+        <v>6842422</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -1020,79 +1020,79 @@
         <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L6">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="M6">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N6">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="O6">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="P6">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q6">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="R6">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T6">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U6">
         <v>2.75</v>
       </c>
       <c r="V6">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W6">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y6">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB6">
+        <v>-1</v>
+      </c>
+      <c r="AC6">
+        <v>-1</v>
+      </c>
+      <c r="AD6">
         <v>0.925</v>
-      </c>
-      <c r="AC6">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AD6">
-        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -1100,7 +1100,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6842424</v>
+        <v>6842423</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1112,31 +1112,31 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7" t="s">
         <v>52</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="M7">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N7">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="O7">
         <v>1.909</v>
@@ -1145,25 +1145,25 @@
         <v>3.75</v>
       </c>
       <c r="Q7">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="R7">
         <v>-0.5</v>
       </c>
       <c r="S7">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T7">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U7">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W7">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1178,13 +1178,13 @@
         <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD7">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1388,7 +1388,7 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1572,7 +1572,7 @@
         <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2032,7 +2032,7 @@
         <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -2204,7 +2204,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6842271</v>
+        <v>6841983</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
@@ -2216,79 +2216,79 @@
         <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L19">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="M19">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N19">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="O19">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="P19">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q19">
-        <v>2.55</v>
+        <v>1.615</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T19">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U19">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W19">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB19">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
         <v>-1</v>
       </c>
       <c r="AD19">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="20" spans="1:30">
@@ -2296,7 +2296,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6841983</v>
+        <v>6842271</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
@@ -2308,79 +2308,79 @@
         <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L20">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="M20">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N20">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="O20">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="P20">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q20">
-        <v>1.615</v>
+        <v>2.55</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T20">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U20">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V20">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="X20">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="AA20">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC20">
         <v>-1</v>
       </c>
       <c r="AD20">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:30">
@@ -2388,7 +2388,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6842273</v>
+        <v>6842274</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
@@ -2397,64 +2397,64 @@
         <v>45163.625</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K21" t="s">
         <v>53</v>
       </c>
       <c r="L21">
-        <v>2.6</v>
+        <v>1.55</v>
       </c>
       <c r="M21">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="N21">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="O21">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="P21">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q21">
-        <v>2.75</v>
+        <v>11</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S21">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T21">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="U21">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="V21">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W21">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X21">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="Y21">
         <v>-1</v>
@@ -2463,16 +2463,16 @@
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD21">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:30">
@@ -2572,7 +2572,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6842274</v>
+        <v>6842273</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
@@ -2581,64 +2581,64 @@
         <v>45163.625</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K23" t="s">
         <v>53</v>
       </c>
       <c r="L23">
-        <v>1.55</v>
+        <v>2.6</v>
       </c>
       <c r="M23">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="N23">
-        <v>5.75</v>
+        <v>2.6</v>
       </c>
       <c r="O23">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="P23">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>2.75</v>
       </c>
       <c r="R23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T23">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="U23">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="V23">
+        <v>2</v>
+      </c>
+      <c r="W23">
         <v>1.85</v>
       </c>
-      <c r="W23">
-        <v>2</v>
-      </c>
       <c r="X23">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="Y23">
         <v>-1</v>
@@ -2647,16 +2647,16 @@
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
+        <v>-1</v>
+      </c>
+      <c r="AD23">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AD23">
-        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -2673,7 +2673,7 @@
         <v>45163.625</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F24" t="s">
         <v>46</v>
@@ -2756,7 +2756,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6842275</v>
+        <v>6842272</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
@@ -2765,79 +2765,79 @@
         <v>45163.625</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L25">
-        <v>1.615</v>
+        <v>2.7</v>
       </c>
       <c r="M25">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N25">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="O25">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="P25">
         <v>4</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="R25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S25">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T25">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="U25">
+        <v>3.5</v>
+      </c>
+      <c r="V25">
+        <v>2</v>
+      </c>
+      <c r="W25">
+        <v>1.85</v>
+      </c>
+      <c r="X25">
+        <v>-1</v>
+      </c>
+      <c r="Y25">
         <v>3</v>
       </c>
-      <c r="V25">
-        <v>1.95</v>
-      </c>
-      <c r="W25">
-        <v>1.9</v>
-      </c>
-      <c r="X25">
-        <v>0.55</v>
-      </c>
-      <c r="Y25">
-        <v>-1</v>
-      </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC25">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AD25">
         <v>-1</v>
@@ -2848,7 +2848,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6842428</v>
+        <v>6842275</v>
       </c>
       <c r="C26" t="s">
         <v>29</v>
@@ -2857,82 +2857,82 @@
         <v>45163.625</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L26">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="M26">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="N26">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="O26">
-        <v>3.1</v>
+        <v>1.55</v>
       </c>
       <c r="P26">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q26">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="R26">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="S26">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T26">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U26">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V26">
+        <v>1.95</v>
+      </c>
+      <c r="W26">
         <v>1.9</v>
       </c>
-      <c r="W26">
-        <v>1.95</v>
-      </c>
       <c r="X26">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB26">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AD26">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:30">
@@ -2940,7 +2940,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6842272</v>
+        <v>6842428</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
@@ -2949,13 +2949,13 @@
         <v>45163.625</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -2964,67 +2964,67 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L27">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="M27">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N27">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="O27">
+        <v>3.1</v>
+      </c>
+      <c r="P27">
+        <v>3.8</v>
+      </c>
+      <c r="Q27">
+        <v>2.1</v>
+      </c>
+      <c r="R27">
+        <v>0.25</v>
+      </c>
+      <c r="S27">
+        <v>2</v>
+      </c>
+      <c r="T27">
+        <v>1.85</v>
+      </c>
+      <c r="U27">
+        <v>2.75</v>
+      </c>
+      <c r="V27">
+        <v>1.9</v>
+      </c>
+      <c r="W27">
         <v>1.95</v>
       </c>
-      <c r="P27">
-        <v>4</v>
-      </c>
-      <c r="Q27">
-        <v>3.3</v>
-      </c>
-      <c r="R27">
+      <c r="X27">
+        <v>-1</v>
+      </c>
+      <c r="Y27">
+        <v>-1</v>
+      </c>
+      <c r="Z27">
+        <v>1.1</v>
+      </c>
+      <c r="AA27">
+        <v>-1</v>
+      </c>
+      <c r="AB27">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC27">
+        <v>0.45</v>
+      </c>
+      <c r="AD27">
         <v>-0.5</v>
-      </c>
-      <c r="S27">
-        <v>1.975</v>
-      </c>
-      <c r="T27">
-        <v>1.875</v>
-      </c>
-      <c r="U27">
-        <v>3.5</v>
-      </c>
-      <c r="V27">
-        <v>2</v>
-      </c>
-      <c r="W27">
-        <v>1.85</v>
-      </c>
-      <c r="X27">
-        <v>-1</v>
-      </c>
-      <c r="Y27">
-        <v>3</v>
-      </c>
-      <c r="Z27">
-        <v>-1</v>
-      </c>
-      <c r="AA27">
-        <v>-1</v>
-      </c>
-      <c r="AB27">
-        <v>0.875</v>
-      </c>
-      <c r="AC27">
-        <v>1</v>
-      </c>
-      <c r="AD27">
-        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:30">
@@ -3409,7 +3409,7 @@
         <v>45170.625</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F32" t="s">
         <v>39</v>
@@ -3596,7 +3596,7 @@
         <v>37</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3688,7 +3688,7 @@
         <v>49</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -3777,7 +3777,7 @@
         <v>45170.625</v>
       </c>
       <c r="E36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F36" t="s">
         <v>31</v>
@@ -3964,7 +3964,7 @@
         <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -4421,10 +4421,10 @@
         <v>45178.57291666666</v>
       </c>
       <c r="E43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" t="s">
         <v>34</v>
-      </c>
-      <c r="F43" t="s">
-        <v>33</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4789,7 +4789,7 @@
         <v>45184.625</v>
       </c>
       <c r="E47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F47" t="s">
         <v>49</v>
@@ -4884,7 +4884,7 @@
         <v>39</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4973,7 +4973,7 @@
         <v>45184.625</v>
       </c>
       <c r="E49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F49" t="s">
         <v>46</v>
@@ -5252,7 +5252,7 @@
         <v>30</v>
       </c>
       <c r="F52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -5433,7 +5433,7 @@
         <v>45186.48958333334</v>
       </c>
       <c r="E54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F54" t="s">
         <v>42</v>
@@ -5712,7 +5712,7 @@
         <v>46</v>
       </c>
       <c r="F57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -5801,7 +5801,7 @@
         <v>45187.625</v>
       </c>
       <c r="E58" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F58" t="s">
         <v>45</v>
@@ -5896,7 +5896,7 @@
         <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G59">
         <v>5</v>
@@ -6080,7 +6080,7 @@
         <v>31</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G61">
         <v>4</v>
@@ -6169,10 +6169,10 @@
         <v>45191.625</v>
       </c>
       <c r="E62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G62">
         <v>3</v>
@@ -6724,7 +6724,7 @@
         <v>49</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6813,7 +6813,7 @@
         <v>45194.625</v>
       </c>
       <c r="E69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F69" t="s">
         <v>36</v>
@@ -6905,7 +6905,7 @@
         <v>45198.625</v>
       </c>
       <c r="E70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F70" t="s">
         <v>39</v>
@@ -6997,7 +6997,7 @@
         <v>45198.625</v>
       </c>
       <c r="E71" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F71" t="s">
         <v>31</v>
@@ -7184,7 +7184,7 @@
         <v>32</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -7460,7 +7460,7 @@
         <v>40</v>
       </c>
       <c r="F76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G76">
         <v>3</v>
@@ -7733,7 +7733,7 @@
         <v>45201.625</v>
       </c>
       <c r="E79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F79" t="s">
         <v>44</v>
@@ -8012,7 +8012,7 @@
         <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G82">
         <v>4</v>
@@ -8193,7 +8193,7 @@
         <v>45205.625</v>
       </c>
       <c r="E84" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F84" t="s">
         <v>36</v>
@@ -8288,7 +8288,7 @@
         <v>30</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G85">
         <v>5</v>
@@ -8653,7 +8653,7 @@
         <v>45205.625</v>
       </c>
       <c r="E89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F89" t="s">
         <v>37</v>
@@ -8748,7 +8748,7 @@
         <v>42</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G90">
         <v>4</v>
@@ -9116,7 +9116,7 @@
         <v>42</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G94">
         <v>3</v>
@@ -9205,7 +9205,7 @@
         <v>45214.48958333334</v>
       </c>
       <c r="E95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F95" t="s">
         <v>44</v>
@@ -9389,7 +9389,7 @@
         <v>45219.625</v>
       </c>
       <c r="E97" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F97" t="s">
         <v>32</v>
@@ -9484,7 +9484,7 @@
         <v>49</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -9576,7 +9576,7 @@
         <v>30</v>
       </c>
       <c r="F99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G99">
         <v>4</v>
@@ -9941,7 +9941,7 @@
         <v>45219.625</v>
       </c>
       <c r="E103" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F103" t="s">
         <v>37</v>
@@ -10128,7 +10128,7 @@
         <v>41</v>
       </c>
       <c r="F105" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G105">
         <v>2</v>
@@ -10312,7 +10312,7 @@
         <v>38</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G107">
         <v>3</v>
@@ -10493,7 +10493,7 @@
         <v>45222.625</v>
       </c>
       <c r="E109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F109" t="s">
         <v>43</v>
@@ -10864,7 +10864,7 @@
         <v>30</v>
       </c>
       <c r="F113" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G113">
         <v>5</v>
@@ -11048,7 +11048,7 @@
         <v>31</v>
       </c>
       <c r="F115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -11137,7 +11137,7 @@
         <v>45226.625</v>
       </c>
       <c r="E116" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F116" t="s">
         <v>36</v>
@@ -11413,7 +11413,7 @@
         <v>45228.34375</v>
       </c>
       <c r="E119" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F119" t="s">
         <v>32</v>
@@ -11505,7 +11505,7 @@
         <v>45229.66666666666</v>
       </c>
       <c r="E120" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F120" t="s">
         <v>49</v>
@@ -11597,7 +11597,7 @@
         <v>45233.66666666666</v>
       </c>
       <c r="E121" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F121" t="s">
         <v>44</v>
@@ -11873,10 +11873,10 @@
         <v>45234.61458333334</v>
       </c>
       <c r="E124" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F124" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -12149,7 +12149,7 @@
         <v>45236.66666666666</v>
       </c>
       <c r="E127" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F127" t="s">
         <v>42</v>
@@ -12336,7 +12336,7 @@
         <v>41</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -12704,7 +12704,7 @@
         <v>40</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -12796,7 +12796,7 @@
         <v>46</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -12888,7 +12888,7 @@
         <v>44</v>
       </c>
       <c r="F135" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -13164,7 +13164,7 @@
         <v>42</v>
       </c>
       <c r="F138" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -13256,7 +13256,7 @@
         <v>43</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -13437,7 +13437,7 @@
         <v>45247.61458333334</v>
       </c>
       <c r="E141" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F141" t="s">
         <v>40</v>
@@ -13621,7 +13621,7 @@
         <v>45249.4375</v>
       </c>
       <c r="E143" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F143" t="s">
         <v>31</v>
@@ -13808,7 +13808,7 @@
         <v>37</v>
       </c>
       <c r="F145" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -13897,10 +13897,10 @@
         <v>45254.66666666666</v>
       </c>
       <c r="E146" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -14081,7 +14081,7 @@
         <v>45254.66666666666</v>
       </c>
       <c r="E148" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F148" t="s">
         <v>41</v>
@@ -14360,7 +14360,7 @@
         <v>44</v>
       </c>
       <c r="F151" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -14728,7 +14728,7 @@
         <v>43</v>
       </c>
       <c r="F155" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G155">
         <v>6</v>
@@ -14817,7 +14817,7 @@
         <v>45257.66666666666</v>
       </c>
       <c r="E156" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F156" t="s">
         <v>45</v>
@@ -15185,7 +15185,7 @@
         <v>45261.66666666666</v>
       </c>
       <c r="E160" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F160" t="s">
         <v>36</v>
@@ -15277,10 +15277,10 @@
         <v>45261.66666666666</v>
       </c>
       <c r="E161" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F161" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G161">
         <v>3</v>
@@ -15737,7 +15737,7 @@
         <v>45261.66666666666</v>
       </c>
       <c r="E166" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F166" t="s">
         <v>39</v>
@@ -15832,7 +15832,7 @@
         <v>41</v>
       </c>
       <c r="F167" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -16013,7 +16013,7 @@
         <v>45264.66666666666</v>
       </c>
       <c r="E169" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F169" t="s">
         <v>40</v>
@@ -16105,7 +16105,7 @@
         <v>45264.66666666666</v>
       </c>
       <c r="E170" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F170" t="s">
         <v>30</v>
@@ -16841,10 +16841,10 @@
         <v>45268.66666666666</v>
       </c>
       <c r="E178" t="s">
+        <v>33</v>
+      </c>
+      <c r="F178" t="s">
         <v>35</v>
-      </c>
-      <c r="F178" t="s">
-        <v>34</v>
       </c>
       <c r="G178">
         <v>2</v>
@@ -17025,10 +17025,10 @@
         <v>45271.66666666666</v>
       </c>
       <c r="E180" t="s">
+        <v>48</v>
+      </c>
+      <c r="F180" t="s">
         <v>47</v>
-      </c>
-      <c r="F180" t="s">
-        <v>48</v>
       </c>
       <c r="G180">
         <v>2</v>
@@ -17120,7 +17120,7 @@
         <v>38</v>
       </c>
       <c r="F181" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -17209,10 +17209,10 @@
         <v>45275.66666666666</v>
       </c>
       <c r="E182" t="s">
+        <v>34</v>
+      </c>
+      <c r="F182" t="s">
         <v>33</v>
-      </c>
-      <c r="F182" t="s">
-        <v>35</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -17485,7 +17485,7 @@
         <v>45275.66666666666</v>
       </c>
       <c r="E185" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F185" t="s">
         <v>36</v>
@@ -17761,7 +17761,7 @@
         <v>45275.66666666666</v>
       </c>
       <c r="E188" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F188" t="s">
         <v>38</v>
@@ -17856,7 +17856,7 @@
         <v>39</v>
       </c>
       <c r="F189" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G189">
         <v>2</v>
@@ -18221,10 +18221,10 @@
         <v>45282.66666666666</v>
       </c>
       <c r="E193" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F193" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G193">
         <v>3</v>
@@ -18408,7 +18408,7 @@
         <v>32</v>
       </c>
       <c r="F195" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G195">
         <v>2</v>
@@ -18868,7 +18868,7 @@
         <v>36</v>
       </c>
       <c r="F200" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G200">
         <v>2</v>
@@ -19052,7 +19052,7 @@
         <v>43</v>
       </c>
       <c r="F202" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G202">
         <v>5</v>
@@ -19325,7 +19325,7 @@
         <v>45303.66666666666</v>
       </c>
       <c r="E205" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F205" t="s">
         <v>49</v>
@@ -19509,7 +19509,7 @@
         <v>45306.66666666666</v>
       </c>
       <c r="E207" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F207" t="s">
         <v>37</v>
@@ -19604,7 +19604,7 @@
         <v>39</v>
       </c>
       <c r="F208" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G208">
         <v>2</v>
@@ -19788,7 +19788,7 @@
         <v>49</v>
       </c>
       <c r="F210" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G210">
         <v>3</v>
@@ -19972,7 +19972,7 @@
         <v>36</v>
       </c>
       <c r="F212" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -20061,7 +20061,7 @@
         <v>45310.66666666666</v>
       </c>
       <c r="E213" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F213" t="s">
         <v>31</v>
@@ -20156,7 +20156,7 @@
         <v>42</v>
       </c>
       <c r="F214" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G214">
         <v>1</v>
@@ -20521,7 +20521,7 @@
         <v>45313.66666666666</v>
       </c>
       <c r="E218" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F218" t="s">
         <v>32</v>
@@ -20613,7 +20613,7 @@
         <v>45313.66666666666</v>
       </c>
       <c r="E219" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F219" t="s">
         <v>39</v>
@@ -21076,7 +21076,7 @@
         <v>40</v>
       </c>
       <c r="F224" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G224">
         <v>0</v>
@@ -21165,7 +21165,7 @@
         <v>45317.66666666666</v>
       </c>
       <c r="E225" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F225" t="s">
         <v>37</v>
@@ -21260,7 +21260,7 @@
         <v>31</v>
       </c>
       <c r="F226" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -21349,7 +21349,7 @@
         <v>45320.66666666666</v>
       </c>
       <c r="E227" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F227" t="s">
         <v>41</v>
@@ -21441,7 +21441,7 @@
         <v>45320.66666666666</v>
       </c>
       <c r="E228" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F228" t="s">
         <v>30</v>
@@ -21809,7 +21809,7 @@
         <v>45324.66666666666</v>
       </c>
       <c r="E232" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F232" t="s">
         <v>45</v>
@@ -21904,7 +21904,7 @@
         <v>44</v>
       </c>
       <c r="F233" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -22180,7 +22180,7 @@
         <v>42</v>
       </c>
       <c r="F236" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G236">
         <v>1</v>
@@ -22361,10 +22361,10 @@
         <v>45327.66666666666</v>
       </c>
       <c r="E238" t="s">
+        <v>47</v>
+      </c>
+      <c r="F238" t="s">
         <v>48</v>
-      </c>
-      <c r="F238" t="s">
-        <v>47</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -22637,7 +22637,7 @@
         <v>45331.66666666666</v>
       </c>
       <c r="E241" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F241" t="s">
         <v>42</v>
@@ -23005,7 +23005,7 @@
         <v>45332.52083333334</v>
       </c>
       <c r="E245" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F245" t="s">
         <v>37</v>
@@ -23100,7 +23100,7 @@
         <v>43</v>
       </c>
       <c r="F246" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G246">
         <v>3</v>
@@ -23281,7 +23281,7 @@
         <v>45334.66666666666</v>
       </c>
       <c r="E248" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F248" t="s">
         <v>49</v>
@@ -23373,7 +23373,7 @@
         <v>45334.66666666666</v>
       </c>
       <c r="E249" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F249" t="s">
         <v>38</v>
@@ -23557,10 +23557,10 @@
         <v>45338.66666666666</v>
       </c>
       <c r="E251" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F251" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G251">
         <v>2</v>
@@ -23836,7 +23836,7 @@
         <v>41</v>
       </c>
       <c r="F254" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G254">
         <v>2</v>
@@ -23925,7 +23925,7 @@
         <v>45338.66666666666</v>
       </c>
       <c r="E255" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F255" t="s">
         <v>38</v>
@@ -24020,7 +24020,7 @@
         <v>45</v>
       </c>
       <c r="F256" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G256">
         <v>3</v>
@@ -24296,7 +24296,7 @@
         <v>44</v>
       </c>
       <c r="F259" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G259">
         <v>1</v>
@@ -24845,10 +24845,10 @@
         <v>45345.66666666666</v>
       </c>
       <c r="E265" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F265" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G265">
         <v>2</v>
@@ -24940,7 +24940,7 @@
         <v>46</v>
       </c>
       <c r="F266" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G266">
         <v>2</v>
@@ -25029,7 +25029,7 @@
         <v>45348.66666666666</v>
       </c>
       <c r="E267" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F267" t="s">
         <v>41</v>
@@ -25305,7 +25305,7 @@
         <v>45348.66666666666</v>
       </c>
       <c r="E270" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F270" t="s">
         <v>40</v>
@@ -25676,7 +25676,7 @@
         <v>43</v>
       </c>
       <c r="F274" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G274">
         <v>2</v>
@@ -25765,7 +25765,7 @@
         <v>45352.66666666666</v>
       </c>
       <c r="E275" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F275" t="s">
         <v>41</v>
@@ -25860,7 +25860,7 @@
         <v>44</v>
       </c>
       <c r="F276" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G276">
         <v>3</v>
@@ -26044,7 +26044,7 @@
         <v>39</v>
       </c>
       <c r="F278" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G278">
         <v>3</v>
@@ -26133,7 +26133,7 @@
         <v>45355.66666666666</v>
       </c>
       <c r="E279" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F279" t="s">
         <v>32</v>
@@ -26225,10 +26225,10 @@
         <v>45359.66666666666</v>
       </c>
       <c r="E280" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F280" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G280">
         <v>1</v>
@@ -26688,7 +26688,7 @@
         <v>41</v>
       </c>
       <c r="F285" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G285">
         <v>1</v>
@@ -26869,7 +26869,7 @@
         <v>45359.66666666666</v>
       </c>
       <c r="E287" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F287" t="s">
         <v>44</v>
@@ -26961,7 +26961,7 @@
         <v>45359.66666666666</v>
       </c>
       <c r="E288" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F288" t="s">
         <v>45</v>
@@ -27148,7 +27148,7 @@
         <v>36</v>
       </c>
       <c r="F290" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G290">
         <v>3</v>
@@ -27513,10 +27513,10 @@
         <v>45362.66666666666</v>
       </c>
       <c r="E294" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F294" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G294">
         <v>0</v>
@@ -27697,7 +27697,7 @@
         <v>45366.66666666666</v>
       </c>
       <c r="E296" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F296" t="s">
         <v>42</v>
@@ -27884,7 +27884,7 @@
         <v>38</v>
       </c>
       <c r="F298" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G298">
         <v>2</v>
@@ -27976,7 +27976,7 @@
         <v>32</v>
       </c>
       <c r="F299" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G299">
         <v>4</v>
@@ -28157,7 +28157,7 @@
         <v>45366.66666666666</v>
       </c>
       <c r="E301" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F301" t="s">
         <v>39</v>
@@ -28249,7 +28249,7 @@
         <v>45366.66666666666</v>
       </c>
       <c r="E302" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F302" t="s">
         <v>46</v>
@@ -28712,7 +28712,7 @@
         <v>49</v>
       </c>
       <c r="F307" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G307">
         <v>1</v>
@@ -28893,7 +28893,7 @@
         <v>45374.66666666666</v>
       </c>
       <c r="E309" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F309" t="s">
         <v>40</v>
@@ -29261,7 +29261,7 @@
         <v>45380.66666666666</v>
       </c>
       <c r="E313" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F313" t="s">
         <v>38</v>
@@ -29353,7 +29353,7 @@
         <v>45380.66666666666</v>
       </c>
       <c r="E314" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F314" t="s">
         <v>30</v>
@@ -29448,7 +29448,7 @@
         <v>40</v>
       </c>
       <c r="F315" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G315">
         <v>5</v>
@@ -29540,7 +29540,7 @@
         <v>46</v>
       </c>
       <c r="F316" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G316">
         <v>4</v>
@@ -29724,7 +29724,7 @@
         <v>36</v>
       </c>
       <c r="F318" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G318">
         <v>0</v>
@@ -30092,7 +30092,7 @@
         <v>30</v>
       </c>
       <c r="F322" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G322">
         <v>2</v>
@@ -30181,7 +30181,7 @@
         <v>45387.625</v>
       </c>
       <c r="E323" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F323" t="s">
         <v>43</v>
@@ -30641,7 +30641,7 @@
         <v>45390.625</v>
       </c>
       <c r="E328" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F328" t="s">
         <v>42</v>
@@ -30825,10 +30825,10 @@
         <v>45390.625</v>
       </c>
       <c r="E330" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F330" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G330">
         <v>0</v>
@@ -31184,7 +31184,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7154910</v>
+        <v>7154911</v>
       </c>
       <c r="C334" t="s">
         <v>29</v>
@@ -31193,62 +31193,62 @@
         <v>45394.625</v>
       </c>
       <c r="E334" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F334" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G334">
         <v>1</v>
       </c>
       <c r="H334">
+        <v>4</v>
+      </c>
+      <c r="I334">
+        <v>0</v>
+      </c>
+      <c r="J334">
         <v>3</v>
-      </c>
-      <c r="I334">
-        <v>1</v>
-      </c>
-      <c r="J334">
-        <v>0</v>
       </c>
       <c r="K334" t="s">
         <v>54</v>
       </c>
       <c r="L334">
-        <v>2.25</v>
+        <v>4.25</v>
       </c>
       <c r="M334">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N334">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="O334">
-        <v>1.666</v>
+        <v>4.75</v>
       </c>
       <c r="P334">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q334">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="R334">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="S334">
+        <v>1.975</v>
+      </c>
+      <c r="T334">
+        <v>1.875</v>
+      </c>
+      <c r="U334">
+        <v>2.75</v>
+      </c>
+      <c r="V334">
         <v>1.825</v>
       </c>
-      <c r="T334">
+      <c r="W334">
         <v>2.025</v>
       </c>
-      <c r="U334">
-        <v>3.25</v>
-      </c>
-      <c r="V334">
-        <v>1.9</v>
-      </c>
-      <c r="W334">
-        <v>1.95</v>
-      </c>
       <c r="X334">
         <v>-1</v>
       </c>
@@ -31256,16 +31256,16 @@
         <v>-1</v>
       </c>
       <c r="Z334">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="AA334">
         <v>-1</v>
       </c>
       <c r="AB334">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC334">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AD334">
         <v>-1</v>
@@ -31276,7 +31276,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7154909</v>
+        <v>7154910</v>
       </c>
       <c r="C335" t="s">
         <v>29</v>
@@ -31285,79 +31285,79 @@
         <v>45394.625</v>
       </c>
       <c r="E335" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F335" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G335">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I335">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K335" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L335">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="M335">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N335">
+        <v>2.6</v>
+      </c>
+      <c r="O335">
+        <v>1.666</v>
+      </c>
+      <c r="P335">
         <v>4.333</v>
       </c>
-      <c r="O335">
-        <v>1.533</v>
-      </c>
-      <c r="P335">
-        <v>4.75</v>
-      </c>
       <c r="Q335">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="R335">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="S335">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T335">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U335">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V335">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W335">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="X335">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y335">
         <v>-1</v>
       </c>
       <c r="Z335">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="AA335">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB335">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC335">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD335">
         <v>-1</v>
@@ -31368,7 +31368,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>7154908</v>
+        <v>7154909</v>
       </c>
       <c r="C336" t="s">
         <v>29</v>
@@ -31377,52 +31377,52 @@
         <v>45394.625</v>
       </c>
       <c r="E336" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F336" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G336">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H336">
         <v>1</v>
       </c>
       <c r="I336">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J336">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K336" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L336">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="M336">
+        <v>4</v>
+      </c>
+      <c r="N336">
         <v>4.333</v>
       </c>
-      <c r="N336">
+      <c r="O336">
+        <v>1.533</v>
+      </c>
+      <c r="P336">
+        <v>4.75</v>
+      </c>
+      <c r="Q336">
         <v>5.25</v>
       </c>
-      <c r="O336">
-        <v>1.45</v>
-      </c>
-      <c r="P336">
-        <v>5</v>
-      </c>
-      <c r="Q336">
-        <v>6</v>
-      </c>
       <c r="R336">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="S336">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T336">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U336">
         <v>3</v>
@@ -31434,25 +31434,25 @@
         <v>2.05</v>
       </c>
       <c r="X336">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y336">
         <v>-1</v>
       </c>
       <c r="Z336">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AA336">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB336">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC336">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD336">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="337" spans="1:30">
@@ -31460,7 +31460,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>7154911</v>
+        <v>7154908</v>
       </c>
       <c r="C337" t="s">
         <v>29</v>
@@ -31469,46 +31469,46 @@
         <v>45394.625</v>
       </c>
       <c r="E337" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F337" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G337">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H337">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I337">
         <v>0</v>
       </c>
       <c r="J337">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K337" t="s">
         <v>54</v>
       </c>
       <c r="L337">
-        <v>4.25</v>
+        <v>1.5</v>
       </c>
       <c r="M337">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="N337">
-        <v>1.7</v>
+        <v>5.25</v>
       </c>
       <c r="O337">
-        <v>4.75</v>
+        <v>1.45</v>
       </c>
       <c r="P337">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q337">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="R337">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="S337">
         <v>1.975</v>
@@ -31517,13 +31517,13 @@
         <v>1.875</v>
       </c>
       <c r="U337">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V337">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W337">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="X337">
         <v>-1</v>
@@ -31532,7 +31532,7 @@
         <v>-1</v>
       </c>
       <c r="Z337">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="AA337">
         <v>-1</v>
@@ -31541,10 +31541,10 @@
         <v>0.875</v>
       </c>
       <c r="AC337">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD337">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="338" spans="1:30">
@@ -31653,10 +31653,10 @@
         <v>45397.625</v>
       </c>
       <c r="E339" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F339" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G339">
         <v>0</v>
@@ -31745,10 +31745,10 @@
         <v>45397.625</v>
       </c>
       <c r="E340" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F340" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G340">
         <v>2</v>
@@ -31840,7 +31840,7 @@
         <v>31</v>
       </c>
       <c r="F341" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G341">
         <v>1</v>
@@ -31929,7 +31929,7 @@
         <v>45401.625</v>
       </c>
       <c r="E342" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F342" t="s">
         <v>44</v>
@@ -32116,7 +32116,7 @@
         <v>45</v>
       </c>
       <c r="F344" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G344">
         <v>3</v>
@@ -32484,7 +32484,7 @@
         <v>32</v>
       </c>
       <c r="F348" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G348">
         <v>3</v>
@@ -32576,7 +32576,7 @@
         <v>39</v>
       </c>
       <c r="F349" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G349">
         <v>2</v>
@@ -32849,7 +32849,7 @@
         <v>45408.625</v>
       </c>
       <c r="E352" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F352" t="s">
         <v>30</v>
@@ -32941,7 +32941,7 @@
         <v>45408.625</v>
       </c>
       <c r="E353" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F353" t="s">
         <v>31</v>
@@ -33036,7 +33036,7 @@
         <v>37</v>
       </c>
       <c r="F354" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G354">
         <v>2</v>
@@ -33125,7 +33125,7 @@
         <v>45408.625</v>
       </c>
       <c r="E355" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F355" t="s">
         <v>49</v>
@@ -33585,7 +33585,7 @@
         <v>45411.625</v>
       </c>
       <c r="E360" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F360" t="s">
         <v>43</v>
@@ -33677,7 +33677,7 @@
         <v>45415.625</v>
       </c>
       <c r="E361" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F361" t="s">
         <v>46</v>
@@ -34229,10 +34229,10 @@
         <v>45415.625</v>
       </c>
       <c r="E367" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F367" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G367">
         <v>2</v>
@@ -34324,7 +34324,7 @@
         <v>37</v>
       </c>
       <c r="F368" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G368">
         <v>2</v>
@@ -34508,7 +34508,7 @@
         <v>31</v>
       </c>
       <c r="F370" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G370">
         <v>2</v>
@@ -34597,7 +34597,7 @@
         <v>45422.625</v>
       </c>
       <c r="E371" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F371" t="s">
         <v>38</v>
@@ -34965,7 +34965,7 @@
         <v>45422.625</v>
       </c>
       <c r="E375" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F375" t="s">
         <v>30</v>
@@ -35060,7 +35060,7 @@
         <v>46</v>
       </c>
       <c r="F376" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G376">
         <v>2</v>
@@ -35336,7 +35336,7 @@
         <v>36</v>
       </c>
       <c r="F379" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G379">
         <v>2</v>
@@ -35425,7 +35425,7 @@
         <v>45422.625</v>
       </c>
       <c r="E380" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F380" t="s">
         <v>45</v>
